--- a/Input_Automation/Phantom Items.xlsx
+++ b/Input_Automation/Phantom Items.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpadeveloper\Documents\UiPath\Fellowes_Validation\Input_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B416E532-8C11-400F-9D4C-9A9B885C840A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D200FDF0-6F2F-41C6-B3D0-6A9F79E84EDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19430" windowHeight="10310" xr2:uid="{6ABD80F8-E04B-4DC7-BD19-74BFF736B6CF}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" xr2:uid="{6ABD80F8-E04B-4DC7-BD19-74BFF736B6CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$688</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$708</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -3142,24 +3142,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E2B8A8-E9DF-45E8-AB11-A68DB9AEC69D}">
-  <dimension ref="A1:F726"/>
+  <dimension ref="A1:F725"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A696" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A702" sqref="A702:A715"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A693" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L414" sqref="L414"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="24"/>
-    <col min="2" max="2" width="17.54296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="8.7109375" style="24"/>
+    <col min="2" max="2" width="17.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>2</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>7</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>3</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
         <v>10</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>4</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>5</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>6</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
         <v>19</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>19</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>7</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>8</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>385693</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>9</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>10</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>11</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>12</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>385635</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>13</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>14</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>385636</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>15</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>16</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>385637</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>17</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>18</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>385638</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>19</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>385639</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>20</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>385640</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>21</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="20" t="s">
         <v>54</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>22</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="20" t="s">
         <v>57</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>23</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="20" t="s">
         <v>60</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>24</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="20" t="s">
         <v>63</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>25</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="20" t="s">
         <v>65</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>26</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" s="20" t="s">
         <v>68</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>27</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" s="20" t="s">
         <v>70</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>28</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="20" t="s">
         <v>72</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>29</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="20" t="s">
         <v>74</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>30</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="20" t="s">
         <v>76</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>31</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="20" t="s">
         <v>78</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>32</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>80</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>33</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>82</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>34</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>84</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>35</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="20" t="s">
         <v>86</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>36</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" s="20" t="s">
         <v>88</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>37</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" s="20" t="s">
         <v>91</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>38</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" s="20" t="s">
         <v>94</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>39</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" s="20" t="s">
         <v>97</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <v>40</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" s="20" t="s">
         <v>100</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>41</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" s="20" t="s">
         <v>103</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>42</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" s="20" t="s">
         <v>106</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>43</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" s="20" t="s">
         <v>109</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>44</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" s="20" t="s">
         <v>112</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>45</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="20" t="s">
         <v>114</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>46</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" s="20" t="s">
         <v>117</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>47</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" s="20" t="s">
         <v>120</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>48</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B82" s="20" t="s">
         <v>123</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>49</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" s="20" t="s">
         <v>126</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>50</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B86" s="20" t="s">
         <v>129</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>51</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B88" s="20" t="s">
         <v>132</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
         <v>52</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B90" s="20" t="s">
         <v>135</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
         <v>53</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" s="20" t="s">
         <v>138</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
         <v>54</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B94" s="20" t="s">
         <v>141</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
         <v>55</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B96" s="20" t="s">
         <v>144</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="24">
         <v>56</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B98" s="20" t="s">
         <v>147</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
         <v>57</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B100" s="20" t="s">
         <v>150</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="24">
         <v>58</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B102" s="20" t="s">
         <v>153</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="24">
         <v>59</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B104" s="20" t="s">
         <v>156</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="24">
         <v>60</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106" s="20" t="s">
         <v>159</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="24">
         <v>61</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="24">
         <v>62</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="24">
         <v>63</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B110" s="20" t="s">
         <v>168</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="24">
         <v>64</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B112" s="20" t="s">
         <v>170</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="24">
         <v>65</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B114" s="20" t="s">
         <v>172</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="24">
         <v>66</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B116" s="20" t="s">
         <v>174</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="24">
         <v>67</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B118" s="20" t="s">
         <v>176</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="24">
         <v>68</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B120" s="20" t="s">
         <v>178</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="24">
         <v>69</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B122" s="20" t="s">
         <v>180</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="24">
         <v>70</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B124" s="20" t="s">
         <v>182</v>
       </c>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="F124" s="5"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="24">
         <v>71</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B126" s="20" t="s">
         <v>184</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="24">
         <v>72</v>
       </c>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="F127" s="5"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B128" s="20" t="s">
         <v>186</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="24">
         <v>73</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B130" s="20" t="s">
         <v>188</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="24">
         <v>74</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B132" s="20" t="s">
         <v>190</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="24">
         <v>75</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B134" s="20" t="s">
         <v>192</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="24">
         <v>76</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B136" s="20" t="s">
         <v>194</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="24">
         <v>77</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B138" s="20" t="s">
         <v>196</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="24">
         <v>78</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B140" s="20" t="s">
         <v>198</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="24">
         <v>79</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B142" s="20" t="s">
         <v>200</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="24">
         <v>80</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B144" s="20" t="s">
         <v>202</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="24">
         <v>81</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B146" s="20" t="s">
         <v>205</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="24">
         <v>82</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B148" s="20" t="s">
         <v>208</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="24">
         <v>83</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B150" s="20" t="s">
         <v>210</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="24">
         <v>84</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B152" s="20" t="s">
         <v>212</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="24">
         <v>85</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B154" s="20" t="s">
         <v>214</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="24">
         <v>86</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B156" s="20" t="s">
         <v>216</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="24">
         <v>87</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B158" s="20" t="s">
         <v>219</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="24">
         <v>88</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B160" s="20" t="s">
         <v>221</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="24">
         <v>89</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B162" s="20" t="s">
         <v>224</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="24">
         <v>90</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B164" s="20" t="s">
         <v>226</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="24">
         <v>91</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B166" s="20" t="s">
         <v>7</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="24">
         <v>92</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B168" s="20" t="s">
         <v>10</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="24">
         <v>93</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B170" s="20" t="s">
         <v>228</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="24">
         <v>94</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B172" s="20" t="s">
         <v>230</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="24">
         <v>95</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B174" s="20" t="s">
         <v>232</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="24">
         <v>96</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B176" s="20" t="s">
         <v>234</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="24">
         <v>97</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B178" s="20" t="s">
         <v>236</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="24">
         <v>98</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B180" s="20" t="s">
         <v>82</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="24">
         <v>99</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B182" s="20" t="s">
         <v>84</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="24">
         <v>100</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B184" s="20" t="s">
         <v>86</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="24">
         <v>101</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="20" t="s">
         <v>240</v>
       </c>
@@ -5514,7 +5514,7 @@
       </c>
       <c r="F186" s="5"/>
     </row>
-    <row r="187" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="20" t="s">
         <v>240</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="24">
         <v>102</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="20" t="s">
         <v>243</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="20" t="s">
         <v>243</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="24">
         <v>103</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="20" t="s">
         <v>246</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="20" t="s">
         <v>246</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="24">
         <v>104</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="20" t="s">
         <v>249</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="20" t="s">
         <v>249</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="24">
         <v>105</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="20" t="s">
         <v>252</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="20" t="s">
         <v>252</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="24">
         <v>106</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="20" t="s">
         <v>255</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="20" t="s">
         <v>255</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="24">
         <v>107</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="20" t="s">
         <v>258</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="20" t="s">
         <v>258</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="24">
         <v>108</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="20" t="s">
         <v>261</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="20" t="s">
         <v>261</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="24">
         <v>109</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="20" t="s">
         <v>264</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="20" t="s">
         <v>264</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="24">
         <v>110</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B213" s="20" t="s">
         <v>267</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B214" s="20" t="s">
         <v>267</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="24">
         <v>111</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B216" s="20" t="s">
         <v>270</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B217" s="20" t="s">
         <v>270</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="24">
         <v>112</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B219" s="20" t="s">
         <v>272</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B220" s="20" t="s">
         <v>272</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="24">
         <v>113</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B222" s="20" t="s">
         <v>275</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B223" s="20" t="s">
         <v>275</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="24">
         <v>114</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B225" s="20" t="s">
         <v>278</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B226" s="20" t="s">
         <v>278</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="24">
         <v>115</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B228" s="20" t="s">
         <v>281</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B229" s="20" t="s">
         <v>281</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="24">
         <v>116</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B231" s="20" t="s">
         <v>284</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B232" s="20" t="s">
         <v>284</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="24">
         <v>117</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B234" s="20" t="s">
         <v>287</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B235" s="20" t="s">
         <v>287</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="24">
         <v>118</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="20" t="s">
         <v>290</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="20" t="s">
         <v>290</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="24">
         <v>119</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="20" t="s">
         <v>293</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="20" t="s">
         <v>293</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="24">
         <v>120</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="20" t="s">
         <v>296</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="20" t="s">
         <v>296</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="24">
         <v>121</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="20" t="s">
         <v>299</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="20" t="s">
         <v>299</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="24">
         <v>122</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="20" t="s">
         <v>302</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="20" t="s">
         <v>302</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="24">
         <v>123</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="20" t="s">
         <v>305</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="20" t="s">
         <v>305</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="24">
         <v>124</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="20" t="s">
         <v>308</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="20" t="s">
         <v>308</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="24">
         <v>125</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="20" t="s">
         <v>311</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="20" t="s">
         <v>311</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="24">
         <v>126</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="20" t="s">
         <v>314</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="20" t="s">
         <v>314</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="24">
         <v>127</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="20" t="s">
         <v>317</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="20" t="s">
         <v>317</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="24">
         <v>128</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="20" t="s">
         <v>320</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="20" t="s">
         <v>320</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="24">
         <v>129</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="20" t="s">
         <v>323</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="20" t="s">
         <v>323</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="24">
         <v>130</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="20" t="s">
         <v>326</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="20" t="s">
         <v>326</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="24">
         <v>131</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="20" t="s">
         <v>329</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="20" t="s">
         <v>329</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="24">
         <v>132</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="20" t="s">
         <v>332</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="20" t="s">
         <v>332</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="24">
         <v>133</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="20" t="s">
         <v>335</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="20" t="s">
         <v>335</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="24">
         <v>134</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="20" t="s">
         <v>338</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="20" t="s">
         <v>338</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="24">
         <v>135</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="20" t="s">
         <v>341</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="20" t="s">
         <v>341</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="24">
         <v>136</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="20" t="s">
         <v>344</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B292" s="20" t="s">
         <v>344</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="24">
         <v>137</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="20" t="s">
         <v>347</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="20" t="s">
         <v>347</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="24">
         <v>138</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="20" t="s">
         <v>349</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="20" t="s">
         <v>349</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="24">
         <v>139</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="20" t="s">
         <v>351</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="20" t="s">
         <v>351</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="24">
         <v>140</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="20" t="s">
         <v>353</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="20" t="s">
         <v>353</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="24">
         <v>141</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="20" t="s">
         <v>355</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="20" t="s">
         <v>355</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="24">
         <v>142</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="20" t="s">
         <v>357</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="20" t="s">
         <v>357</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="24">
         <v>143</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="20" t="s">
         <v>359</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="20" t="s">
         <v>359</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="24">
         <v>144</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="20" t="s">
         <v>361</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="20" t="s">
         <v>361</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="24">
         <v>145</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="20" t="s">
         <v>363</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="20" t="s">
         <v>363</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="24">
         <v>146</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="20" t="s">
         <v>365</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="20" t="s">
         <v>365</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="24">
         <v>147</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="20" t="s">
         <v>19</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="20" t="s">
         <v>19</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="24">
         <v>148</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="20" t="s">
         <v>368</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="20" t="s">
         <v>368</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="24">
         <v>149</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="20" t="s">
         <v>370</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="20" t="s">
         <v>370</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="24">
         <v>150</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="20" t="s">
         <v>372</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="20" t="s">
         <v>372</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="24">
         <v>151</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="20" t="s">
         <v>374</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="20" t="s">
         <v>374</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="24">
         <v>152</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="20" t="s">
         <v>376</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="20" t="s">
         <v>376</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="24">
         <v>153</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="20" t="s">
         <v>378</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="20" t="s">
         <v>378</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="24">
         <v>154</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="20" t="s">
         <v>380</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="20" t="s">
         <v>380</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="24">
         <v>155</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="20" t="s">
         <v>382</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="20" t="s">
         <v>382</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="24">
         <v>156</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="20" t="s">
         <v>384</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="20" t="s">
         <v>384</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="24">
         <v>157</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="20" t="s">
         <v>386</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="20" t="s">
         <v>386</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="24">
         <v>158</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="20" t="s">
         <v>388</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="20" t="s">
         <v>388</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="24">
         <v>159</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="20" t="s">
         <v>390</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="20" t="s">
         <v>390</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="24">
         <v>160</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="20" t="s">
         <v>392</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="20" t="s">
         <v>392</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="24">
         <v>163</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="20" t="s">
         <v>394</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="20" t="s">
         <v>394</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="24">
         <v>164</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="20" t="s">
         <v>396</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="20" t="s">
         <v>396</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="24">
         <v>165</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="20" t="s">
         <v>398</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="20" t="s">
         <v>398</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="24">
         <v>166</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="20" t="s">
         <v>400</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="20" t="s">
         <v>400</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="24">
         <v>167</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="20" t="s">
         <v>402</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="20" t="s">
         <v>402</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="24">
         <v>168</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="20" t="s">
         <v>404</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="20" t="s">
         <v>404</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="24">
         <v>169</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="20" t="s">
         <v>406</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="20" t="s">
         <v>406</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="24">
         <v>170</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="20" t="s">
         <v>408</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="20" t="s">
         <v>408</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="24">
         <v>171</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="20" t="s">
         <v>410</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="20" t="s">
         <v>410</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="24">
         <v>172</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="13" t="s">
         <v>412</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="13" t="s">
         <v>412</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="24">
         <v>173</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="13" t="s">
         <v>414</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="13" t="s">
         <v>414</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="24">
         <v>174</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="8" t="s">
         <v>416</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="8" t="s">
         <v>416</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="24">
         <v>172</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B402" s="21" t="s">
         <v>418</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B403" s="21" t="s">
         <v>418</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="25">
         <v>173</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="26"/>
       <c r="B405" s="22" t="s">
         <v>420</v>
@@ -8143,7 +8143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="27"/>
       <c r="B406" s="22" t="s">
         <v>420</v>
@@ -8155,7 +8155,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="26">
         <v>174</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="26"/>
       <c r="B408" s="22" t="s">
         <v>422</v>
@@ -8181,7 +8181,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="27"/>
       <c r="B409" s="22" t="s">
         <v>422</v>
@@ -8193,7 +8193,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="26">
         <v>175</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="26"/>
       <c r="B411" s="22" t="s">
         <v>424</v>
@@ -8219,7 +8219,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="27"/>
       <c r="B412" s="22" t="s">
         <v>424</v>
@@ -8231,7 +8231,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="26">
         <v>176</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="26"/>
       <c r="B414" s="22" t="s">
         <v>426</v>
@@ -8257,7 +8257,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="27"/>
       <c r="B415" s="22" t="s">
         <v>426</v>
@@ -8269,7 +8269,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="26">
         <v>177</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="26"/>
       <c r="B417" s="22" t="s">
         <v>428</v>
@@ -8295,7 +8295,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="27"/>
       <c r="B418" s="22" t="s">
         <v>428</v>
@@ -8307,7 +8307,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="26">
         <v>178</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="26"/>
       <c r="B420" s="22" t="s">
         <v>430</v>
@@ -8333,7 +8333,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="27"/>
       <c r="B421" s="22" t="s">
         <v>430</v>
@@ -8345,7 +8345,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="26">
         <v>179</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="26"/>
       <c r="B423" s="22" t="s">
         <v>432</v>
@@ -8371,7 +8371,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="27"/>
       <c r="B424" s="22" t="s">
         <v>432</v>
@@ -8383,7 +8383,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="26">
         <v>180</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="26"/>
       <c r="B426" s="22" t="s">
         <v>434</v>
@@ -8409,7 +8409,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="27"/>
       <c r="B427" s="22" t="s">
         <v>434</v>
@@ -8421,7 +8421,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="26">
         <v>181</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="26"/>
       <c r="B429" s="22" t="s">
         <v>436</v>
@@ -8447,7 +8447,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="27"/>
       <c r="B430" s="22" t="s">
         <v>436</v>
@@ -8459,7 +8459,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="26">
         <v>182</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="26"/>
       <c r="B432" s="22" t="s">
         <v>438</v>
@@ -8485,7 +8485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="27"/>
       <c r="B433" s="22" t="s">
         <v>438</v>
@@ -8497,7 +8497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="26">
         <v>183</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="26"/>
       <c r="B435" s="22" t="s">
         <v>440</v>
@@ -8523,7 +8523,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="27"/>
       <c r="B436" s="22" t="s">
         <v>440</v>
@@ -8535,7 +8535,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="26">
         <v>184</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="26"/>
       <c r="B438" s="22" t="s">
         <v>442</v>
@@ -8561,7 +8561,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="27"/>
       <c r="B439" s="22" t="s">
         <v>442</v>
@@ -8573,7 +8573,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="26">
         <v>185</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="26"/>
       <c r="B441" s="22" t="s">
         <v>444</v>
@@ -8599,7 +8599,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="27"/>
       <c r="B442" s="22" t="s">
         <v>444</v>
@@ -8611,7 +8611,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="26">
         <v>186</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="26"/>
       <c r="B444" s="22" t="s">
         <v>446</v>
@@ -8637,7 +8637,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="27"/>
       <c r="B445" s="22" t="s">
         <v>446</v>
@@ -8649,7 +8649,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="26">
         <v>187</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="26"/>
       <c r="B447" s="22" t="s">
         <v>448</v>
@@ -8675,7 +8675,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="27"/>
       <c r="B448" s="22" t="s">
         <v>448</v>
@@ -8687,7 +8687,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="26">
         <v>188</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="26"/>
       <c r="B450" s="22" t="s">
         <v>450</v>
@@ -8713,7 +8713,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="27"/>
       <c r="B451" s="22" t="s">
         <v>450</v>
@@ -8725,7 +8725,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="26">
         <v>189</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="26"/>
       <c r="B453" s="22" t="s">
         <v>452</v>
@@ -8751,7 +8751,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="27"/>
       <c r="B454" s="22" t="s">
         <v>452</v>
@@ -8763,7 +8763,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="26">
         <v>190</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="26"/>
       <c r="B456" s="22" t="s">
         <v>454</v>
@@ -8789,7 +8789,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="27"/>
       <c r="B457" s="22" t="s">
         <v>454</v>
@@ -8801,7 +8801,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="26">
         <v>191</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="26"/>
       <c r="B459" s="22" t="s">
         <v>456</v>
@@ -8827,7 +8827,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="27"/>
       <c r="B460" s="22" t="s">
         <v>456</v>
@@ -8839,7 +8839,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="26">
         <v>192</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="26"/>
       <c r="B462" s="22" t="s">
         <v>458</v>
@@ -8865,7 +8865,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="27"/>
       <c r="B463" s="22" t="s">
         <v>458</v>
@@ -8877,7 +8877,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="26">
         <v>193</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="26"/>
       <c r="B465" s="22" t="s">
         <v>460</v>
@@ -8903,7 +8903,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="27"/>
       <c r="B466" s="22" t="s">
         <v>460</v>
@@ -8915,7 +8915,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="26">
         <v>194</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="26"/>
       <c r="B468" s="22" t="s">
         <v>462</v>
@@ -8941,7 +8941,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="27"/>
       <c r="B469" s="22" t="s">
         <v>462</v>
@@ -8953,7 +8953,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="26">
         <v>195</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="26"/>
       <c r="B471" s="22" t="s">
         <v>464</v>
@@ -8979,7 +8979,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="27"/>
       <c r="B472" s="22" t="s">
         <v>464</v>
@@ -8991,7 +8991,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="26">
         <v>196</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="26"/>
       <c r="B474" s="22" t="s">
         <v>466</v>
@@ -9017,7 +9017,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="27"/>
       <c r="B475" s="22" t="s">
         <v>466</v>
@@ -9029,7 +9029,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="26">
         <v>197</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="26"/>
       <c r="B477" s="22" t="s">
         <v>468</v>
@@ -9055,7 +9055,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="27"/>
       <c r="B478" s="22" t="s">
         <v>468</v>
@@ -9067,7 +9067,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="26">
         <v>198</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="26"/>
       <c r="B480" s="22" t="s">
         <v>470</v>
@@ -9093,7 +9093,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="27"/>
       <c r="B481" s="22" t="s">
         <v>470</v>
@@ -9105,7 +9105,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="26">
         <v>199</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="26"/>
       <c r="B483" s="22" t="s">
         <v>472</v>
@@ -9131,7 +9131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="27"/>
       <c r="B484" s="22" t="s">
         <v>472</v>
@@ -9143,7 +9143,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="26">
         <v>200</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="26"/>
       <c r="B486" s="22" t="s">
         <v>474</v>
@@ -9169,7 +9169,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="27"/>
       <c r="B487" s="22" t="s">
         <v>474</v>
@@ -9181,7 +9181,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="26">
         <v>201</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="26"/>
       <c r="B489" s="22" t="s">
         <v>476</v>
@@ -9207,7 +9207,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="27"/>
       <c r="B490" s="22" t="s">
         <v>476</v>
@@ -9219,7 +9219,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="26">
         <v>202</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="26"/>
       <c r="B492" s="22" t="s">
         <v>478</v>
@@ -9245,7 +9245,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="27"/>
       <c r="B493" s="22" t="s">
         <v>478</v>
@@ -9257,7 +9257,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="26">
         <v>203</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="26"/>
       <c r="B495" s="22" t="s">
         <v>480</v>
@@ -9283,7 +9283,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="27"/>
       <c r="B496" s="22" t="s">
         <v>480</v>
@@ -9295,7 +9295,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="26">
         <v>204</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="26"/>
       <c r="B498" s="22" t="s">
         <v>482</v>
@@ -9321,7 +9321,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="27"/>
       <c r="B499" s="22" t="s">
         <v>482</v>
@@ -9333,7 +9333,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="26">
         <v>205</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="26"/>
       <c r="B501" s="22" t="s">
         <v>484</v>
@@ -9359,7 +9359,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="27"/>
       <c r="B502" s="22" t="s">
         <v>484</v>
@@ -9371,7 +9371,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="26">
         <v>206</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="26"/>
       <c r="B504" s="22" t="s">
         <v>486</v>
@@ -9397,7 +9397,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="27"/>
       <c r="B505" s="22" t="s">
         <v>486</v>
@@ -9409,7 +9409,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="26">
         <v>207</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="26"/>
       <c r="B507" s="22" t="s">
         <v>488</v>
@@ -9435,7 +9435,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="27"/>
       <c r="B508" s="22" t="s">
         <v>488</v>
@@ -9447,7 +9447,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" s="26">
         <v>208</v>
       </c>
@@ -9462,7 +9462,7 @@
       </c>
       <c r="E509" s="11"/>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="26"/>
       <c r="B510" s="13" t="s">
         <v>490</v>
@@ -9475,7 +9475,7 @@
       </c>
       <c r="E510" s="11"/>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="26"/>
       <c r="B511" s="13" t="s">
         <v>490</v>
@@ -9488,7 +9488,7 @@
       </c>
       <c r="E511" s="11"/>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="28">
         <v>209</v>
       </c>
@@ -9503,7 +9503,7 @@
       </c>
       <c r="E512" s="11"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" s="28"/>
       <c r="B513" s="13" t="s">
         <v>492</v>
@@ -9516,7 +9516,7 @@
       </c>
       <c r="E513" s="11"/>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="28"/>
       <c r="B514" s="13" t="s">
         <v>492</v>
@@ -9529,7 +9529,7 @@
       </c>
       <c r="E514" s="11"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="28">
         <v>210</v>
       </c>
@@ -9544,7 +9544,7 @@
       </c>
       <c r="E515" s="11"/>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" s="28"/>
       <c r="B516" s="13" t="s">
         <v>494</v>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="E516" s="11"/>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="28"/>
       <c r="B517" s="13" t="s">
         <v>494</v>
@@ -9570,7 +9570,7 @@
       </c>
       <c r="E517" s="11"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="28">
         <v>211</v>
       </c>
@@ -9585,7 +9585,7 @@
       </c>
       <c r="E518" s="11"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="28"/>
       <c r="B519" s="13" t="s">
         <v>496</v>
@@ -9598,7 +9598,7 @@
       </c>
       <c r="E519" s="11"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="28"/>
       <c r="B520" s="13" t="s">
         <v>496</v>
@@ -9611,7 +9611,7 @@
       </c>
       <c r="E520" s="11"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="28">
         <v>212</v>
       </c>
@@ -9626,7 +9626,7 @@
       </c>
       <c r="E521" s="11"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="28"/>
       <c r="B522" s="13" t="s">
         <v>498</v>
@@ -9639,7 +9639,7 @@
       </c>
       <c r="E522" s="11"/>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="28"/>
       <c r="B523" s="13" t="s">
         <v>498</v>
@@ -9652,7 +9652,7 @@
       </c>
       <c r="E523" s="11"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="28">
         <v>213</v>
       </c>
@@ -9667,7 +9667,7 @@
       </c>
       <c r="E524" s="11"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="28"/>
       <c r="B525" s="13" t="s">
         <v>500</v>
@@ -9680,7 +9680,7 @@
       </c>
       <c r="E525" s="11"/>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="28"/>
       <c r="B526" s="13" t="s">
         <v>500</v>
@@ -9693,7 +9693,7 @@
       </c>
       <c r="E526" s="11"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="28">
         <v>214</v>
       </c>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="E527" s="11"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="28"/>
       <c r="B528" s="13" t="s">
         <v>502</v>
@@ -9721,7 +9721,7 @@
       </c>
       <c r="E528" s="11"/>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="28"/>
       <c r="B529" s="13" t="s">
         <v>502</v>
@@ -9734,7 +9734,7 @@
       </c>
       <c r="E529" s="11"/>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="28">
         <v>215</v>
       </c>
@@ -9749,7 +9749,7 @@
       </c>
       <c r="E530" s="11"/>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="28"/>
       <c r="B531" s="13" t="s">
         <v>504</v>
@@ -9762,7 +9762,7 @@
       </c>
       <c r="E531" s="11"/>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" s="28"/>
       <c r="B532" s="13" t="s">
         <v>504</v>
@@ -9775,7 +9775,7 @@
       </c>
       <c r="E532" s="11"/>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="28">
         <v>216</v>
       </c>
@@ -9790,7 +9790,7 @@
       </c>
       <c r="E533" s="11"/>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" s="28"/>
       <c r="B534" s="13" t="s">
         <v>506</v>
@@ -9803,7 +9803,7 @@
       </c>
       <c r="E534" s="11"/>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="28"/>
       <c r="B535" s="13" t="s">
         <v>506</v>
@@ -9816,7 +9816,7 @@
       </c>
       <c r="E535" s="11"/>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="28">
         <v>217</v>
       </c>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="E536" s="11"/>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="28"/>
       <c r="B537" s="13" t="s">
         <v>508</v>
@@ -9844,7 +9844,7 @@
       </c>
       <c r="E537" s="11"/>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="28"/>
       <c r="B538" s="13" t="s">
         <v>508</v>
@@ -9857,7 +9857,7 @@
       </c>
       <c r="E538" s="11"/>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="28">
         <v>218</v>
       </c>
@@ -9872,7 +9872,7 @@
       </c>
       <c r="E539" s="11"/>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="28"/>
       <c r="B540" s="13" t="s">
         <v>510</v>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="E540" s="11"/>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="28"/>
       <c r="B541" s="13" t="s">
         <v>510</v>
@@ -9898,7 +9898,7 @@
       </c>
       <c r="E541" s="11"/>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="28">
         <v>219</v>
       </c>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="E542" s="11"/>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="28"/>
       <c r="B543" s="13" t="s">
         <v>512</v>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="E543" s="11"/>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="28"/>
       <c r="B544" s="13" t="s">
         <v>512</v>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="E544" s="11"/>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="28">
         <v>220</v>
       </c>
@@ -9954,7 +9954,7 @@
       </c>
       <c r="E545" s="11"/>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" s="28"/>
       <c r="B546" s="13" t="s">
         <v>514</v>
@@ -9967,7 +9967,7 @@
       </c>
       <c r="E546" s="11"/>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" s="28"/>
       <c r="B547" s="13" t="s">
         <v>514</v>
@@ -9980,7 +9980,7 @@
       </c>
       <c r="E547" s="11"/>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" s="28">
         <v>221</v>
       </c>
@@ -9995,7 +9995,7 @@
       </c>
       <c r="E548" s="11"/>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" s="28"/>
       <c r="B549" s="13" t="s">
         <v>516</v>
@@ -10008,7 +10008,7 @@
       </c>
       <c r="E549" s="11"/>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="28"/>
       <c r="B550" s="13" t="s">
         <v>516</v>
@@ -10021,7 +10021,7 @@
       </c>
       <c r="E550" s="11"/>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" s="28">
         <v>222</v>
       </c>
@@ -10036,7 +10036,7 @@
       </c>
       <c r="E551" s="11"/>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" s="28"/>
       <c r="B552" s="13" t="s">
         <v>518</v>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="E552" s="11"/>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" s="28"/>
       <c r="B553" s="13" t="s">
         <v>518</v>
@@ -10062,7 +10062,7 @@
       </c>
       <c r="E553" s="11"/>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" s="28">
         <v>223</v>
       </c>
@@ -10077,7 +10077,7 @@
       </c>
       <c r="E554" s="11"/>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" s="28"/>
       <c r="B555" s="13" t="s">
         <v>520</v>
@@ -10090,7 +10090,7 @@
       </c>
       <c r="E555" s="11"/>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="28"/>
       <c r="B556" s="13" t="s">
         <v>520</v>
@@ -10103,7 +10103,7 @@
       </c>
       <c r="E556" s="11"/>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" s="28">
         <v>224</v>
       </c>
@@ -10118,7 +10118,7 @@
       </c>
       <c r="E557" s="11"/>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" s="28"/>
       <c r="B558" s="13" t="s">
         <v>522</v>
@@ -10131,7 +10131,7 @@
       </c>
       <c r="E558" s="11"/>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" s="28"/>
       <c r="B559" s="13" t="s">
         <v>522</v>
@@ -10144,7 +10144,7 @@
       </c>
       <c r="E559" s="11"/>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" s="28">
         <v>225</v>
       </c>
@@ -10159,7 +10159,7 @@
       </c>
       <c r="E560" s="11"/>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" s="28"/>
       <c r="B561" s="13" t="s">
         <v>524</v>
@@ -10172,7 +10172,7 @@
       </c>
       <c r="E561" s="11"/>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" s="28"/>
       <c r="B562" s="13" t="s">
         <v>524</v>
@@ -10185,7 +10185,7 @@
       </c>
       <c r="E562" s="11"/>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" s="28">
         <v>226</v>
       </c>
@@ -10200,7 +10200,7 @@
       </c>
       <c r="E563" s="11"/>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" s="28"/>
       <c r="B564" s="13" t="s">
         <v>526</v>
@@ -10213,7 +10213,7 @@
       </c>
       <c r="E564" s="11"/>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="28"/>
       <c r="B565" s="13" t="s">
         <v>526</v>
@@ -10226,7 +10226,7 @@
       </c>
       <c r="E565" s="11"/>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="28">
         <v>227</v>
       </c>
@@ -10241,7 +10241,7 @@
       </c>
       <c r="E566" s="11"/>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" s="28"/>
       <c r="B567" s="13" t="s">
         <v>528</v>
@@ -10254,7 +10254,7 @@
       </c>
       <c r="E567" s="11"/>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="28"/>
       <c r="B568" s="13" t="s">
         <v>528</v>
@@ -10267,7 +10267,7 @@
       </c>
       <c r="E568" s="11"/>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="28">
         <v>228</v>
       </c>
@@ -10282,7 +10282,7 @@
       </c>
       <c r="E569" s="11"/>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" s="28"/>
       <c r="B570" s="13" t="s">
         <v>530</v>
@@ -10295,7 +10295,7 @@
       </c>
       <c r="E570" s="11"/>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="28"/>
       <c r="B571" s="13" t="s">
         <v>530</v>
@@ -10308,7 +10308,7 @@
       </c>
       <c r="E571" s="11"/>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" s="28">
         <v>229</v>
       </c>
@@ -10323,7 +10323,7 @@
       </c>
       <c r="E572" s="11"/>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" s="28"/>
       <c r="B573" s="13" t="s">
         <v>532</v>
@@ -10336,7 +10336,7 @@
       </c>
       <c r="E573" s="11"/>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" s="28"/>
       <c r="B574" s="13" t="s">
         <v>532</v>
@@ -10349,7 +10349,7 @@
       </c>
       <c r="E574" s="11"/>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="28">
         <v>230</v>
       </c>
@@ -10364,7 +10364,7 @@
       </c>
       <c r="E575" s="11"/>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" s="28"/>
       <c r="B576" s="13" t="s">
         <v>534</v>
@@ -10377,7 +10377,7 @@
       </c>
       <c r="E576" s="11"/>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" s="28"/>
       <c r="B577" s="13" t="s">
         <v>534</v>
@@ -10390,7 +10390,7 @@
       </c>
       <c r="E577" s="11"/>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" s="28">
         <v>231</v>
       </c>
@@ -10405,7 +10405,7 @@
       </c>
       <c r="E578" s="11"/>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" s="28"/>
       <c r="B579" s="13" t="s">
         <v>536</v>
@@ -10418,7 +10418,7 @@
       </c>
       <c r="E579" s="11"/>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" s="28"/>
       <c r="B580" s="13" t="s">
         <v>536</v>
@@ -10431,7 +10431,7 @@
       </c>
       <c r="E580" s="11"/>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="28">
         <v>232</v>
       </c>
@@ -10446,7 +10446,7 @@
       </c>
       <c r="E581" s="11"/>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="28"/>
       <c r="B582" s="13" t="s">
         <v>538</v>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="E582" s="11"/>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="28"/>
       <c r="B583" s="13" t="s">
         <v>538</v>
@@ -10472,7 +10472,7 @@
       </c>
       <c r="E583" s="11"/>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="28">
         <v>233</v>
       </c>
@@ -10487,7 +10487,7 @@
       </c>
       <c r="E584" s="11"/>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" s="28"/>
       <c r="B585" s="13" t="s">
         <v>540</v>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="E585" s="11"/>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="28"/>
       <c r="B586" s="13" t="s">
         <v>540</v>
@@ -10513,7 +10513,7 @@
       </c>
       <c r="E586" s="11"/>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" s="28">
         <v>234</v>
       </c>
@@ -10528,7 +10528,7 @@
       </c>
       <c r="E587" s="11"/>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" s="28"/>
       <c r="B588" s="13" t="s">
         <v>542</v>
@@ -10541,7 +10541,7 @@
       </c>
       <c r="E588" s="11"/>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" s="28"/>
       <c r="B589" s="13" t="s">
         <v>542</v>
@@ -10554,7 +10554,7 @@
       </c>
       <c r="E589" s="11"/>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="28">
         <v>235</v>
       </c>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="E590" s="11"/>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" s="28"/>
       <c r="B591" s="13" t="s">
         <v>544</v>
@@ -10582,7 +10582,7 @@
       </c>
       <c r="E591" s="11"/>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" s="28"/>
       <c r="B592" s="13" t="s">
         <v>544</v>
@@ -10595,7 +10595,7 @@
       </c>
       <c r="E592" s="11"/>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" s="28">
         <v>236</v>
       </c>
@@ -10610,7 +10610,7 @@
       </c>
       <c r="E593" s="11"/>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" s="28"/>
       <c r="B594" s="13" t="s">
         <v>546</v>
@@ -10623,7 +10623,7 @@
       </c>
       <c r="E594" s="11"/>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" s="28"/>
       <c r="B595" s="13" t="s">
         <v>546</v>
@@ -10636,7 +10636,7 @@
       </c>
       <c r="E595" s="11"/>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" s="28">
         <v>237</v>
       </c>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="E596" s="11"/>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" s="28"/>
       <c r="B597" s="13" t="s">
         <v>548</v>
@@ -10664,7 +10664,7 @@
       </c>
       <c r="E597" s="11"/>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" s="28"/>
       <c r="B598" s="13" t="s">
         <v>548</v>
@@ -10677,7 +10677,7 @@
       </c>
       <c r="E598" s="11"/>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" s="28">
         <v>238</v>
       </c>
@@ -10692,7 +10692,7 @@
       </c>
       <c r="E599" s="11"/>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" s="28"/>
       <c r="B600" s="13" t="s">
         <v>550</v>
@@ -10705,7 +10705,7 @@
       </c>
       <c r="E600" s="11"/>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" s="28"/>
       <c r="B601" s="13" t="s">
         <v>550</v>
@@ -10718,7 +10718,7 @@
       </c>
       <c r="E601" s="11"/>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" s="28">
         <v>239</v>
       </c>
@@ -10733,7 +10733,7 @@
       </c>
       <c r="E602" s="11"/>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" s="28"/>
       <c r="B603" s="13" t="s">
         <v>552</v>
@@ -10746,7 +10746,7 @@
       </c>
       <c r="E603" s="11"/>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" s="28"/>
       <c r="B604" s="13" t="s">
         <v>552</v>
@@ -10759,7 +10759,7 @@
       </c>
       <c r="E604" s="11"/>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" s="28">
         <v>240</v>
       </c>
@@ -10774,7 +10774,7 @@
       </c>
       <c r="E605" s="11"/>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" s="28"/>
       <c r="B606" s="13" t="s">
         <v>554</v>
@@ -10787,7 +10787,7 @@
       </c>
       <c r="E606" s="11"/>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" s="28"/>
       <c r="B607" s="13" t="s">
         <v>554</v>
@@ -10800,7 +10800,7 @@
       </c>
       <c r="E607" s="11"/>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" s="28">
         <v>241</v>
       </c>
@@ -10815,7 +10815,7 @@
       </c>
       <c r="E608" s="11"/>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" s="28"/>
       <c r="B609" s="13" t="s">
         <v>556</v>
@@ -10828,7 +10828,7 @@
       </c>
       <c r="E609" s="11"/>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" s="28"/>
       <c r="B610" s="13" t="s">
         <v>556</v>
@@ -10841,7 +10841,7 @@
       </c>
       <c r="E610" s="11"/>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" s="28">
         <v>242</v>
       </c>
@@ -10856,7 +10856,7 @@
       </c>
       <c r="E611" s="11"/>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" s="28"/>
       <c r="B612" s="13" t="s">
         <v>558</v>
@@ -10869,7 +10869,7 @@
       </c>
       <c r="E612" s="11"/>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" s="28"/>
       <c r="B613" s="13" t="s">
         <v>558</v>
@@ -10882,7 +10882,7 @@
       </c>
       <c r="E613" s="11"/>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" s="28">
         <v>243</v>
       </c>
@@ -10897,7 +10897,7 @@
       </c>
       <c r="E614" s="11"/>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" s="28"/>
       <c r="B615" s="13" t="s">
         <v>560</v>
@@ -10910,7 +10910,7 @@
       </c>
       <c r="E615" s="11"/>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" s="28"/>
       <c r="B616" s="13" t="s">
         <v>560</v>
@@ -10923,7 +10923,7 @@
       </c>
       <c r="E616" s="11"/>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" s="28">
         <v>244</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" s="28"/>
       <c r="B618" s="21" t="s">
         <v>562</v>
@@ -10949,7 +10949,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" s="25">
         <v>245</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" s="26"/>
       <c r="B620" s="21" t="s">
         <v>564</v>
@@ -10975,7 +10975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" s="25">
         <v>246</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" s="26"/>
       <c r="B622" s="21" t="s">
         <v>566</v>
@@ -11001,7 +11001,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" s="25">
         <v>247</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="26"/>
       <c r="B624" s="21" t="s">
         <v>568</v>
@@ -11027,7 +11027,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" s="25">
         <v>248</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" s="26"/>
       <c r="B626" s="21" t="s">
         <v>570</v>
@@ -11053,7 +11053,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="25">
         <v>249</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="26"/>
       <c r="B628" s="21" t="s">
         <v>572</v>
@@ -11079,7 +11079,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="25">
         <v>250</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="26"/>
       <c r="B630" s="21" t="s">
         <v>574</v>
@@ -11105,7 +11105,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="25">
         <v>251</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="26"/>
       <c r="B632" s="21" t="s">
         <v>576</v>
@@ -11131,7 +11131,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="25">
         <v>252</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="26"/>
       <c r="B634" s="21" t="s">
         <v>578</v>
@@ -11157,7 +11157,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="25">
         <v>253</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="26"/>
       <c r="B636" s="21" t="s">
         <v>580</v>
@@ -11183,7 +11183,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="25">
         <v>254</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="26"/>
       <c r="B638" s="21" t="s">
         <v>582</v>
@@ -11209,7 +11209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="25">
         <v>255</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="26"/>
       <c r="B640" s="21" t="s">
         <v>584</v>
@@ -11235,7 +11235,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="25">
         <v>256</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="26"/>
       <c r="B642" s="21" t="s">
         <v>586</v>
@@ -11261,7 +11261,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="25">
         <v>257</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="26"/>
       <c r="B644" s="21" t="s">
         <v>588</v>
@@ -11287,7 +11287,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="25">
         <v>258</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="26"/>
       <c r="B646" s="21" t="s">
         <v>590</v>
@@ -11313,7 +11313,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="25">
         <v>259</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="26"/>
       <c r="B648" s="21" t="s">
         <v>592</v>
@@ -11339,7 +11339,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" s="25">
         <v>260</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="26"/>
       <c r="B650" s="21" t="s">
         <v>594</v>
@@ -11365,7 +11365,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="25">
         <v>261</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="26"/>
       <c r="B652" s="21" t="s">
         <v>596</v>
@@ -11391,7 +11391,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" s="25">
         <v>262</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="26"/>
       <c r="B654" s="21" t="s">
         <v>598</v>
@@ -11417,7 +11417,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="25">
         <v>263</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="26"/>
       <c r="B656" s="21" t="s">
         <v>600</v>
@@ -11443,7 +11443,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="25">
         <v>264</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="26"/>
       <c r="B658" s="21" t="s">
         <v>602</v>
@@ -11469,7 +11469,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="25">
         <v>265</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="26"/>
       <c r="B660" s="21" t="s">
         <v>604</v>
@@ -11495,7 +11495,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="25">
         <v>266</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="26"/>
       <c r="B662" s="21" t="s">
         <v>606</v>
@@ -11521,7 +11521,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="25">
         <v>267</v>
       </c>
@@ -11535,7 +11535,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="26"/>
       <c r="B664" s="21" t="s">
         <v>608</v>
@@ -11547,7 +11547,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="25">
         <v>268</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="26"/>
       <c r="B666" s="21" t="s">
         <v>610</v>
@@ -11573,7 +11573,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="25">
         <v>269</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="26"/>
       <c r="B668" s="21" t="s">
         <v>612</v>
@@ -11599,7 +11599,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="25">
         <v>270</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" s="26"/>
       <c r="B670" s="21" t="s">
         <v>614</v>
@@ -11625,7 +11625,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" s="25">
         <v>271</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="26"/>
       <c r="B672" s="21" t="s">
         <v>616</v>
@@ -11651,7 +11651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" s="25">
         <v>272</v>
       </c>
@@ -11665,7 +11665,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" s="26"/>
       <c r="B674" s="21" t="s">
         <v>618</v>
@@ -11677,7 +11677,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" s="25">
         <v>273</v>
       </c>
@@ -11691,7 +11691,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" s="26"/>
       <c r="B676" s="21" t="s">
         <v>620</v>
@@ -11703,7 +11703,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" s="25">
         <v>274</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" s="26"/>
       <c r="B678" s="21" t="s">
         <v>622</v>
@@ -11729,7 +11729,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" s="25">
         <v>275</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" s="26"/>
       <c r="B680" s="21" t="s">
         <v>624</v>
@@ -11755,7 +11755,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" s="25">
         <v>276</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" s="26"/>
       <c r="B682" s="21" t="s">
         <v>626</v>
@@ -11781,7 +11781,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" s="25">
         <v>277</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" s="26"/>
       <c r="B684" s="21" t="s">
         <v>628</v>
@@ -11807,7 +11807,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" s="25">
         <v>278</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" s="26"/>
       <c r="B686" s="21" t="s">
         <v>630</v>
@@ -11833,7 +11833,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" s="25">
         <v>279</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" s="26"/>
       <c r="B688" s="21" t="s">
         <v>632</v>
@@ -11859,7 +11859,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" s="36">
         <v>280</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" s="36">
         <v>281</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" s="36">
         <v>282</v>
       </c>
@@ -11901,7 +11901,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" s="36">
         <v>283</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" s="36">
         <v>284</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" s="36">
         <v>285</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" s="36">
         <v>286</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" s="36">
         <v>287</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" s="36">
         <v>288</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" s="36">
         <v>289</v>
       </c>
@@ -11999,7 +11999,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" s="36">
         <v>290</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" s="36">
         <v>291</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" s="36">
         <v>292</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" s="37">
         <v>293</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" s="37">
         <v>294</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" s="37">
         <v>295</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" s="37">
         <v>296</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" s="37">
         <v>297</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" s="37">
         <v>298</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" s="37">
         <v>299</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" s="37">
         <v>300</v>
       </c>
@@ -12153,86 +12153,81 @@
         <v>679</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" s="38"/>
       <c r="B710" s="5"/>
       <c r="C710" s="6"/>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" s="38"/>
       <c r="B711" s="5"/>
       <c r="C711" s="6"/>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" s="38"/>
       <c r="B712" s="5"/>
       <c r="C712" s="6"/>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" s="38"/>
       <c r="B713" s="5"/>
       <c r="C713" s="6"/>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" s="38"/>
       <c r="B714" s="5"/>
       <c r="C714" s="6"/>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A715" s="38"/>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A715" s="29"/>
       <c r="B715" s="5"/>
       <c r="C715" s="6"/>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" s="29"/>
       <c r="B716" s="5"/>
       <c r="C716" s="6"/>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" s="29"/>
       <c r="B717" s="5"/>
       <c r="C717" s="6"/>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" s="29"/>
       <c r="B718" s="5"/>
       <c r="C718" s="6"/>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" s="29"/>
       <c r="B719" s="5"/>
       <c r="C719" s="6"/>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" s="29"/>
       <c r="B720" s="5"/>
       <c r="C720" s="6"/>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" s="29"/>
       <c r="B721" s="5"/>
       <c r="C721" s="6"/>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" s="29"/>
       <c r="B722" s="5"/>
       <c r="C722" s="6"/>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" s="29"/>
       <c r="B723" s="5"/>
       <c r="C723" s="6"/>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" s="29"/>
-      <c r="B724" s="5"/>
-      <c r="C724" s="6"/>
-    </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" s="29"/>
-    </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A726" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>

--- a/Input_Automation/Phantom Items.xlsx
+++ b/Input_Automation/Phantom Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpadeveloper\Documents\UiPath\Fellowes_Validation\Input_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D200FDF0-6F2F-41C6-B3D0-6A9F79E84EDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F03775-1FCC-479E-A0E1-64713CC78865}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" xr2:uid="{6ABD80F8-E04B-4DC7-BD19-74BFF736B6CF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="16110" windowHeight="6850" xr2:uid="{6ABD80F8-E04B-4DC7-BD19-74BFF736B6CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="688">
   <si>
     <t>Sl No</t>
   </si>
@@ -2068,6 +2068,30 @@
   </si>
   <si>
     <t>810510-XZM</t>
+  </si>
+  <si>
+    <t>391855L</t>
+  </si>
+  <si>
+    <t>(PHANTOM)STICKER;HOLE CVR;18MM;L</t>
+  </si>
+  <si>
+    <t>400339-EC</t>
+  </si>
+  <si>
+    <t>(PHANTOM)ASM;SPACER;POWER;3WAY;VOLO;EC</t>
+  </si>
+  <si>
+    <t>400339-PA</t>
+  </si>
+  <si>
+    <t>800058D1-J1R</t>
+  </si>
+  <si>
+    <t>(PHANTOM)HPL/PB/BKR;J1R;TO;J0M</t>
+  </si>
+  <si>
+    <t>815058D1-J0M</t>
   </si>
 </sst>
 </file>
@@ -2680,7 +2704,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2786,6 +2810,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3145,21 +3178,21 @@
   <dimension ref="A1:F725"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A693" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L414" sqref="L414"/>
+      <pane ySplit="1" topLeftCell="A690" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A708" sqref="A708:XFD708"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="24"/>
-    <col min="2" max="2" width="17.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="8.7265625" style="24"/>
+    <col min="2" max="2" width="17.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -3173,7 +3206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -3187,7 +3220,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
@@ -3198,7 +3231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="24">
         <v>2</v>
       </c>
@@ -3212,7 +3245,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>7</v>
       </c>
@@ -3223,7 +3256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="24">
         <v>3</v>
       </c>
@@ -3237,7 +3270,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="20" t="s">
         <v>10</v>
       </c>
@@ -3248,7 +3281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="24">
         <v>4</v>
       </c>
@@ -3262,7 +3295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="24">
         <v>5</v>
       </c>
@@ -3276,7 +3309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="24">
         <v>6</v>
       </c>
@@ -3290,7 +3323,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="20" t="s">
         <v>19</v>
       </c>
@@ -3301,7 +3334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="20" t="s">
         <v>19</v>
       </c>
@@ -3312,7 +3345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="24">
         <v>7</v>
       </c>
@@ -3326,7 +3359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="24">
         <v>8</v>
       </c>
@@ -3340,7 +3373,7 @@
         <v>385693</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="24">
         <v>9</v>
       </c>
@@ -3354,7 +3387,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="24">
         <v>10</v>
       </c>
@@ -3368,7 +3401,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="24">
         <v>11</v>
       </c>
@@ -3382,7 +3415,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="24">
         <v>12</v>
       </c>
@@ -3396,7 +3429,7 @@
         <v>385635</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="24">
         <v>13</v>
       </c>
@@ -3410,7 +3443,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="24">
         <v>14</v>
       </c>
@@ -3424,7 +3457,7 @@
         <v>385636</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="24">
         <v>15</v>
       </c>
@@ -3438,7 +3471,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="24">
         <v>16</v>
       </c>
@@ -3452,7 +3485,7 @@
         <v>385637</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="24">
         <v>17</v>
       </c>
@@ -3466,7 +3499,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="24">
         <v>18</v>
       </c>
@@ -3480,7 +3513,7 @@
         <v>385638</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="24">
         <v>19</v>
       </c>
@@ -3494,7 +3527,7 @@
         <v>385639</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="24">
         <v>20</v>
       </c>
@@ -3508,7 +3541,7 @@
         <v>385640</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="24">
         <v>21</v>
       </c>
@@ -3522,7 +3555,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" s="20" t="s">
         <v>54</v>
       </c>
@@ -3533,7 +3566,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="24">
         <v>22</v>
       </c>
@@ -3547,7 +3580,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B30" s="20" t="s">
         <v>57</v>
       </c>
@@ -3558,7 +3591,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="24">
         <v>23</v>
       </c>
@@ -3572,7 +3605,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B32" s="20" t="s">
         <v>60</v>
       </c>
@@ -3583,7 +3616,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="24">
         <v>24</v>
       </c>
@@ -3597,7 +3630,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B34" s="20" t="s">
         <v>63</v>
       </c>
@@ -3608,7 +3641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="24">
         <v>25</v>
       </c>
@@ -3622,7 +3655,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B36" s="20" t="s">
         <v>65</v>
       </c>
@@ -3633,7 +3666,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="24">
         <v>26</v>
       </c>
@@ -3647,7 +3680,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B38" s="20" t="s">
         <v>68</v>
       </c>
@@ -3658,7 +3691,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="24">
         <v>27</v>
       </c>
@@ -3672,7 +3705,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B40" s="20" t="s">
         <v>70</v>
       </c>
@@ -3683,7 +3716,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="24">
         <v>28</v>
       </c>
@@ -3697,7 +3730,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B42" s="20" t="s">
         <v>72</v>
       </c>
@@ -3708,7 +3741,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="24">
         <v>29</v>
       </c>
@@ -3722,7 +3755,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B44" s="20" t="s">
         <v>74</v>
       </c>
@@ -3733,7 +3766,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="24">
         <v>30</v>
       </c>
@@ -3747,7 +3780,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B46" s="20" t="s">
         <v>76</v>
       </c>
@@ -3758,7 +3791,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="24">
         <v>31</v>
       </c>
@@ -3772,7 +3805,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B48" s="20" t="s">
         <v>78</v>
       </c>
@@ -3783,7 +3816,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="24">
         <v>32</v>
       </c>
@@ -3797,7 +3830,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B50" s="20" t="s">
         <v>80</v>
       </c>
@@ -3808,7 +3841,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="24">
         <v>33</v>
       </c>
@@ -3822,7 +3855,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B52" s="20" t="s">
         <v>82</v>
       </c>
@@ -3833,7 +3866,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="24">
         <v>34</v>
       </c>
@@ -3847,7 +3880,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B54" s="20" t="s">
         <v>84</v>
       </c>
@@ -3858,7 +3891,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="24">
         <v>35</v>
       </c>
@@ -3872,7 +3905,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B56" s="20" t="s">
         <v>86</v>
       </c>
@@ -3883,7 +3916,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="24">
         <v>36</v>
       </c>
@@ -3897,7 +3930,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B58" s="20" t="s">
         <v>88</v>
       </c>
@@ -3908,7 +3941,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="24">
         <v>37</v>
       </c>
@@ -3922,7 +3955,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B60" s="20" t="s">
         <v>91</v>
       </c>
@@ -3933,7 +3966,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="24">
         <v>38</v>
       </c>
@@ -3947,7 +3980,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B62" s="20" t="s">
         <v>94</v>
       </c>
@@ -3958,7 +3991,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="24">
         <v>39</v>
       </c>
@@ -3972,7 +4005,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B64" s="20" t="s">
         <v>97</v>
       </c>
@@ -3983,7 +4016,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="24">
         <v>40</v>
       </c>
@@ -3997,7 +4030,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B66" s="20" t="s">
         <v>100</v>
       </c>
@@ -4008,7 +4041,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="24">
         <v>41</v>
       </c>
@@ -4022,7 +4055,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B68" s="20" t="s">
         <v>103</v>
       </c>
@@ -4033,7 +4066,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="24">
         <v>42</v>
       </c>
@@ -4047,7 +4080,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B70" s="20" t="s">
         <v>106</v>
       </c>
@@ -4058,7 +4091,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="24">
         <v>43</v>
       </c>
@@ -4072,7 +4105,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B72" s="20" t="s">
         <v>109</v>
       </c>
@@ -4083,7 +4116,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="24">
         <v>44</v>
       </c>
@@ -4097,7 +4130,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B74" s="20" t="s">
         <v>112</v>
       </c>
@@ -4108,7 +4141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="24">
         <v>45</v>
       </c>
@@ -4122,7 +4155,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B76" s="20" t="s">
         <v>114</v>
       </c>
@@ -4133,7 +4166,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="24">
         <v>46</v>
       </c>
@@ -4147,7 +4180,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B78" s="20" t="s">
         <v>117</v>
       </c>
@@ -4158,7 +4191,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="24">
         <v>47</v>
       </c>
@@ -4172,7 +4205,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B80" s="20" t="s">
         <v>120</v>
       </c>
@@ -4183,7 +4216,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="24">
         <v>48</v>
       </c>
@@ -4197,7 +4230,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B82" s="20" t="s">
         <v>123</v>
       </c>
@@ -4208,7 +4241,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="24">
         <v>49</v>
       </c>
@@ -4222,7 +4255,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B84" s="20" t="s">
         <v>126</v>
       </c>
@@ -4233,7 +4266,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="24">
         <v>50</v>
       </c>
@@ -4247,7 +4280,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B86" s="20" t="s">
         <v>129</v>
       </c>
@@ -4258,7 +4291,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="24">
         <v>51</v>
       </c>
@@ -4272,7 +4305,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B88" s="20" t="s">
         <v>132</v>
       </c>
@@ -4283,7 +4316,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="24">
         <v>52</v>
       </c>
@@ -4297,7 +4330,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B90" s="20" t="s">
         <v>135</v>
       </c>
@@ -4308,7 +4341,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="24">
         <v>53</v>
       </c>
@@ -4322,7 +4355,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B92" s="20" t="s">
         <v>138</v>
       </c>
@@ -4333,7 +4366,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="24">
         <v>54</v>
       </c>
@@ -4347,7 +4380,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B94" s="20" t="s">
         <v>141</v>
       </c>
@@ -4358,7 +4391,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="24">
         <v>55</v>
       </c>
@@ -4372,7 +4405,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B96" s="20" t="s">
         <v>144</v>
       </c>
@@ -4383,7 +4416,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="24">
         <v>56</v>
       </c>
@@ -4397,7 +4430,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B98" s="20" t="s">
         <v>147</v>
       </c>
@@ -4408,7 +4441,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="24">
         <v>57</v>
       </c>
@@ -4422,7 +4455,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B100" s="20" t="s">
         <v>150</v>
       </c>
@@ -4433,7 +4466,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="24">
         <v>58</v>
       </c>
@@ -4447,7 +4480,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B102" s="20" t="s">
         <v>153</v>
       </c>
@@ -4458,7 +4491,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="24">
         <v>59</v>
       </c>
@@ -4472,7 +4505,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B104" s="20" t="s">
         <v>156</v>
       </c>
@@ -4483,7 +4516,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="24">
         <v>60</v>
       </c>
@@ -4497,7 +4530,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B106" s="20" t="s">
         <v>159</v>
       </c>
@@ -4508,7 +4541,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="24">
         <v>61</v>
       </c>
@@ -4522,7 +4555,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="24">
         <v>62</v>
       </c>
@@ -4536,7 +4569,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="24">
         <v>63</v>
       </c>
@@ -4550,7 +4583,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B110" s="20" t="s">
         <v>168</v>
       </c>
@@ -4561,7 +4594,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="24">
         <v>64</v>
       </c>
@@ -4575,7 +4608,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B112" s="20" t="s">
         <v>170</v>
       </c>
@@ -4586,7 +4619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="24">
         <v>65</v>
       </c>
@@ -4600,7 +4633,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B114" s="20" t="s">
         <v>172</v>
       </c>
@@ -4611,7 +4644,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="24">
         <v>66</v>
       </c>
@@ -4625,7 +4658,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B116" s="20" t="s">
         <v>174</v>
       </c>
@@ -4636,7 +4669,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="24">
         <v>67</v>
       </c>
@@ -4650,7 +4683,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B118" s="20" t="s">
         <v>176</v>
       </c>
@@ -4661,7 +4694,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="24">
         <v>68</v>
       </c>
@@ -4675,7 +4708,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B120" s="20" t="s">
         <v>178</v>
       </c>
@@ -4686,7 +4719,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="24">
         <v>69</v>
       </c>
@@ -4700,7 +4733,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B122" s="20" t="s">
         <v>180</v>
       </c>
@@ -4711,7 +4744,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="24">
         <v>70</v>
       </c>
@@ -4725,7 +4758,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B124" s="20" t="s">
         <v>182</v>
       </c>
@@ -4737,7 +4770,7 @@
       </c>
       <c r="F124" s="5"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="24">
         <v>71</v>
       </c>
@@ -4751,7 +4784,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B126" s="20" t="s">
         <v>184</v>
       </c>
@@ -4762,7 +4795,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="24">
         <v>72</v>
       </c>
@@ -4777,7 +4810,7 @@
       </c>
       <c r="F127" s="5"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B128" s="20" t="s">
         <v>186</v>
       </c>
@@ -4788,7 +4821,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="24">
         <v>73</v>
       </c>
@@ -4802,7 +4835,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B130" s="20" t="s">
         <v>188</v>
       </c>
@@ -4813,7 +4846,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="24">
         <v>74</v>
       </c>
@@ -4827,7 +4860,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B132" s="20" t="s">
         <v>190</v>
       </c>
@@ -4838,7 +4871,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="24">
         <v>75</v>
       </c>
@@ -4852,7 +4885,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B134" s="20" t="s">
         <v>192</v>
       </c>
@@ -4863,7 +4896,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="24">
         <v>76</v>
       </c>
@@ -4877,7 +4910,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B136" s="20" t="s">
         <v>194</v>
       </c>
@@ -4888,7 +4921,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="24">
         <v>77</v>
       </c>
@@ -4902,7 +4935,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B138" s="20" t="s">
         <v>196</v>
       </c>
@@ -4913,7 +4946,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="24">
         <v>78</v>
       </c>
@@ -4927,7 +4960,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B140" s="20" t="s">
         <v>198</v>
       </c>
@@ -4938,7 +4971,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="24">
         <v>79</v>
       </c>
@@ -4952,7 +4985,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B142" s="20" t="s">
         <v>200</v>
       </c>
@@ -4963,7 +4996,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="24">
         <v>80</v>
       </c>
@@ -4977,7 +5010,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B144" s="20" t="s">
         <v>202</v>
       </c>
@@ -4988,7 +5021,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="24">
         <v>81</v>
       </c>
@@ -5002,7 +5035,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B146" s="20" t="s">
         <v>205</v>
       </c>
@@ -5013,7 +5046,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="24">
         <v>82</v>
       </c>
@@ -5027,7 +5060,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B148" s="20" t="s">
         <v>208</v>
       </c>
@@ -5038,7 +5071,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="24">
         <v>83</v>
       </c>
@@ -5052,7 +5085,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B150" s="20" t="s">
         <v>210</v>
       </c>
@@ -5063,7 +5096,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="24">
         <v>84</v>
       </c>
@@ -5077,7 +5110,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B152" s="20" t="s">
         <v>212</v>
       </c>
@@ -5088,7 +5121,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="24">
         <v>85</v>
       </c>
@@ -5102,7 +5135,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B154" s="20" t="s">
         <v>214</v>
       </c>
@@ -5113,7 +5146,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="24">
         <v>86</v>
       </c>
@@ -5127,7 +5160,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B156" s="20" t="s">
         <v>216</v>
       </c>
@@ -5138,7 +5171,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="24">
         <v>87</v>
       </c>
@@ -5152,7 +5185,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B158" s="20" t="s">
         <v>219</v>
       </c>
@@ -5163,7 +5196,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="24">
         <v>88</v>
       </c>
@@ -5177,7 +5210,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B160" s="20" t="s">
         <v>221</v>
       </c>
@@ -5188,7 +5221,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="24">
         <v>89</v>
       </c>
@@ -5202,7 +5235,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B162" s="20" t="s">
         <v>224</v>
       </c>
@@ -5213,7 +5246,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="24">
         <v>90</v>
       </c>
@@ -5227,7 +5260,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B164" s="20" t="s">
         <v>226</v>
       </c>
@@ -5238,7 +5271,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="24">
         <v>91</v>
       </c>
@@ -5252,7 +5285,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B166" s="20" t="s">
         <v>7</v>
       </c>
@@ -5263,7 +5296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="24">
         <v>92</v>
       </c>
@@ -5277,7 +5310,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B168" s="20" t="s">
         <v>10</v>
       </c>
@@ -5288,7 +5321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="24">
         <v>93</v>
       </c>
@@ -5302,7 +5335,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B170" s="20" t="s">
         <v>228</v>
       </c>
@@ -5313,7 +5346,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="24">
         <v>94</v>
       </c>
@@ -5327,7 +5360,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B172" s="20" t="s">
         <v>230</v>
       </c>
@@ -5338,7 +5371,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="24">
         <v>95</v>
       </c>
@@ -5352,7 +5385,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B174" s="20" t="s">
         <v>232</v>
       </c>
@@ -5363,7 +5396,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="24">
         <v>96</v>
       </c>
@@ -5377,7 +5410,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B176" s="20" t="s">
         <v>234</v>
       </c>
@@ -5388,7 +5421,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="24">
         <v>97</v>
       </c>
@@ -5402,7 +5435,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B178" s="20" t="s">
         <v>236</v>
       </c>
@@ -5413,7 +5446,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="24">
         <v>98</v>
       </c>
@@ -5427,7 +5460,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B180" s="20" t="s">
         <v>82</v>
       </c>
@@ -5438,7 +5471,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="24">
         <v>99</v>
       </c>
@@ -5452,7 +5485,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B182" s="20" t="s">
         <v>84</v>
       </c>
@@ -5463,7 +5496,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="24">
         <v>100</v>
       </c>
@@ -5477,7 +5510,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B184" s="20" t="s">
         <v>86</v>
       </c>
@@ -5488,7 +5521,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="24">
         <v>101</v>
       </c>
@@ -5502,7 +5535,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="20" t="s">
         <v>240</v>
       </c>
@@ -5514,7 +5547,7 @@
       </c>
       <c r="F186" s="5"/>
     </row>
-    <row r="187" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="20" t="s">
         <v>240</v>
       </c>
@@ -5525,7 +5558,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="24">
         <v>102</v>
       </c>
@@ -5539,7 +5572,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="20" t="s">
         <v>243</v>
       </c>
@@ -5550,7 +5583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="20" t="s">
         <v>243</v>
       </c>
@@ -5561,7 +5594,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="24">
         <v>103</v>
       </c>
@@ -5575,7 +5608,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="20" t="s">
         <v>246</v>
       </c>
@@ -5586,7 +5619,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="20" t="s">
         <v>246</v>
       </c>
@@ -5597,7 +5630,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="24">
         <v>104</v>
       </c>
@@ -5611,7 +5644,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="20" t="s">
         <v>249</v>
       </c>
@@ -5622,7 +5655,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="20" t="s">
         <v>249</v>
       </c>
@@ -5633,7 +5666,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="24">
         <v>105</v>
       </c>
@@ -5647,7 +5680,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="20" t="s">
         <v>252</v>
       </c>
@@ -5658,7 +5691,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="20" t="s">
         <v>252</v>
       </c>
@@ -5669,7 +5702,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="24">
         <v>106</v>
       </c>
@@ -5683,7 +5716,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="20" t="s">
         <v>255</v>
       </c>
@@ -5694,7 +5727,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="20" t="s">
         <v>255</v>
       </c>
@@ -5705,7 +5738,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="24">
         <v>107</v>
       </c>
@@ -5719,7 +5752,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="20" t="s">
         <v>258</v>
       </c>
@@ -5730,7 +5763,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="20" t="s">
         <v>258</v>
       </c>
@@ -5741,7 +5774,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="24">
         <v>108</v>
       </c>
@@ -5755,7 +5788,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="20" t="s">
         <v>261</v>
       </c>
@@ -5766,7 +5799,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="20" t="s">
         <v>261</v>
       </c>
@@ -5777,7 +5810,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="24">
         <v>109</v>
       </c>
@@ -5791,7 +5824,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="20" t="s">
         <v>264</v>
       </c>
@@ -5802,7 +5835,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="20" t="s">
         <v>264</v>
       </c>
@@ -5813,7 +5846,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="24">
         <v>110</v>
       </c>
@@ -5827,7 +5860,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B213" s="20" t="s">
         <v>267</v>
       </c>
@@ -5838,7 +5871,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B214" s="20" t="s">
         <v>267</v>
       </c>
@@ -5849,7 +5882,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="24">
         <v>111</v>
       </c>
@@ -5863,7 +5896,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B216" s="20" t="s">
         <v>270</v>
       </c>
@@ -5874,7 +5907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B217" s="20" t="s">
         <v>270</v>
       </c>
@@ -5885,7 +5918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="24">
         <v>112</v>
       </c>
@@ -5899,7 +5932,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B219" s="20" t="s">
         <v>272</v>
       </c>
@@ -5910,7 +5943,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B220" s="20" t="s">
         <v>272</v>
       </c>
@@ -5921,7 +5954,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="24">
         <v>113</v>
       </c>
@@ -5935,7 +5968,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B222" s="20" t="s">
         <v>275</v>
       </c>
@@ -5946,7 +5979,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B223" s="20" t="s">
         <v>275</v>
       </c>
@@ -5957,7 +5990,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="24">
         <v>114</v>
       </c>
@@ -5971,7 +6004,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B225" s="20" t="s">
         <v>278</v>
       </c>
@@ -5982,7 +6015,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B226" s="20" t="s">
         <v>278</v>
       </c>
@@ -5993,7 +6026,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="24">
         <v>115</v>
       </c>
@@ -6007,7 +6040,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B228" s="20" t="s">
         <v>281</v>
       </c>
@@ -6018,7 +6051,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B229" s="20" t="s">
         <v>281</v>
       </c>
@@ -6029,7 +6062,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="24">
         <v>116</v>
       </c>
@@ -6043,7 +6076,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B231" s="20" t="s">
         <v>284</v>
       </c>
@@ -6054,7 +6087,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B232" s="20" t="s">
         <v>284</v>
       </c>
@@ -6065,7 +6098,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="24">
         <v>117</v>
       </c>
@@ -6079,7 +6112,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B234" s="20" t="s">
         <v>287</v>
       </c>
@@ -6090,7 +6123,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B235" s="20" t="s">
         <v>287</v>
       </c>
@@ -6101,7 +6134,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="24">
         <v>118</v>
       </c>
@@ -6115,7 +6148,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="20" t="s">
         <v>290</v>
       </c>
@@ -6126,7 +6159,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="20" t="s">
         <v>290</v>
       </c>
@@ -6137,7 +6170,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="24">
         <v>119</v>
       </c>
@@ -6151,7 +6184,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="20" t="s">
         <v>293</v>
       </c>
@@ -6162,7 +6195,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="20" t="s">
         <v>293</v>
       </c>
@@ -6173,7 +6206,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="24">
         <v>120</v>
       </c>
@@ -6187,7 +6220,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="20" t="s">
         <v>296</v>
       </c>
@@ -6198,7 +6231,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B244" s="20" t="s">
         <v>296</v>
       </c>
@@ -6209,7 +6242,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="24">
         <v>121</v>
       </c>
@@ -6223,7 +6256,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" s="20" t="s">
         <v>299</v>
       </c>
@@ -6234,7 +6267,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" s="20" t="s">
         <v>299</v>
       </c>
@@ -6245,7 +6278,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="24">
         <v>122</v>
       </c>
@@ -6259,7 +6292,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B249" s="20" t="s">
         <v>302</v>
       </c>
@@ -6270,7 +6303,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" s="20" t="s">
         <v>302</v>
       </c>
@@ -6281,7 +6314,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="24">
         <v>123</v>
       </c>
@@ -6295,7 +6328,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B252" s="20" t="s">
         <v>305</v>
       </c>
@@ -6306,7 +6339,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B253" s="20" t="s">
         <v>305</v>
       </c>
@@ -6317,7 +6350,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="24">
         <v>124</v>
       </c>
@@ -6331,7 +6364,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B255" s="20" t="s">
         <v>308</v>
       </c>
@@ -6342,7 +6375,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B256" s="20" t="s">
         <v>308</v>
       </c>
@@ -6353,7 +6386,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="24">
         <v>125</v>
       </c>
@@ -6367,7 +6400,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B258" s="20" t="s">
         <v>311</v>
       </c>
@@ -6378,7 +6411,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B259" s="20" t="s">
         <v>311</v>
       </c>
@@ -6389,7 +6422,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="24">
         <v>126</v>
       </c>
@@ -6403,7 +6436,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B261" s="20" t="s">
         <v>314</v>
       </c>
@@ -6414,7 +6447,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B262" s="20" t="s">
         <v>314</v>
       </c>
@@ -6425,7 +6458,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="24">
         <v>127</v>
       </c>
@@ -6439,7 +6472,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" s="20" t="s">
         <v>317</v>
       </c>
@@ -6450,7 +6483,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" s="20" t="s">
         <v>317</v>
       </c>
@@ -6461,7 +6494,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="24">
         <v>128</v>
       </c>
@@ -6475,7 +6508,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" s="20" t="s">
         <v>320</v>
       </c>
@@ -6486,7 +6519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" s="20" t="s">
         <v>320</v>
       </c>
@@ -6497,7 +6530,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="24">
         <v>129</v>
       </c>
@@ -6511,7 +6544,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="20" t="s">
         <v>323</v>
       </c>
@@ -6522,7 +6555,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" s="20" t="s">
         <v>323</v>
       </c>
@@ -6533,7 +6566,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="24">
         <v>130</v>
       </c>
@@ -6547,7 +6580,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="20" t="s">
         <v>326</v>
       </c>
@@ -6558,7 +6591,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="20" t="s">
         <v>326</v>
       </c>
@@ -6569,7 +6602,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="24">
         <v>131</v>
       </c>
@@ -6583,7 +6616,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="20" t="s">
         <v>329</v>
       </c>
@@ -6594,7 +6627,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="20" t="s">
         <v>329</v>
       </c>
@@ -6605,7 +6638,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="24">
         <v>132</v>
       </c>
@@ -6619,7 +6652,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="20" t="s">
         <v>332</v>
       </c>
@@ -6630,7 +6663,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="20" t="s">
         <v>332</v>
       </c>
@@ -6641,7 +6674,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="24">
         <v>133</v>
       </c>
@@ -6655,7 +6688,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" s="20" t="s">
         <v>335</v>
       </c>
@@ -6666,7 +6699,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="20" t="s">
         <v>335</v>
       </c>
@@ -6677,7 +6710,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="24">
         <v>134</v>
       </c>
@@ -6691,7 +6724,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="20" t="s">
         <v>338</v>
       </c>
@@ -6702,7 +6735,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B286" s="20" t="s">
         <v>338</v>
       </c>
@@ -6713,7 +6746,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="24">
         <v>135</v>
       </c>
@@ -6727,7 +6760,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B288" s="20" t="s">
         <v>341</v>
       </c>
@@ -6738,7 +6771,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B289" s="20" t="s">
         <v>341</v>
       </c>
@@ -6749,7 +6782,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="24">
         <v>136</v>
       </c>
@@ -6763,7 +6796,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B291" s="20" t="s">
         <v>344</v>
       </c>
@@ -6774,7 +6807,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B292" s="20" t="s">
         <v>344</v>
       </c>
@@ -6785,7 +6818,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="24">
         <v>137</v>
       </c>
@@ -6799,7 +6832,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="20" t="s">
         <v>347</v>
       </c>
@@ -6810,7 +6843,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="20" t="s">
         <v>347</v>
       </c>
@@ -6821,7 +6854,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="24">
         <v>138</v>
       </c>
@@ -6835,7 +6868,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B297" s="20" t="s">
         <v>349</v>
       </c>
@@ -6846,7 +6879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B298" s="20" t="s">
         <v>349</v>
       </c>
@@ -6857,7 +6890,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="24">
         <v>139</v>
       </c>
@@ -6871,7 +6904,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B300" s="20" t="s">
         <v>351</v>
       </c>
@@ -6882,7 +6915,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B301" s="20" t="s">
         <v>351</v>
       </c>
@@ -6893,7 +6926,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="24">
         <v>140</v>
       </c>
@@ -6907,7 +6940,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B303" s="20" t="s">
         <v>353</v>
       </c>
@@ -6918,7 +6951,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B304" s="20" t="s">
         <v>353</v>
       </c>
@@ -6929,7 +6962,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="24">
         <v>141</v>
       </c>
@@ -6943,7 +6976,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B306" s="20" t="s">
         <v>355</v>
       </c>
@@ -6954,7 +6987,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B307" s="20" t="s">
         <v>355</v>
       </c>
@@ -6965,7 +6998,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="24">
         <v>142</v>
       </c>
@@ -6979,7 +7012,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B309" s="20" t="s">
         <v>357</v>
       </c>
@@ -6990,7 +7023,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B310" s="20" t="s">
         <v>357</v>
       </c>
@@ -7001,7 +7034,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="24">
         <v>143</v>
       </c>
@@ -7015,7 +7048,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B312" s="20" t="s">
         <v>359</v>
       </c>
@@ -7026,7 +7059,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B313" s="20" t="s">
         <v>359</v>
       </c>
@@ -7037,7 +7070,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="24">
         <v>144</v>
       </c>
@@ -7051,7 +7084,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B315" s="20" t="s">
         <v>361</v>
       </c>
@@ -7062,7 +7095,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B316" s="20" t="s">
         <v>361</v>
       </c>
@@ -7073,7 +7106,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="24">
         <v>145</v>
       </c>
@@ -7087,7 +7120,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B318" s="20" t="s">
         <v>363</v>
       </c>
@@ -7098,7 +7131,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B319" s="20" t="s">
         <v>363</v>
       </c>
@@ -7109,7 +7142,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="24">
         <v>146</v>
       </c>
@@ -7123,7 +7156,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B321" s="20" t="s">
         <v>365</v>
       </c>
@@ -7134,7 +7167,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B322" s="20" t="s">
         <v>365</v>
       </c>
@@ -7145,7 +7178,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="24">
         <v>147</v>
       </c>
@@ -7159,7 +7192,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B324" s="20" t="s">
         <v>19</v>
       </c>
@@ -7170,7 +7203,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B325" s="20" t="s">
         <v>19</v>
       </c>
@@ -7181,7 +7214,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="24">
         <v>148</v>
       </c>
@@ -7195,7 +7228,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B327" s="20" t="s">
         <v>368</v>
       </c>
@@ -7206,7 +7239,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B328" s="20" t="s">
         <v>368</v>
       </c>
@@ -7217,7 +7250,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="24">
         <v>149</v>
       </c>
@@ -7231,7 +7264,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B330" s="20" t="s">
         <v>370</v>
       </c>
@@ -7242,7 +7275,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B331" s="20" t="s">
         <v>370</v>
       </c>
@@ -7253,7 +7286,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="24">
         <v>150</v>
       </c>
@@ -7267,7 +7300,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B333" s="20" t="s">
         <v>372</v>
       </c>
@@ -7278,7 +7311,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B334" s="20" t="s">
         <v>372</v>
       </c>
@@ -7289,7 +7322,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="24">
         <v>151</v>
       </c>
@@ -7303,7 +7336,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B336" s="20" t="s">
         <v>374</v>
       </c>
@@ -7314,7 +7347,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B337" s="20" t="s">
         <v>374</v>
       </c>
@@ -7325,7 +7358,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="24">
         <v>152</v>
       </c>
@@ -7339,7 +7372,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B339" s="20" t="s">
         <v>376</v>
       </c>
@@ -7350,7 +7383,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B340" s="20" t="s">
         <v>376</v>
       </c>
@@ -7361,7 +7394,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="24">
         <v>153</v>
       </c>
@@ -7375,7 +7408,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B342" s="20" t="s">
         <v>378</v>
       </c>
@@ -7386,7 +7419,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B343" s="20" t="s">
         <v>378</v>
       </c>
@@ -7397,7 +7430,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="24">
         <v>154</v>
       </c>
@@ -7411,7 +7444,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B345" s="20" t="s">
         <v>380</v>
       </c>
@@ -7422,7 +7455,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B346" s="20" t="s">
         <v>380</v>
       </c>
@@ -7433,7 +7466,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="24">
         <v>155</v>
       </c>
@@ -7447,7 +7480,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B348" s="20" t="s">
         <v>382</v>
       </c>
@@ -7458,7 +7491,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B349" s="20" t="s">
         <v>382</v>
       </c>
@@ -7469,7 +7502,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="24">
         <v>156</v>
       </c>
@@ -7483,7 +7516,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B351" s="20" t="s">
         <v>384</v>
       </c>
@@ -7494,7 +7527,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B352" s="20" t="s">
         <v>384</v>
       </c>
@@ -7505,7 +7538,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="24">
         <v>157</v>
       </c>
@@ -7519,7 +7552,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B354" s="20" t="s">
         <v>386</v>
       </c>
@@ -7530,7 +7563,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B355" s="20" t="s">
         <v>386</v>
       </c>
@@ -7541,7 +7574,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="24">
         <v>158</v>
       </c>
@@ -7555,7 +7588,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B357" s="20" t="s">
         <v>388</v>
       </c>
@@ -7566,7 +7599,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B358" s="20" t="s">
         <v>388</v>
       </c>
@@ -7577,7 +7610,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="24">
         <v>159</v>
       </c>
@@ -7591,7 +7624,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B360" s="20" t="s">
         <v>390</v>
       </c>
@@ -7602,7 +7635,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B361" s="20" t="s">
         <v>390</v>
       </c>
@@ -7613,7 +7646,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="24">
         <v>160</v>
       </c>
@@ -7627,7 +7660,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B363" s="20" t="s">
         <v>392</v>
       </c>
@@ -7638,7 +7671,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B364" s="20" t="s">
         <v>392</v>
       </c>
@@ -7649,7 +7682,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="24">
         <v>163</v>
       </c>
@@ -7663,7 +7696,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B366" s="20" t="s">
         <v>394</v>
       </c>
@@ -7674,7 +7707,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B367" s="20" t="s">
         <v>394</v>
       </c>
@@ -7685,7 +7718,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="24">
         <v>164</v>
       </c>
@@ -7699,7 +7732,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B369" s="20" t="s">
         <v>396</v>
       </c>
@@ -7710,7 +7743,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B370" s="20" t="s">
         <v>396</v>
       </c>
@@ -7721,7 +7754,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="24">
         <v>165</v>
       </c>
@@ -7735,7 +7768,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B372" s="20" t="s">
         <v>398</v>
       </c>
@@ -7746,7 +7779,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B373" s="20" t="s">
         <v>398</v>
       </c>
@@ -7757,7 +7790,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="24">
         <v>166</v>
       </c>
@@ -7771,7 +7804,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B375" s="20" t="s">
         <v>400</v>
       </c>
@@ -7782,7 +7815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B376" s="20" t="s">
         <v>400</v>
       </c>
@@ -7793,7 +7826,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="24">
         <v>167</v>
       </c>
@@ -7807,7 +7840,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B378" s="20" t="s">
         <v>402</v>
       </c>
@@ -7818,7 +7851,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B379" s="20" t="s">
         <v>402</v>
       </c>
@@ -7829,7 +7862,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="24">
         <v>168</v>
       </c>
@@ -7843,7 +7876,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B381" s="20" t="s">
         <v>404</v>
       </c>
@@ -7854,7 +7887,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B382" s="20" t="s">
         <v>404</v>
       </c>
@@ -7865,7 +7898,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="24">
         <v>169</v>
       </c>
@@ -7879,7 +7912,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B384" s="20" t="s">
         <v>406</v>
       </c>
@@ -7890,7 +7923,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B385" s="20" t="s">
         <v>406</v>
       </c>
@@ -7901,7 +7934,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="24">
         <v>170</v>
       </c>
@@ -7915,7 +7948,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B387" s="20" t="s">
         <v>408</v>
       </c>
@@ -7926,7 +7959,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B388" s="20" t="s">
         <v>408</v>
       </c>
@@ -7937,7 +7970,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="24">
         <v>171</v>
       </c>
@@ -7951,7 +7984,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B390" s="20" t="s">
         <v>410</v>
       </c>
@@ -7962,7 +7995,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B391" s="20" t="s">
         <v>410</v>
       </c>
@@ -7973,7 +8006,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="24">
         <v>172</v>
       </c>
@@ -7987,7 +8020,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B393" s="13" t="s">
         <v>412</v>
       </c>
@@ -7998,7 +8031,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B394" s="13" t="s">
         <v>412</v>
       </c>
@@ -8009,7 +8042,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="24">
         <v>173</v>
       </c>
@@ -8023,7 +8056,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B396" s="13" t="s">
         <v>414</v>
       </c>
@@ -8034,7 +8067,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B397" s="13" t="s">
         <v>414</v>
       </c>
@@ -8045,7 +8078,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="24">
         <v>174</v>
       </c>
@@ -8059,7 +8092,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B399" s="8" t="s">
         <v>416</v>
       </c>
@@ -8070,7 +8103,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B400" s="8" t="s">
         <v>416</v>
       </c>
@@ -8081,7 +8114,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" s="24">
         <v>172</v>
       </c>
@@ -8095,7 +8128,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B402" s="21" t="s">
         <v>418</v>
       </c>
@@ -8106,7 +8139,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B403" s="21" t="s">
         <v>418</v>
       </c>
@@ -8117,7 +8150,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="25">
         <v>173</v>
       </c>
@@ -8131,7 +8164,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A405" s="26"/>
       <c r="B405" s="22" t="s">
         <v>420</v>
@@ -8143,7 +8176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A406" s="27"/>
       <c r="B406" s="22" t="s">
         <v>420</v>
@@ -8155,7 +8188,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" s="26">
         <v>174</v>
       </c>
@@ -8169,7 +8202,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A408" s="26"/>
       <c r="B408" s="22" t="s">
         <v>422</v>
@@ -8181,7 +8214,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A409" s="27"/>
       <c r="B409" s="22" t="s">
         <v>422</v>
@@ -8193,7 +8226,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" s="26">
         <v>175</v>
       </c>
@@ -8207,7 +8240,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411" s="26"/>
       <c r="B411" s="22" t="s">
         <v>424</v>
@@ -8219,7 +8252,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412" s="27"/>
       <c r="B412" s="22" t="s">
         <v>424</v>
@@ -8231,7 +8264,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" s="26">
         <v>176</v>
       </c>
@@ -8245,7 +8278,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414" s="26"/>
       <c r="B414" s="22" t="s">
         <v>426</v>
@@ -8257,7 +8290,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A415" s="27"/>
       <c r="B415" s="22" t="s">
         <v>426</v>
@@ -8269,7 +8302,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" s="26">
         <v>177</v>
       </c>
@@ -8283,7 +8316,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A417" s="26"/>
       <c r="B417" s="22" t="s">
         <v>428</v>
@@ -8295,7 +8328,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A418" s="27"/>
       <c r="B418" s="22" t="s">
         <v>428</v>
@@ -8307,7 +8340,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" s="26">
         <v>178</v>
       </c>
@@ -8321,7 +8354,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A420" s="26"/>
       <c r="B420" s="22" t="s">
         <v>430</v>
@@ -8333,7 +8366,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A421" s="27"/>
       <c r="B421" s="22" t="s">
         <v>430</v>
@@ -8345,7 +8378,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" s="26">
         <v>179</v>
       </c>
@@ -8359,7 +8392,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A423" s="26"/>
       <c r="B423" s="22" t="s">
         <v>432</v>
@@ -8371,7 +8404,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A424" s="27"/>
       <c r="B424" s="22" t="s">
         <v>432</v>
@@ -8383,7 +8416,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" s="26">
         <v>180</v>
       </c>
@@ -8397,7 +8430,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A426" s="26"/>
       <c r="B426" s="22" t="s">
         <v>434</v>
@@ -8409,7 +8442,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A427" s="27"/>
       <c r="B427" s="22" t="s">
         <v>434</v>
@@ -8421,7 +8454,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" s="26">
         <v>181</v>
       </c>
@@ -8435,7 +8468,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A429" s="26"/>
       <c r="B429" s="22" t="s">
         <v>436</v>
@@ -8447,7 +8480,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A430" s="27"/>
       <c r="B430" s="22" t="s">
         <v>436</v>
@@ -8459,7 +8492,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" s="26">
         <v>182</v>
       </c>
@@ -8473,7 +8506,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A432" s="26"/>
       <c r="B432" s="22" t="s">
         <v>438</v>
@@ -8485,7 +8518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A433" s="27"/>
       <c r="B433" s="22" t="s">
         <v>438</v>
@@ -8497,7 +8530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" s="26">
         <v>183</v>
       </c>
@@ -8511,7 +8544,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A435" s="26"/>
       <c r="B435" s="22" t="s">
         <v>440</v>
@@ -8523,7 +8556,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A436" s="27"/>
       <c r="B436" s="22" t="s">
         <v>440</v>
@@ -8535,7 +8568,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" s="26">
         <v>184</v>
       </c>
@@ -8549,7 +8582,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A438" s="26"/>
       <c r="B438" s="22" t="s">
         <v>442</v>
@@ -8561,7 +8594,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A439" s="27"/>
       <c r="B439" s="22" t="s">
         <v>442</v>
@@ -8573,7 +8606,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" s="26">
         <v>185</v>
       </c>
@@ -8587,7 +8620,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A441" s="26"/>
       <c r="B441" s="22" t="s">
         <v>444</v>
@@ -8599,7 +8632,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A442" s="27"/>
       <c r="B442" s="22" t="s">
         <v>444</v>
@@ -8611,7 +8644,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" s="26">
         <v>186</v>
       </c>
@@ -8625,7 +8658,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A444" s="26"/>
       <c r="B444" s="22" t="s">
         <v>446</v>
@@ -8637,7 +8670,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A445" s="27"/>
       <c r="B445" s="22" t="s">
         <v>446</v>
@@ -8649,7 +8682,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" s="26">
         <v>187</v>
       </c>
@@ -8663,7 +8696,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A447" s="26"/>
       <c r="B447" s="22" t="s">
         <v>448</v>
@@ -8675,7 +8708,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A448" s="27"/>
       <c r="B448" s="22" t="s">
         <v>448</v>
@@ -8687,7 +8720,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" s="26">
         <v>188</v>
       </c>
@@ -8701,7 +8734,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A450" s="26"/>
       <c r="B450" s="22" t="s">
         <v>450</v>
@@ -8713,7 +8746,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A451" s="27"/>
       <c r="B451" s="22" t="s">
         <v>450</v>
@@ -8725,7 +8758,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" s="26">
         <v>189</v>
       </c>
@@ -8739,7 +8772,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A453" s="26"/>
       <c r="B453" s="22" t="s">
         <v>452</v>
@@ -8751,7 +8784,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A454" s="27"/>
       <c r="B454" s="22" t="s">
         <v>452</v>
@@ -8763,7 +8796,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" s="26">
         <v>190</v>
       </c>
@@ -8777,7 +8810,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A456" s="26"/>
       <c r="B456" s="22" t="s">
         <v>454</v>
@@ -8789,7 +8822,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A457" s="27"/>
       <c r="B457" s="22" t="s">
         <v>454</v>
@@ -8801,7 +8834,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" s="26">
         <v>191</v>
       </c>
@@ -8815,7 +8848,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A459" s="26"/>
       <c r="B459" s="22" t="s">
         <v>456</v>
@@ -8827,7 +8860,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A460" s="27"/>
       <c r="B460" s="22" t="s">
         <v>456</v>
@@ -8839,7 +8872,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" s="26">
         <v>192</v>
       </c>
@@ -8853,7 +8886,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A462" s="26"/>
       <c r="B462" s="22" t="s">
         <v>458</v>
@@ -8865,7 +8898,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A463" s="27"/>
       <c r="B463" s="22" t="s">
         <v>458</v>
@@ -8877,7 +8910,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" s="26">
         <v>193</v>
       </c>
@@ -8891,7 +8924,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A465" s="26"/>
       <c r="B465" s="22" t="s">
         <v>460</v>
@@ -8903,7 +8936,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A466" s="27"/>
       <c r="B466" s="22" t="s">
         <v>460</v>
@@ -8915,7 +8948,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" s="26">
         <v>194</v>
       </c>
@@ -8929,7 +8962,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A468" s="26"/>
       <c r="B468" s="22" t="s">
         <v>462</v>
@@ -8941,7 +8974,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A469" s="27"/>
       <c r="B469" s="22" t="s">
         <v>462</v>
@@ -8953,7 +8986,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" s="26">
         <v>195</v>
       </c>
@@ -8967,7 +9000,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A471" s="26"/>
       <c r="B471" s="22" t="s">
         <v>464</v>
@@ -8979,7 +9012,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A472" s="27"/>
       <c r="B472" s="22" t="s">
         <v>464</v>
@@ -8991,7 +9024,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" s="26">
         <v>196</v>
       </c>
@@ -9005,7 +9038,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A474" s="26"/>
       <c r="B474" s="22" t="s">
         <v>466</v>
@@ -9017,7 +9050,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A475" s="27"/>
       <c r="B475" s="22" t="s">
         <v>466</v>
@@ -9029,7 +9062,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" s="26">
         <v>197</v>
       </c>
@@ -9043,7 +9076,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A477" s="26"/>
       <c r="B477" s="22" t="s">
         <v>468</v>
@@ -9055,7 +9088,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A478" s="27"/>
       <c r="B478" s="22" t="s">
         <v>468</v>
@@ -9067,7 +9100,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" s="26">
         <v>198</v>
       </c>
@@ -9081,7 +9114,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A480" s="26"/>
       <c r="B480" s="22" t="s">
         <v>470</v>
@@ -9093,7 +9126,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A481" s="27"/>
       <c r="B481" s="22" t="s">
         <v>470</v>
@@ -9105,7 +9138,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" s="26">
         <v>199</v>
       </c>
@@ -9119,7 +9152,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A483" s="26"/>
       <c r="B483" s="22" t="s">
         <v>472</v>
@@ -9131,7 +9164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A484" s="27"/>
       <c r="B484" s="22" t="s">
         <v>472</v>
@@ -9143,7 +9176,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" s="26">
         <v>200</v>
       </c>
@@ -9157,7 +9190,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A486" s="26"/>
       <c r="B486" s="22" t="s">
         <v>474</v>
@@ -9169,7 +9202,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A487" s="27"/>
       <c r="B487" s="22" t="s">
         <v>474</v>
@@ -9181,7 +9214,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" s="26">
         <v>201</v>
       </c>
@@ -9195,7 +9228,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A489" s="26"/>
       <c r="B489" s="22" t="s">
         <v>476</v>
@@ -9207,7 +9240,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A490" s="27"/>
       <c r="B490" s="22" t="s">
         <v>476</v>
@@ -9219,7 +9252,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" s="26">
         <v>202</v>
       </c>
@@ -9233,7 +9266,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A492" s="26"/>
       <c r="B492" s="22" t="s">
         <v>478</v>
@@ -9245,7 +9278,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A493" s="27"/>
       <c r="B493" s="22" t="s">
         <v>478</v>
@@ -9257,7 +9290,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" s="26">
         <v>203</v>
       </c>
@@ -9271,7 +9304,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A495" s="26"/>
       <c r="B495" s="22" t="s">
         <v>480</v>
@@ -9283,7 +9316,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A496" s="27"/>
       <c r="B496" s="22" t="s">
         <v>480</v>
@@ -9295,7 +9328,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A497" s="26">
         <v>204</v>
       </c>
@@ -9309,7 +9342,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A498" s="26"/>
       <c r="B498" s="22" t="s">
         <v>482</v>
@@ -9321,7 +9354,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A499" s="27"/>
       <c r="B499" s="22" t="s">
         <v>482</v>
@@ -9333,7 +9366,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A500" s="26">
         <v>205</v>
       </c>
@@ -9347,7 +9380,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A501" s="26"/>
       <c r="B501" s="22" t="s">
         <v>484</v>
@@ -9359,7 +9392,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A502" s="27"/>
       <c r="B502" s="22" t="s">
         <v>484</v>
@@ -9371,7 +9404,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A503" s="26">
         <v>206</v>
       </c>
@@ -9385,7 +9418,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A504" s="26"/>
       <c r="B504" s="22" t="s">
         <v>486</v>
@@ -9397,7 +9430,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A505" s="27"/>
       <c r="B505" s="22" t="s">
         <v>486</v>
@@ -9409,7 +9442,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A506" s="26">
         <v>207</v>
       </c>
@@ -9423,7 +9456,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A507" s="26"/>
       <c r="B507" s="22" t="s">
         <v>488</v>
@@ -9435,7 +9468,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A508" s="27"/>
       <c r="B508" s="22" t="s">
         <v>488</v>
@@ -9447,7 +9480,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A509" s="26">
         <v>208</v>
       </c>
@@ -9462,7 +9495,7 @@
       </c>
       <c r="E509" s="11"/>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A510" s="26"/>
       <c r="B510" s="13" t="s">
         <v>490</v>
@@ -9475,7 +9508,7 @@
       </c>
       <c r="E510" s="11"/>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A511" s="26"/>
       <c r="B511" s="13" t="s">
         <v>490</v>
@@ -9488,7 +9521,7 @@
       </c>
       <c r="E511" s="11"/>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A512" s="28">
         <v>209</v>
       </c>
@@ -9503,7 +9536,7 @@
       </c>
       <c r="E512" s="11"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A513" s="28"/>
       <c r="B513" s="13" t="s">
         <v>492</v>
@@ -9516,7 +9549,7 @@
       </c>
       <c r="E513" s="11"/>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A514" s="28"/>
       <c r="B514" s="13" t="s">
         <v>492</v>
@@ -9529,7 +9562,7 @@
       </c>
       <c r="E514" s="11"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A515" s="28">
         <v>210</v>
       </c>
@@ -9544,7 +9577,7 @@
       </c>
       <c r="E515" s="11"/>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A516" s="28"/>
       <c r="B516" s="13" t="s">
         <v>494</v>
@@ -9557,7 +9590,7 @@
       </c>
       <c r="E516" s="11"/>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A517" s="28"/>
       <c r="B517" s="13" t="s">
         <v>494</v>
@@ -9570,7 +9603,7 @@
       </c>
       <c r="E517" s="11"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A518" s="28">
         <v>211</v>
       </c>
@@ -9585,7 +9618,7 @@
       </c>
       <c r="E518" s="11"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A519" s="28"/>
       <c r="B519" s="13" t="s">
         <v>496</v>
@@ -9598,7 +9631,7 @@
       </c>
       <c r="E519" s="11"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A520" s="28"/>
       <c r="B520" s="13" t="s">
         <v>496</v>
@@ -9611,7 +9644,7 @@
       </c>
       <c r="E520" s="11"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A521" s="28">
         <v>212</v>
       </c>
@@ -9626,7 +9659,7 @@
       </c>
       <c r="E521" s="11"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A522" s="28"/>
       <c r="B522" s="13" t="s">
         <v>498</v>
@@ -9639,7 +9672,7 @@
       </c>
       <c r="E522" s="11"/>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A523" s="28"/>
       <c r="B523" s="13" t="s">
         <v>498</v>
@@ -9652,7 +9685,7 @@
       </c>
       <c r="E523" s="11"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A524" s="28">
         <v>213</v>
       </c>
@@ -9667,7 +9700,7 @@
       </c>
       <c r="E524" s="11"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A525" s="28"/>
       <c r="B525" s="13" t="s">
         <v>500</v>
@@ -9680,7 +9713,7 @@
       </c>
       <c r="E525" s="11"/>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A526" s="28"/>
       <c r="B526" s="13" t="s">
         <v>500</v>
@@ -9693,7 +9726,7 @@
       </c>
       <c r="E526" s="11"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A527" s="28">
         <v>214</v>
       </c>
@@ -9708,7 +9741,7 @@
       </c>
       <c r="E527" s="11"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A528" s="28"/>
       <c r="B528" s="13" t="s">
         <v>502</v>
@@ -9721,7 +9754,7 @@
       </c>
       <c r="E528" s="11"/>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A529" s="28"/>
       <c r="B529" s="13" t="s">
         <v>502</v>
@@ -9734,7 +9767,7 @@
       </c>
       <c r="E529" s="11"/>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A530" s="28">
         <v>215</v>
       </c>
@@ -9749,7 +9782,7 @@
       </c>
       <c r="E530" s="11"/>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A531" s="28"/>
       <c r="B531" s="13" t="s">
         <v>504</v>
@@ -9762,7 +9795,7 @@
       </c>
       <c r="E531" s="11"/>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A532" s="28"/>
       <c r="B532" s="13" t="s">
         <v>504</v>
@@ -9775,7 +9808,7 @@
       </c>
       <c r="E532" s="11"/>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A533" s="28">
         <v>216</v>
       </c>
@@ -9790,7 +9823,7 @@
       </c>
       <c r="E533" s="11"/>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A534" s="28"/>
       <c r="B534" s="13" t="s">
         <v>506</v>
@@ -9803,7 +9836,7 @@
       </c>
       <c r="E534" s="11"/>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A535" s="28"/>
       <c r="B535" s="13" t="s">
         <v>506</v>
@@ -9816,7 +9849,7 @@
       </c>
       <c r="E535" s="11"/>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A536" s="28">
         <v>217</v>
       </c>
@@ -9831,7 +9864,7 @@
       </c>
       <c r="E536" s="11"/>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A537" s="28"/>
       <c r="B537" s="13" t="s">
         <v>508</v>
@@ -9844,7 +9877,7 @@
       </c>
       <c r="E537" s="11"/>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A538" s="28"/>
       <c r="B538" s="13" t="s">
         <v>508</v>
@@ -9857,7 +9890,7 @@
       </c>
       <c r="E538" s="11"/>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A539" s="28">
         <v>218</v>
       </c>
@@ -9872,7 +9905,7 @@
       </c>
       <c r="E539" s="11"/>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A540" s="28"/>
       <c r="B540" s="13" t="s">
         <v>510</v>
@@ -9885,7 +9918,7 @@
       </c>
       <c r="E540" s="11"/>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A541" s="28"/>
       <c r="B541" s="13" t="s">
         <v>510</v>
@@ -9898,7 +9931,7 @@
       </c>
       <c r="E541" s="11"/>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A542" s="28">
         <v>219</v>
       </c>
@@ -9913,7 +9946,7 @@
       </c>
       <c r="E542" s="11"/>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A543" s="28"/>
       <c r="B543" s="13" t="s">
         <v>512</v>
@@ -9926,7 +9959,7 @@
       </c>
       <c r="E543" s="11"/>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A544" s="28"/>
       <c r="B544" s="13" t="s">
         <v>512</v>
@@ -9939,7 +9972,7 @@
       </c>
       <c r="E544" s="11"/>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A545" s="28">
         <v>220</v>
       </c>
@@ -9954,7 +9987,7 @@
       </c>
       <c r="E545" s="11"/>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A546" s="28"/>
       <c r="B546" s="13" t="s">
         <v>514</v>
@@ -9967,7 +10000,7 @@
       </c>
       <c r="E546" s="11"/>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A547" s="28"/>
       <c r="B547" s="13" t="s">
         <v>514</v>
@@ -9980,7 +10013,7 @@
       </c>
       <c r="E547" s="11"/>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A548" s="28">
         <v>221</v>
       </c>
@@ -9995,7 +10028,7 @@
       </c>
       <c r="E548" s="11"/>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A549" s="28"/>
       <c r="B549" s="13" t="s">
         <v>516</v>
@@ -10008,7 +10041,7 @@
       </c>
       <c r="E549" s="11"/>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A550" s="28"/>
       <c r="B550" s="13" t="s">
         <v>516</v>
@@ -10021,7 +10054,7 @@
       </c>
       <c r="E550" s="11"/>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A551" s="28">
         <v>222</v>
       </c>
@@ -10036,7 +10069,7 @@
       </c>
       <c r="E551" s="11"/>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A552" s="28"/>
       <c r="B552" s="13" t="s">
         <v>518</v>
@@ -10049,7 +10082,7 @@
       </c>
       <c r="E552" s="11"/>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A553" s="28"/>
       <c r="B553" s="13" t="s">
         <v>518</v>
@@ -10062,7 +10095,7 @@
       </c>
       <c r="E553" s="11"/>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A554" s="28">
         <v>223</v>
       </c>
@@ -10077,7 +10110,7 @@
       </c>
       <c r="E554" s="11"/>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A555" s="28"/>
       <c r="B555" s="13" t="s">
         <v>520</v>
@@ -10090,7 +10123,7 @@
       </c>
       <c r="E555" s="11"/>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A556" s="28"/>
       <c r="B556" s="13" t="s">
         <v>520</v>
@@ -10103,7 +10136,7 @@
       </c>
       <c r="E556" s="11"/>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A557" s="28">
         <v>224</v>
       </c>
@@ -10118,7 +10151,7 @@
       </c>
       <c r="E557" s="11"/>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A558" s="28"/>
       <c r="B558" s="13" t="s">
         <v>522</v>
@@ -10131,7 +10164,7 @@
       </c>
       <c r="E558" s="11"/>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A559" s="28"/>
       <c r="B559" s="13" t="s">
         <v>522</v>
@@ -10144,7 +10177,7 @@
       </c>
       <c r="E559" s="11"/>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A560" s="28">
         <v>225</v>
       </c>
@@ -10159,7 +10192,7 @@
       </c>
       <c r="E560" s="11"/>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A561" s="28"/>
       <c r="B561" s="13" t="s">
         <v>524</v>
@@ -10172,7 +10205,7 @@
       </c>
       <c r="E561" s="11"/>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A562" s="28"/>
       <c r="B562" s="13" t="s">
         <v>524</v>
@@ -10185,7 +10218,7 @@
       </c>
       <c r="E562" s="11"/>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A563" s="28">
         <v>226</v>
       </c>
@@ -10200,7 +10233,7 @@
       </c>
       <c r="E563" s="11"/>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A564" s="28"/>
       <c r="B564" s="13" t="s">
         <v>526</v>
@@ -10213,7 +10246,7 @@
       </c>
       <c r="E564" s="11"/>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A565" s="28"/>
       <c r="B565" s="13" t="s">
         <v>526</v>
@@ -10226,7 +10259,7 @@
       </c>
       <c r="E565" s="11"/>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A566" s="28">
         <v>227</v>
       </c>
@@ -10241,7 +10274,7 @@
       </c>
       <c r="E566" s="11"/>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A567" s="28"/>
       <c r="B567" s="13" t="s">
         <v>528</v>
@@ -10254,7 +10287,7 @@
       </c>
       <c r="E567" s="11"/>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A568" s="28"/>
       <c r="B568" s="13" t="s">
         <v>528</v>
@@ -10267,7 +10300,7 @@
       </c>
       <c r="E568" s="11"/>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A569" s="28">
         <v>228</v>
       </c>
@@ -10282,7 +10315,7 @@
       </c>
       <c r="E569" s="11"/>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A570" s="28"/>
       <c r="B570" s="13" t="s">
         <v>530</v>
@@ -10295,7 +10328,7 @@
       </c>
       <c r="E570" s="11"/>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A571" s="28"/>
       <c r="B571" s="13" t="s">
         <v>530</v>
@@ -10308,7 +10341,7 @@
       </c>
       <c r="E571" s="11"/>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A572" s="28">
         <v>229</v>
       </c>
@@ -10323,7 +10356,7 @@
       </c>
       <c r="E572" s="11"/>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A573" s="28"/>
       <c r="B573" s="13" t="s">
         <v>532</v>
@@ -10336,7 +10369,7 @@
       </c>
       <c r="E573" s="11"/>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A574" s="28"/>
       <c r="B574" s="13" t="s">
         <v>532</v>
@@ -10349,7 +10382,7 @@
       </c>
       <c r="E574" s="11"/>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A575" s="28">
         <v>230</v>
       </c>
@@ -10364,7 +10397,7 @@
       </c>
       <c r="E575" s="11"/>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A576" s="28"/>
       <c r="B576" s="13" t="s">
         <v>534</v>
@@ -10377,7 +10410,7 @@
       </c>
       <c r="E576" s="11"/>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A577" s="28"/>
       <c r="B577" s="13" t="s">
         <v>534</v>
@@ -10390,7 +10423,7 @@
       </c>
       <c r="E577" s="11"/>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A578" s="28">
         <v>231</v>
       </c>
@@ -10405,7 +10438,7 @@
       </c>
       <c r="E578" s="11"/>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A579" s="28"/>
       <c r="B579" s="13" t="s">
         <v>536</v>
@@ -10418,7 +10451,7 @@
       </c>
       <c r="E579" s="11"/>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A580" s="28"/>
       <c r="B580" s="13" t="s">
         <v>536</v>
@@ -10431,7 +10464,7 @@
       </c>
       <c r="E580" s="11"/>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A581" s="28">
         <v>232</v>
       </c>
@@ -10446,7 +10479,7 @@
       </c>
       <c r="E581" s="11"/>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A582" s="28"/>
       <c r="B582" s="13" t="s">
         <v>538</v>
@@ -10459,7 +10492,7 @@
       </c>
       <c r="E582" s="11"/>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A583" s="28"/>
       <c r="B583" s="13" t="s">
         <v>538</v>
@@ -10472,7 +10505,7 @@
       </c>
       <c r="E583" s="11"/>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A584" s="28">
         <v>233</v>
       </c>
@@ -10487,7 +10520,7 @@
       </c>
       <c r="E584" s="11"/>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A585" s="28"/>
       <c r="B585" s="13" t="s">
         <v>540</v>
@@ -10500,7 +10533,7 @@
       </c>
       <c r="E585" s="11"/>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A586" s="28"/>
       <c r="B586" s="13" t="s">
         <v>540</v>
@@ -10513,7 +10546,7 @@
       </c>
       <c r="E586" s="11"/>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A587" s="28">
         <v>234</v>
       </c>
@@ -10528,7 +10561,7 @@
       </c>
       <c r="E587" s="11"/>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A588" s="28"/>
       <c r="B588" s="13" t="s">
         <v>542</v>
@@ -10541,7 +10574,7 @@
       </c>
       <c r="E588" s="11"/>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A589" s="28"/>
       <c r="B589" s="13" t="s">
         <v>542</v>
@@ -10554,7 +10587,7 @@
       </c>
       <c r="E589" s="11"/>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A590" s="28">
         <v>235</v>
       </c>
@@ -10569,7 +10602,7 @@
       </c>
       <c r="E590" s="11"/>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A591" s="28"/>
       <c r="B591" s="13" t="s">
         <v>544</v>
@@ -10582,7 +10615,7 @@
       </c>
       <c r="E591" s="11"/>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A592" s="28"/>
       <c r="B592" s="13" t="s">
         <v>544</v>
@@ -10595,7 +10628,7 @@
       </c>
       <c r="E592" s="11"/>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A593" s="28">
         <v>236</v>
       </c>
@@ -10610,7 +10643,7 @@
       </c>
       <c r="E593" s="11"/>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A594" s="28"/>
       <c r="B594" s="13" t="s">
         <v>546</v>
@@ -10623,7 +10656,7 @@
       </c>
       <c r="E594" s="11"/>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A595" s="28"/>
       <c r="B595" s="13" t="s">
         <v>546</v>
@@ -10636,7 +10669,7 @@
       </c>
       <c r="E595" s="11"/>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A596" s="28">
         <v>237</v>
       </c>
@@ -10651,7 +10684,7 @@
       </c>
       <c r="E596" s="11"/>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A597" s="28"/>
       <c r="B597" s="13" t="s">
         <v>548</v>
@@ -10664,7 +10697,7 @@
       </c>
       <c r="E597" s="11"/>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A598" s="28"/>
       <c r="B598" s="13" t="s">
         <v>548</v>
@@ -10677,7 +10710,7 @@
       </c>
       <c r="E598" s="11"/>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A599" s="28">
         <v>238</v>
       </c>
@@ -10692,7 +10725,7 @@
       </c>
       <c r="E599" s="11"/>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A600" s="28"/>
       <c r="B600" s="13" t="s">
         <v>550</v>
@@ -10705,7 +10738,7 @@
       </c>
       <c r="E600" s="11"/>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A601" s="28"/>
       <c r="B601" s="13" t="s">
         <v>550</v>
@@ -10718,7 +10751,7 @@
       </c>
       <c r="E601" s="11"/>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A602" s="28">
         <v>239</v>
       </c>
@@ -10733,7 +10766,7 @@
       </c>
       <c r="E602" s="11"/>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A603" s="28"/>
       <c r="B603" s="13" t="s">
         <v>552</v>
@@ -10746,7 +10779,7 @@
       </c>
       <c r="E603" s="11"/>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A604" s="28"/>
       <c r="B604" s="13" t="s">
         <v>552</v>
@@ -10759,7 +10792,7 @@
       </c>
       <c r="E604" s="11"/>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A605" s="28">
         <v>240</v>
       </c>
@@ -10774,7 +10807,7 @@
       </c>
       <c r="E605" s="11"/>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A606" s="28"/>
       <c r="B606" s="13" t="s">
         <v>554</v>
@@ -10787,7 +10820,7 @@
       </c>
       <c r="E606" s="11"/>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A607" s="28"/>
       <c r="B607" s="13" t="s">
         <v>554</v>
@@ -10800,7 +10833,7 @@
       </c>
       <c r="E607" s="11"/>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A608" s="28">
         <v>241</v>
       </c>
@@ -10815,7 +10848,7 @@
       </c>
       <c r="E608" s="11"/>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A609" s="28"/>
       <c r="B609" s="13" t="s">
         <v>556</v>
@@ -10828,7 +10861,7 @@
       </c>
       <c r="E609" s="11"/>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A610" s="28"/>
       <c r="B610" s="13" t="s">
         <v>556</v>
@@ -10841,7 +10874,7 @@
       </c>
       <c r="E610" s="11"/>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A611" s="28">
         <v>242</v>
       </c>
@@ -10856,7 +10889,7 @@
       </c>
       <c r="E611" s="11"/>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A612" s="28"/>
       <c r="B612" s="13" t="s">
         <v>558</v>
@@ -10869,7 +10902,7 @@
       </c>
       <c r="E612" s="11"/>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A613" s="28"/>
       <c r="B613" s="13" t="s">
         <v>558</v>
@@ -10882,7 +10915,7 @@
       </c>
       <c r="E613" s="11"/>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A614" s="28">
         <v>243</v>
       </c>
@@ -10897,7 +10930,7 @@
       </c>
       <c r="E614" s="11"/>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A615" s="28"/>
       <c r="B615" s="13" t="s">
         <v>560</v>
@@ -10910,7 +10943,7 @@
       </c>
       <c r="E615" s="11"/>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A616" s="28"/>
       <c r="B616" s="13" t="s">
         <v>560</v>
@@ -10923,7 +10956,7 @@
       </c>
       <c r="E616" s="11"/>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A617" s="28">
         <v>244</v>
       </c>
@@ -10937,7 +10970,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A618" s="28"/>
       <c r="B618" s="21" t="s">
         <v>562</v>
@@ -10949,7 +10982,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A619" s="25">
         <v>245</v>
       </c>
@@ -10963,7 +10996,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A620" s="26"/>
       <c r="B620" s="21" t="s">
         <v>564</v>
@@ -10975,7 +11008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A621" s="25">
         <v>246</v>
       </c>
@@ -10989,7 +11022,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A622" s="26"/>
       <c r="B622" s="21" t="s">
         <v>566</v>
@@ -11001,7 +11034,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A623" s="25">
         <v>247</v>
       </c>
@@ -11015,7 +11048,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A624" s="26"/>
       <c r="B624" s="21" t="s">
         <v>568</v>
@@ -11027,7 +11060,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A625" s="25">
         <v>248</v>
       </c>
@@ -11041,7 +11074,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A626" s="26"/>
       <c r="B626" s="21" t="s">
         <v>570</v>
@@ -11053,7 +11086,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A627" s="25">
         <v>249</v>
       </c>
@@ -11067,7 +11100,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A628" s="26"/>
       <c r="B628" s="21" t="s">
         <v>572</v>
@@ -11079,7 +11112,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A629" s="25">
         <v>250</v>
       </c>
@@ -11093,7 +11126,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A630" s="26"/>
       <c r="B630" s="21" t="s">
         <v>574</v>
@@ -11105,7 +11138,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A631" s="25">
         <v>251</v>
       </c>
@@ -11119,7 +11152,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A632" s="26"/>
       <c r="B632" s="21" t="s">
         <v>576</v>
@@ -11131,7 +11164,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A633" s="25">
         <v>252</v>
       </c>
@@ -11145,7 +11178,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A634" s="26"/>
       <c r="B634" s="21" t="s">
         <v>578</v>
@@ -11157,7 +11190,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A635" s="25">
         <v>253</v>
       </c>
@@ -11171,7 +11204,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A636" s="26"/>
       <c r="B636" s="21" t="s">
         <v>580</v>
@@ -11183,7 +11216,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A637" s="25">
         <v>254</v>
       </c>
@@ -11197,7 +11230,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A638" s="26"/>
       <c r="B638" s="21" t="s">
         <v>582</v>
@@ -11209,7 +11242,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A639" s="25">
         <v>255</v>
       </c>
@@ -11223,7 +11256,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A640" s="26"/>
       <c r="B640" s="21" t="s">
         <v>584</v>
@@ -11235,7 +11268,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A641" s="25">
         <v>256</v>
       </c>
@@ -11249,7 +11282,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A642" s="26"/>
       <c r="B642" s="21" t="s">
         <v>586</v>
@@ -11261,7 +11294,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A643" s="25">
         <v>257</v>
       </c>
@@ -11275,7 +11308,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A644" s="26"/>
       <c r="B644" s="21" t="s">
         <v>588</v>
@@ -11287,7 +11320,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A645" s="25">
         <v>258</v>
       </c>
@@ -11301,7 +11334,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A646" s="26"/>
       <c r="B646" s="21" t="s">
         <v>590</v>
@@ -11313,7 +11346,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A647" s="25">
         <v>259</v>
       </c>
@@ -11327,7 +11360,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A648" s="26"/>
       <c r="B648" s="21" t="s">
         <v>592</v>
@@ -11339,7 +11372,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A649" s="25">
         <v>260</v>
       </c>
@@ -11353,7 +11386,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A650" s="26"/>
       <c r="B650" s="21" t="s">
         <v>594</v>
@@ -11365,7 +11398,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A651" s="25">
         <v>261</v>
       </c>
@@ -11379,7 +11412,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A652" s="26"/>
       <c r="B652" s="21" t="s">
         <v>596</v>
@@ -11391,7 +11424,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A653" s="25">
         <v>262</v>
       </c>
@@ -11405,7 +11438,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A654" s="26"/>
       <c r="B654" s="21" t="s">
         <v>598</v>
@@ -11417,7 +11450,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A655" s="25">
         <v>263</v>
       </c>
@@ -11431,7 +11464,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A656" s="26"/>
       <c r="B656" s="21" t="s">
         <v>600</v>
@@ -11443,7 +11476,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A657" s="25">
         <v>264</v>
       </c>
@@ -11457,7 +11490,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A658" s="26"/>
       <c r="B658" s="21" t="s">
         <v>602</v>
@@ -11469,7 +11502,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A659" s="25">
         <v>265</v>
       </c>
@@ -11483,7 +11516,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A660" s="26"/>
       <c r="B660" s="21" t="s">
         <v>604</v>
@@ -11495,7 +11528,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A661" s="25">
         <v>266</v>
       </c>
@@ -11509,7 +11542,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A662" s="26"/>
       <c r="B662" s="21" t="s">
         <v>606</v>
@@ -11521,7 +11554,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A663" s="25">
         <v>267</v>
       </c>
@@ -11535,7 +11568,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A664" s="26"/>
       <c r="B664" s="21" t="s">
         <v>608</v>
@@ -11547,7 +11580,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A665" s="25">
         <v>268</v>
       </c>
@@ -11561,7 +11594,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A666" s="26"/>
       <c r="B666" s="21" t="s">
         <v>610</v>
@@ -11573,7 +11606,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A667" s="25">
         <v>269</v>
       </c>
@@ -11587,7 +11620,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A668" s="26"/>
       <c r="B668" s="21" t="s">
         <v>612</v>
@@ -11599,7 +11632,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A669" s="25">
         <v>270</v>
       </c>
@@ -11613,7 +11646,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A670" s="26"/>
       <c r="B670" s="21" t="s">
         <v>614</v>
@@ -11625,7 +11658,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A671" s="25">
         <v>271</v>
       </c>
@@ -11639,7 +11672,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A672" s="26"/>
       <c r="B672" s="21" t="s">
         <v>616</v>
@@ -11651,7 +11684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A673" s="25">
         <v>272</v>
       </c>
@@ -11665,7 +11698,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A674" s="26"/>
       <c r="B674" s="21" t="s">
         <v>618</v>
@@ -11677,7 +11710,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A675" s="25">
         <v>273</v>
       </c>
@@ -11691,7 +11724,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A676" s="26"/>
       <c r="B676" s="21" t="s">
         <v>620</v>
@@ -11703,7 +11736,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A677" s="25">
         <v>274</v>
       </c>
@@ -11717,7 +11750,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A678" s="26"/>
       <c r="B678" s="21" t="s">
         <v>622</v>
@@ -11729,7 +11762,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A679" s="25">
         <v>275</v>
       </c>
@@ -11743,7 +11776,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A680" s="26"/>
       <c r="B680" s="21" t="s">
         <v>624</v>
@@ -11755,7 +11788,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A681" s="25">
         <v>276</v>
       </c>
@@ -11769,7 +11802,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A682" s="26"/>
       <c r="B682" s="21" t="s">
         <v>626</v>
@@ -11781,7 +11814,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A683" s="25">
         <v>277</v>
       </c>
@@ -11795,7 +11828,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A684" s="26"/>
       <c r="B684" s="21" t="s">
         <v>628</v>
@@ -11807,7 +11840,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A685" s="25">
         <v>278</v>
       </c>
@@ -11821,7 +11854,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A686" s="26"/>
       <c r="B686" s="21" t="s">
         <v>630</v>
@@ -11833,7 +11866,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A687" s="25">
         <v>279</v>
       </c>
@@ -11847,7 +11880,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A688" s="26"/>
       <c r="B688" s="21" t="s">
         <v>632</v>
@@ -11859,7 +11892,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A689" s="36">
         <v>280</v>
       </c>
@@ -11873,7 +11906,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A690" s="36">
         <v>281</v>
       </c>
@@ -11887,7 +11920,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A691" s="36">
         <v>282</v>
       </c>
@@ -11901,7 +11934,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A692" s="36">
         <v>283</v>
       </c>
@@ -11915,7 +11948,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A693" s="36">
         <v>284</v>
       </c>
@@ -11929,7 +11962,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A694" s="36">
         <v>285</v>
       </c>
@@ -11943,7 +11976,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A695" s="36">
         <v>286</v>
       </c>
@@ -11957,7 +11990,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A696" s="36">
         <v>287</v>
       </c>
@@ -11971,7 +12004,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A697" s="36">
         <v>288</v>
       </c>
@@ -11985,7 +12018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A698" s="36">
         <v>289</v>
       </c>
@@ -11999,7 +12032,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A699" s="36">
         <v>290</v>
       </c>
@@ -12013,7 +12046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A700" s="36">
         <v>291</v>
       </c>
@@ -12027,7 +12060,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A701" s="36">
         <v>292</v>
       </c>
@@ -12041,7 +12074,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A702" s="37">
         <v>293</v>
       </c>
@@ -12055,7 +12088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A703" s="37">
         <v>294</v>
       </c>
@@ -12069,7 +12102,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A704" s="37">
         <v>295</v>
       </c>
@@ -12083,7 +12116,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A705" s="37">
         <v>296</v>
       </c>
@@ -12097,7 +12130,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A706" s="37">
         <v>297</v>
       </c>
@@ -12111,7 +12144,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A707" s="37">
         <v>298</v>
       </c>
@@ -12125,7 +12158,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A708" s="37">
         <v>299</v>
       </c>
@@ -12139,7 +12172,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A709" s="37">
         <v>300</v>
       </c>
@@ -12153,80 +12186,107 @@
         <v>679</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A710" s="38"/>
-      <c r="B710" s="5"/>
-      <c r="C710" s="6"/>
-    </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A711" s="38"/>
-      <c r="B711" s="5"/>
-      <c r="C711" s="6"/>
-    </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A712" s="38"/>
-      <c r="B712" s="5"/>
-      <c r="C712" s="6"/>
-    </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A710" s="39">
+        <v>301</v>
+      </c>
+      <c r="B710" s="35" t="s">
+        <v>680</v>
+      </c>
+      <c r="C710" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="D710" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A711" s="39">
+        <v>302</v>
+      </c>
+      <c r="B711" s="40" t="s">
+        <v>682</v>
+      </c>
+      <c r="C711" s="40" t="s">
+        <v>683</v>
+      </c>
+      <c r="D711" s="40" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A712" s="41">
+        <v>303</v>
+      </c>
+      <c r="B712" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="C712" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="D712" s="33" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A713" s="38"/>
       <c r="B713" s="5"/>
       <c r="C713" s="6"/>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A714" s="38"/>
       <c r="B714" s="5"/>
       <c r="C714" s="6"/>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A715" s="29"/>
       <c r="B715" s="5"/>
       <c r="C715" s="6"/>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A716" s="29"/>
       <c r="B716" s="5"/>
       <c r="C716" s="6"/>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A717" s="29"/>
       <c r="B717" s="5"/>
       <c r="C717" s="6"/>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A718" s="29"/>
       <c r="B718" s="5"/>
       <c r="C718" s="6"/>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A719" s="29"/>
       <c r="B719" s="5"/>
       <c r="C719" s="6"/>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A720" s="29"/>
       <c r="B720" s="5"/>
       <c r="C720" s="6"/>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A721" s="29"/>
       <c r="B721" s="5"/>
       <c r="C721" s="6"/>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A722" s="29"/>
       <c r="B722" s="5"/>
       <c r="C722" s="6"/>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A723" s="29"/>
       <c r="B723" s="5"/>
       <c r="C723" s="6"/>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A724" s="29"/>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A725" s="29"/>
     </row>
   </sheetData>

--- a/Input_Automation/Phantom Items.xlsx
+++ b/Input_Automation/Phantom Items.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpadeveloper\Documents\UiPath\Fellowes_Validation\Input_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F03775-1FCC-479E-A0E1-64713CC78865}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FDF926-A81E-49AC-9738-CCD6B3C394C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="16110" windowHeight="6850" xr2:uid="{6ABD80F8-E04B-4DC7-BD19-74BFF736B6CF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="16110" windowHeight="6860" xr2:uid="{6ABD80F8-E04B-4DC7-BD19-74BFF736B6CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$708</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$716</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="696">
   <si>
     <t>Sl No</t>
   </si>
@@ -2092,6 +2092,30 @@
   </si>
   <si>
     <t>815058D1-J0M</t>
+  </si>
+  <si>
+    <t>(PHANTOM);EDGE;PVC;.9375 X.040 IN;E5</t>
+  </si>
+  <si>
+    <t>387881XY2</t>
+  </si>
+  <si>
+    <t>391856L</t>
+  </si>
+  <si>
+    <t>(PHANTOM);EDGE;PVC;.9375 X.040 IN;E3</t>
+  </si>
+  <si>
+    <t>387881XY0</t>
+  </si>
+  <si>
+    <t>387881E5</t>
+  </si>
+  <si>
+    <t>387881E3</t>
+  </si>
+  <si>
+    <t>38788100000</t>
   </si>
 </sst>
 </file>
@@ -2704,7 +2728,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2809,16 +2833,17 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3178,8 +3203,8 @@
   <dimension ref="A1:F725"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A690" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A708" sqref="A708:XFD708"/>
+      <pane ySplit="1" topLeftCell="A534" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D718" sqref="D718"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12176,18 +12201,18 @@
       <c r="A709" s="37">
         <v>300</v>
       </c>
-      <c r="B709" s="34" t="s">
+      <c r="B709" s="35" t="s">
         <v>677</v>
       </c>
-      <c r="C709" s="33" t="s">
+      <c r="C709" s="35" t="s">
         <v>678</v>
       </c>
-      <c r="D709" s="34" t="s">
+      <c r="D709" s="35" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A710" s="39">
+      <c r="A710" s="37">
         <v>301</v>
       </c>
       <c r="B710" s="35" t="s">
@@ -12201,21 +12226,21 @@
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A711" s="39">
+      <c r="A711" s="37">
         <v>302</v>
       </c>
-      <c r="B711" s="40" t="s">
+      <c r="B711" s="38" t="s">
         <v>682</v>
       </c>
-      <c r="C711" s="40" t="s">
+      <c r="C711" s="38" t="s">
         <v>683</v>
       </c>
-      <c r="D711" s="40" t="s">
+      <c r="D711" s="38" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A712" s="41">
+      <c r="A712" s="37">
         <v>303</v>
       </c>
       <c r="B712" s="33" t="s">
@@ -12229,24 +12254,60 @@
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A713" s="38"/>
-      <c r="B713" s="5"/>
-      <c r="C713" s="6"/>
+      <c r="A713" s="37">
+        <v>304</v>
+      </c>
+      <c r="B713" s="41" t="s">
+        <v>693</v>
+      </c>
+      <c r="C713" s="39" t="s">
+        <v>688</v>
+      </c>
+      <c r="D713" s="40" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A714" s="38"/>
-      <c r="B714" s="5"/>
-      <c r="C714" s="6"/>
+      <c r="A714" s="37">
+        <v>305</v>
+      </c>
+      <c r="B714" s="35" t="s">
+        <v>690</v>
+      </c>
+      <c r="C714" s="33" t="s">
+        <v>640</v>
+      </c>
+      <c r="D714" s="35" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A715" s="29"/>
-      <c r="B715" s="5"/>
-      <c r="C715" s="6"/>
+      <c r="A715" s="37">
+        <v>306</v>
+      </c>
+      <c r="B715" s="41" t="s">
+        <v>694</v>
+      </c>
+      <c r="C715" s="39" t="s">
+        <v>691</v>
+      </c>
+      <c r="D715" s="35" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A716" s="29"/>
-      <c r="B716" s="5"/>
-      <c r="C716" s="6"/>
+      <c r="A716" s="29">
+        <v>307</v>
+      </c>
+      <c r="B716" s="42" t="s">
+        <v>695</v>
+      </c>
+      <c r="C716" s="39" t="s">
+        <v>688</v>
+      </c>
+      <c r="D716" s="40" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A717" s="29"/>
@@ -12257,6 +12318,7 @@
       <c r="A718" s="29"/>
       <c r="B718" s="5"/>
       <c r="C718" s="6"/>
+      <c r="D718" s="42"/>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A719" s="29"/>

--- a/Input_Automation/Phantom Items.xlsx
+++ b/Input_Automation/Phantom Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpadeveloper\Documents\UiPath\Fellowes_Validation\Input_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FDF926-A81E-49AC-9738-CCD6B3C394C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2864F531-5C7F-402A-B723-2F32FFBD0985}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="16110" windowHeight="6860" xr2:uid="{6ABD80F8-E04B-4DC7-BD19-74BFF736B6CF}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="712">
   <si>
     <t>Sl No</t>
   </si>
@@ -2115,7 +2115,55 @@
     <t>387881E3</t>
   </si>
   <si>
-    <t>38788100000</t>
+    <t>(PHANTOM);EDGE;PVC;.9375 X.040 IN;E6</t>
+  </si>
+  <si>
+    <t>387881XY4</t>
+  </si>
+  <si>
+    <t>398678-EC</t>
+  </si>
+  <si>
+    <t>(PHANTOM)TRACK;DOOR;SLIDING;120IN;EC</t>
+  </si>
+  <si>
+    <t>398678-PA</t>
+  </si>
+  <si>
+    <t>398717-EC</t>
+  </si>
+  <si>
+    <t>(PHANTOM)ASM;END CAP;TRACK;VOLO;EC</t>
+  </si>
+  <si>
+    <t>398717-PA</t>
+  </si>
+  <si>
+    <t>810059-XZ8</t>
+  </si>
+  <si>
+    <t>(PHANTOM)TFM;XZ8;1.0X5X9-BEIGEWOOD</t>
+  </si>
+  <si>
+    <t>810510-XZ8</t>
+  </si>
+  <si>
+    <t>810059-XZH</t>
+  </si>
+  <si>
+    <t>(PHANTOM)TFM;XZH;1.0X5X9-DESIGNER WHITE</t>
+  </si>
+  <si>
+    <t>810510-XZH</t>
+  </si>
+  <si>
+    <t>400928-EC</t>
+  </si>
+  <si>
+    <t>(PHANTOM)ASSY;POST;CORNER;120IN;VOLO;EC</t>
+  </si>
+  <si>
+    <t>400928-PA</t>
   </si>
 </sst>
 </file>
@@ -2728,7 +2776,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2843,7 +2891,6 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3203,8 +3250,8 @@
   <dimension ref="A1:F725"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A534" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D718" sqref="D718"/>
+      <pane ySplit="1" topLeftCell="A705" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A717" sqref="A717:A722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12299,60 +12346,114 @@
       <c r="A716" s="29">
         <v>307</v>
       </c>
-      <c r="B716" s="42" t="s">
+      <c r="B716" s="41" t="s">
+        <v>693</v>
+      </c>
+      <c r="C716" s="33" t="s">
         <v>695</v>
       </c>
-      <c r="C716" s="39" t="s">
-        <v>688</v>
-      </c>
-      <c r="D716" s="40" t="s">
-        <v>689</v>
+      <c r="D716" s="39" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A717" s="29"/>
-      <c r="B717" s="5"/>
-      <c r="C717" s="6"/>
+      <c r="A717" s="29">
+        <v>308</v>
+      </c>
+      <c r="B717" s="35" t="s">
+        <v>709</v>
+      </c>
+      <c r="C717" s="33" t="s">
+        <v>710</v>
+      </c>
+      <c r="D717" s="35" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A718" s="29"/>
-      <c r="B718" s="5"/>
-      <c r="C718" s="6"/>
-      <c r="D718" s="42"/>
+      <c r="A718" s="29">
+        <v>309</v>
+      </c>
+      <c r="B718" s="35" t="s">
+        <v>697</v>
+      </c>
+      <c r="C718" s="33" t="s">
+        <v>698</v>
+      </c>
+      <c r="D718" s="35" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A719" s="29"/>
-      <c r="B719" s="5"/>
-      <c r="C719" s="6"/>
+      <c r="A719" s="29">
+        <v>310</v>
+      </c>
+      <c r="B719" s="35" t="s">
+        <v>700</v>
+      </c>
+      <c r="C719" s="33" t="s">
+        <v>701</v>
+      </c>
+      <c r="D719" s="35" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A720" s="29"/>
-      <c r="B720" s="5"/>
-      <c r="C720" s="6"/>
-    </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A721" s="29"/>
-      <c r="B721" s="5"/>
-      <c r="C721" s="6"/>
-    </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A722" s="29"/>
-      <c r="B722" s="5"/>
-      <c r="C722" s="6"/>
-    </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A720" s="29">
+        <v>311</v>
+      </c>
+      <c r="B720" s="35" t="s">
+        <v>682</v>
+      </c>
+      <c r="C720" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="D720" s="35" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A721" s="29">
+        <v>312</v>
+      </c>
+      <c r="B721" s="35" t="s">
+        <v>703</v>
+      </c>
+      <c r="C721" s="33" t="s">
+        <v>704</v>
+      </c>
+      <c r="D721" s="35" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A722" s="29">
+        <v>313</v>
+      </c>
+      <c r="B722" s="35" t="s">
+        <v>706</v>
+      </c>
+      <c r="C722" s="33" t="s">
+        <v>707</v>
+      </c>
+      <c r="D722" s="35" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A723" s="29"/>
       <c r="B723" s="5"/>
       <c r="C723" s="6"/>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A724" s="29"/>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A725" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Input_Automation/Phantom Items.xlsx
+++ b/Input_Automation/Phantom Items.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpadeveloper\Documents\UiPath\Fellowes_Validation\Input_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2864F531-5C7F-402A-B723-2F32FFBD0985}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D8DC2E-8DFF-47BB-AC94-D241D5C50CEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="16110" windowHeight="6860" xr2:uid="{6ABD80F8-E04B-4DC7-BD19-74BFF736B6CF}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="16110" windowHeight="6855" xr2:uid="{6ABD80F8-E04B-4DC7-BD19-74BFF736B6CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$716</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$722</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -2040,9 +2040,6 @@
     <t>(PHANTOM)TFM;XY2;1.0X5X9-PHANTOM</t>
   </si>
   <si>
-    <t>810510XY2</t>
-  </si>
-  <si>
     <t>20041003-J9G</t>
   </si>
   <si>
@@ -2164,6 +2161,9 @@
   </si>
   <si>
     <t>400928-PA</t>
+  </si>
+  <si>
+    <t>810510-XY2</t>
   </si>
 </sst>
 </file>
@@ -3247,24 +3247,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E2B8A8-E9DF-45E8-AB11-A68DB9AEC69D}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F725"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A705" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A717" sqref="A717:A722"/>
+      <selection pane="bottomLeft" activeCell="E731" sqref="E731"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="24"/>
-    <col min="2" max="2" width="17.54296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="8.7109375" style="24"/>
+    <col min="2" max="2" width="17.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -3278,7 +3279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -3292,7 +3293,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
@@ -3303,7 +3304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>2</v>
       </c>
@@ -3317,7 +3318,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>7</v>
       </c>
@@ -3328,7 +3329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>3</v>
       </c>
@@ -3342,7 +3343,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
         <v>10</v>
       </c>
@@ -3353,7 +3354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>4</v>
       </c>
@@ -3367,7 +3368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>5</v>
       </c>
@@ -3381,7 +3382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>6</v>
       </c>
@@ -3395,7 +3396,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
         <v>19</v>
       </c>
@@ -3406,7 +3407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>19</v>
       </c>
@@ -3417,7 +3418,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>7</v>
       </c>
@@ -3431,7 +3432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>8</v>
       </c>
@@ -3445,7 +3446,7 @@
         <v>385693</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>9</v>
       </c>
@@ -3459,7 +3460,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>10</v>
       </c>
@@ -3473,7 +3474,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>11</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>12</v>
       </c>
@@ -3501,7 +3502,7 @@
         <v>385635</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>13</v>
       </c>
@@ -3515,7 +3516,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>14</v>
       </c>
@@ -3529,7 +3530,7 @@
         <v>385636</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>15</v>
       </c>
@@ -3543,7 +3544,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>16</v>
       </c>
@@ -3557,7 +3558,7 @@
         <v>385637</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>17</v>
       </c>
@@ -3571,7 +3572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>18</v>
       </c>
@@ -3585,7 +3586,7 @@
         <v>385638</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>19</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>385639</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>20</v>
       </c>
@@ -3613,7 +3614,7 @@
         <v>385640</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>21</v>
       </c>
@@ -3627,7 +3628,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="20" t="s">
         <v>54</v>
       </c>
@@ -3638,7 +3639,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>22</v>
       </c>
@@ -3652,7 +3653,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="20" t="s">
         <v>57</v>
       </c>
@@ -3663,7 +3664,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>23</v>
       </c>
@@ -3677,7 +3678,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="20" t="s">
         <v>60</v>
       </c>
@@ -3688,7 +3689,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>24</v>
       </c>
@@ -3702,7 +3703,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="20" t="s">
         <v>63</v>
       </c>
@@ -3713,7 +3714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>25</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="20" t="s">
         <v>65</v>
       </c>
@@ -3738,7 +3739,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>26</v>
       </c>
@@ -3752,7 +3753,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="20" t="s">
         <v>68</v>
       </c>
@@ -3763,7 +3764,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>27</v>
       </c>
@@ -3777,7 +3778,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="20" t="s">
         <v>70</v>
       </c>
@@ -3788,7 +3789,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>28</v>
       </c>
@@ -3802,7 +3803,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="20" t="s">
         <v>72</v>
       </c>
@@ -3813,7 +3814,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>29</v>
       </c>
@@ -3827,7 +3828,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="20" t="s">
         <v>74</v>
       </c>
@@ -3838,7 +3839,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>30</v>
       </c>
@@ -3852,7 +3853,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="20" t="s">
         <v>76</v>
       </c>
@@ -3863,7 +3864,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>31</v>
       </c>
@@ -3877,7 +3878,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="20" t="s">
         <v>78</v>
       </c>
@@ -3888,7 +3889,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>32</v>
       </c>
@@ -3902,7 +3903,7 @@
         <v>391634</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>80</v>
       </c>
@@ -3913,7 +3914,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>33</v>
       </c>
@@ -3927,7 +3928,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>82</v>
       </c>
@@ -3938,7 +3939,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>34</v>
       </c>
@@ -3952,7 +3953,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
         <v>84</v>
       </c>
@@ -3963,7 +3964,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>35</v>
       </c>
@@ -3977,7 +3978,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="20" t="s">
         <v>86</v>
       </c>
@@ -3988,7 +3989,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>36</v>
       </c>
@@ -4002,7 +4003,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="20" t="s">
         <v>88</v>
       </c>
@@ -4013,7 +4014,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>37</v>
       </c>
@@ -4027,7 +4028,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="20" t="s">
         <v>91</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>38</v>
       </c>
@@ -4052,7 +4053,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="20" t="s">
         <v>94</v>
       </c>
@@ -4063,7 +4064,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>39</v>
       </c>
@@ -4077,7 +4078,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="20" t="s">
         <v>97</v>
       </c>
@@ -4088,7 +4089,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <v>40</v>
       </c>
@@ -4102,7 +4103,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="20" t="s">
         <v>100</v>
       </c>
@@ -4113,7 +4114,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>41</v>
       </c>
@@ -4127,7 +4128,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="20" t="s">
         <v>103</v>
       </c>
@@ -4138,7 +4139,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>42</v>
       </c>
@@ -4152,7 +4153,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="20" t="s">
         <v>106</v>
       </c>
@@ -4163,7 +4164,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>43</v>
       </c>
@@ -4177,7 +4178,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="20" t="s">
         <v>109</v>
       </c>
@@ -4188,7 +4189,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>44</v>
       </c>
@@ -4202,7 +4203,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="20" t="s">
         <v>112</v>
       </c>
@@ -4213,7 +4214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>45</v>
       </c>
@@ -4227,7 +4228,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="20" t="s">
         <v>114</v>
       </c>
@@ -4238,7 +4239,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>46</v>
       </c>
@@ -4252,7 +4253,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="20" t="s">
         <v>117</v>
       </c>
@@ -4263,7 +4264,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>47</v>
       </c>
@@ -4277,7 +4278,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="20" t="s">
         <v>120</v>
       </c>
@@ -4288,7 +4289,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>48</v>
       </c>
@@ -4302,7 +4303,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="20" t="s">
         <v>123</v>
       </c>
@@ -4313,7 +4314,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>49</v>
       </c>
@@ -4327,7 +4328,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="20" t="s">
         <v>126</v>
       </c>
@@ -4338,7 +4339,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>50</v>
       </c>
@@ -4352,7 +4353,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="20" t="s">
         <v>129</v>
       </c>
@@ -4363,7 +4364,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>51</v>
       </c>
@@ -4377,7 +4378,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="20" t="s">
         <v>132</v>
       </c>
@@ -4388,7 +4389,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
         <v>52</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="20" t="s">
         <v>135</v>
       </c>
@@ -4413,7 +4414,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
         <v>53</v>
       </c>
@@ -4427,7 +4428,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="20" t="s">
         <v>138</v>
       </c>
@@ -4438,7 +4439,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
         <v>54</v>
       </c>
@@ -4452,7 +4453,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="20" t="s">
         <v>141</v>
       </c>
@@ -4463,7 +4464,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
         <v>55</v>
       </c>
@@ -4477,7 +4478,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="20" t="s">
         <v>144</v>
       </c>
@@ -4488,7 +4489,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="24">
         <v>56</v>
       </c>
@@ -4502,7 +4503,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="20" t="s">
         <v>147</v>
       </c>
@@ -4513,7 +4514,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
         <v>57</v>
       </c>
@@ -4527,7 +4528,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="20" t="s">
         <v>150</v>
       </c>
@@ -4538,7 +4539,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="24">
         <v>58</v>
       </c>
@@ -4552,7 +4553,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="20" t="s">
         <v>153</v>
       </c>
@@ -4563,7 +4564,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="24">
         <v>59</v>
       </c>
@@ -4577,7 +4578,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="20" t="s">
         <v>156</v>
       </c>
@@ -4588,7 +4589,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="24">
         <v>60</v>
       </c>
@@ -4602,7 +4603,7 @@
         <v>391633</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B106" s="20" t="s">
         <v>159</v>
       </c>
@@ -4613,7 +4614,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="24">
         <v>61</v>
       </c>
@@ -4627,7 +4628,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="24">
         <v>62</v>
       </c>
@@ -4641,7 +4642,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="24">
         <v>63</v>
       </c>
@@ -4655,7 +4656,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="20" t="s">
         <v>168</v>
       </c>
@@ -4666,7 +4667,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="24">
         <v>64</v>
       </c>
@@ -4680,7 +4681,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" s="20" t="s">
         <v>170</v>
       </c>
@@ -4691,7 +4692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="24">
         <v>65</v>
       </c>
@@ -4705,7 +4706,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="20" t="s">
         <v>172</v>
       </c>
@@ -4716,7 +4717,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="24">
         <v>66</v>
       </c>
@@ -4730,7 +4731,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="20" t="s">
         <v>174</v>
       </c>
@@ -4741,7 +4742,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="24">
         <v>67</v>
       </c>
@@ -4755,7 +4756,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" s="20" t="s">
         <v>176</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="24">
         <v>68</v>
       </c>
@@ -4780,7 +4781,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120" s="20" t="s">
         <v>178</v>
       </c>
@@ -4791,7 +4792,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="24">
         <v>69</v>
       </c>
@@ -4805,7 +4806,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="20" t="s">
         <v>180</v>
       </c>
@@ -4816,7 +4817,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="24">
         <v>70</v>
       </c>
@@ -4830,7 +4831,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="20" t="s">
         <v>182</v>
       </c>
@@ -4842,7 +4843,7 @@
       </c>
       <c r="F124" s="5"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="24">
         <v>71</v>
       </c>
@@ -4856,7 +4857,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126" s="20" t="s">
         <v>184</v>
       </c>
@@ -4867,7 +4868,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="24">
         <v>72</v>
       </c>
@@ -4882,7 +4883,7 @@
       </c>
       <c r="F127" s="5"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128" s="20" t="s">
         <v>186</v>
       </c>
@@ -4893,7 +4894,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="24">
         <v>73</v>
       </c>
@@ -4907,7 +4908,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B130" s="20" t="s">
         <v>188</v>
       </c>
@@ -4918,7 +4919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="24">
         <v>74</v>
       </c>
@@ -4932,7 +4933,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132" s="20" t="s">
         <v>190</v>
       </c>
@@ -4943,7 +4944,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="24">
         <v>75</v>
       </c>
@@ -4957,7 +4958,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B134" s="20" t="s">
         <v>192</v>
       </c>
@@ -4968,7 +4969,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="24">
         <v>76</v>
       </c>
@@ -4982,7 +4983,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136" s="20" t="s">
         <v>194</v>
       </c>
@@ -4993,7 +4994,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="24">
         <v>77</v>
       </c>
@@ -5007,7 +5008,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138" s="20" t="s">
         <v>196</v>
       </c>
@@ -5018,7 +5019,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="24">
         <v>78</v>
       </c>
@@ -5032,7 +5033,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="20" t="s">
         <v>198</v>
       </c>
@@ -5043,7 +5044,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="24">
         <v>79</v>
       </c>
@@ -5057,7 +5058,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142" s="20" t="s">
         <v>200</v>
       </c>
@@ -5068,7 +5069,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="24">
         <v>80</v>
       </c>
@@ -5082,7 +5083,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B144" s="20" t="s">
         <v>202</v>
       </c>
@@ -5093,7 +5094,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="24">
         <v>81</v>
       </c>
@@ -5107,7 +5108,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="20" t="s">
         <v>205</v>
       </c>
@@ -5118,7 +5119,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="24">
         <v>82</v>
       </c>
@@ -5132,7 +5133,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148" s="20" t="s">
         <v>208</v>
       </c>
@@ -5143,7 +5144,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="24">
         <v>83</v>
       </c>
@@ -5157,7 +5158,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="20" t="s">
         <v>210</v>
       </c>
@@ -5168,7 +5169,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="24">
         <v>84</v>
       </c>
@@ -5182,7 +5183,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="20" t="s">
         <v>212</v>
       </c>
@@ -5193,7 +5194,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="24">
         <v>85</v>
       </c>
@@ -5207,7 +5208,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="20" t="s">
         <v>214</v>
       </c>
@@ -5218,7 +5219,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="24">
         <v>86</v>
       </c>
@@ -5232,7 +5233,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B156" s="20" t="s">
         <v>216</v>
       </c>
@@ -5243,7 +5244,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="24">
         <v>87</v>
       </c>
@@ -5257,7 +5258,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="20" t="s">
         <v>219</v>
       </c>
@@ -5268,7 +5269,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="24">
         <v>88</v>
       </c>
@@ -5282,7 +5283,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" s="20" t="s">
         <v>221</v>
       </c>
@@ -5293,7 +5294,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="24">
         <v>89</v>
       </c>
@@ -5307,7 +5308,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162" s="20" t="s">
         <v>224</v>
       </c>
@@ -5318,7 +5319,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="24">
         <v>90</v>
       </c>
@@ -5332,7 +5333,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="20" t="s">
         <v>226</v>
       </c>
@@ -5343,7 +5344,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="24">
         <v>91</v>
       </c>
@@ -5357,7 +5358,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B166" s="20" t="s">
         <v>7</v>
       </c>
@@ -5368,7 +5369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="24">
         <v>92</v>
       </c>
@@ -5382,7 +5383,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168" s="20" t="s">
         <v>10</v>
       </c>
@@ -5393,7 +5394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="24">
         <v>93</v>
       </c>
@@ -5407,7 +5408,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170" s="20" t="s">
         <v>228</v>
       </c>
@@ -5418,7 +5419,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="24">
         <v>94</v>
       </c>
@@ -5432,7 +5433,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B172" s="20" t="s">
         <v>230</v>
       </c>
@@ -5443,7 +5444,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="24">
         <v>95</v>
       </c>
@@ -5457,7 +5458,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B174" s="20" t="s">
         <v>232</v>
       </c>
@@ -5468,7 +5469,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="24">
         <v>96</v>
       </c>
@@ -5482,7 +5483,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176" s="20" t="s">
         <v>234</v>
       </c>
@@ -5493,7 +5494,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="24">
         <v>97</v>
       </c>
@@ -5507,7 +5508,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B178" s="20" t="s">
         <v>236</v>
       </c>
@@ -5518,7 +5519,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="24">
         <v>98</v>
       </c>
@@ -5532,7 +5533,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="20" t="s">
         <v>82</v>
       </c>
@@ -5543,7 +5544,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="24">
         <v>99</v>
       </c>
@@ -5557,7 +5558,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="20" t="s">
         <v>84</v>
       </c>
@@ -5568,7 +5569,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="24">
         <v>100</v>
       </c>
@@ -5582,7 +5583,7 @@
         <v>391609</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B184" s="20" t="s">
         <v>86</v>
       </c>
@@ -5593,7 +5594,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="24">
         <v>101</v>
       </c>
@@ -5607,7 +5608,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="20" t="s">
         <v>240</v>
       </c>
@@ -5619,7 +5620,7 @@
       </c>
       <c r="F186" s="5"/>
     </row>
-    <row r="187" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="20" t="s">
         <v>240</v>
       </c>
@@ -5630,7 +5631,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="24">
         <v>102</v>
       </c>
@@ -5644,7 +5645,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="20" t="s">
         <v>243</v>
       </c>
@@ -5655,7 +5656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="20" t="s">
         <v>243</v>
       </c>
@@ -5666,7 +5667,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="24">
         <v>103</v>
       </c>
@@ -5680,7 +5681,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="20" t="s">
         <v>246</v>
       </c>
@@ -5691,7 +5692,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="20" t="s">
         <v>246</v>
       </c>
@@ -5702,7 +5703,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="24">
         <v>104</v>
       </c>
@@ -5716,7 +5717,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="20" t="s">
         <v>249</v>
       </c>
@@ -5727,7 +5728,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="20" t="s">
         <v>249</v>
       </c>
@@ -5738,7 +5739,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="24">
         <v>105</v>
       </c>
@@ -5752,7 +5753,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="20" t="s">
         <v>252</v>
       </c>
@@ -5763,7 +5764,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="20" t="s">
         <v>252</v>
       </c>
@@ -5774,7 +5775,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="24">
         <v>106</v>
       </c>
@@ -5788,7 +5789,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="20" t="s">
         <v>255</v>
       </c>
@@ -5799,7 +5800,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="20" t="s">
         <v>255</v>
       </c>
@@ -5810,7 +5811,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="24">
         <v>107</v>
       </c>
@@ -5824,7 +5825,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="20" t="s">
         <v>258</v>
       </c>
@@ -5835,7 +5836,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="20" t="s">
         <v>258</v>
       </c>
@@ -5846,7 +5847,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="24">
         <v>108</v>
       </c>
@@ -5860,7 +5861,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="20" t="s">
         <v>261</v>
       </c>
@@ -5871,7 +5872,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="20" t="s">
         <v>261</v>
       </c>
@@ -5882,7 +5883,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="24">
         <v>109</v>
       </c>
@@ -5896,7 +5897,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="20" t="s">
         <v>264</v>
       </c>
@@ -5907,7 +5908,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="20" t="s">
         <v>264</v>
       </c>
@@ -5918,7 +5919,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="24">
         <v>110</v>
       </c>
@@ -5932,7 +5933,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B213" s="20" t="s">
         <v>267</v>
       </c>
@@ -5943,7 +5944,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B214" s="20" t="s">
         <v>267</v>
       </c>
@@ -5954,7 +5955,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="24">
         <v>111</v>
       </c>
@@ -5968,7 +5969,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216" s="20" t="s">
         <v>270</v>
       </c>
@@ -5979,7 +5980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="20" t="s">
         <v>270</v>
       </c>
@@ -5990,7 +5991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="24">
         <v>112</v>
       </c>
@@ -6004,7 +6005,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B219" s="20" t="s">
         <v>272</v>
       </c>
@@ -6015,7 +6016,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220" s="20" t="s">
         <v>272</v>
       </c>
@@ -6026,7 +6027,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="24">
         <v>113</v>
       </c>
@@ -6040,7 +6041,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B222" s="20" t="s">
         <v>275</v>
       </c>
@@ -6051,7 +6052,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B223" s="20" t="s">
         <v>275</v>
       </c>
@@ -6062,7 +6063,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="24">
         <v>114</v>
       </c>
@@ -6076,7 +6077,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B225" s="20" t="s">
         <v>278</v>
       </c>
@@ -6087,7 +6088,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B226" s="20" t="s">
         <v>278</v>
       </c>
@@ -6098,7 +6099,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="24">
         <v>115</v>
       </c>
@@ -6112,7 +6113,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B228" s="20" t="s">
         <v>281</v>
       </c>
@@ -6123,7 +6124,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229" s="20" t="s">
         <v>281</v>
       </c>
@@ -6134,7 +6135,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="24">
         <v>116</v>
       </c>
@@ -6148,7 +6149,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B231" s="20" t="s">
         <v>284</v>
       </c>
@@ -6159,7 +6160,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B232" s="20" t="s">
         <v>284</v>
       </c>
@@ -6170,7 +6171,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="24">
         <v>117</v>
       </c>
@@ -6184,7 +6185,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B234" s="20" t="s">
         <v>287</v>
       </c>
@@ -6195,7 +6196,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B235" s="20" t="s">
         <v>287</v>
       </c>
@@ -6206,7 +6207,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="24">
         <v>118</v>
       </c>
@@ -6220,7 +6221,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="20" t="s">
         <v>290</v>
       </c>
@@ -6231,7 +6232,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="20" t="s">
         <v>290</v>
       </c>
@@ -6242,7 +6243,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="24">
         <v>119</v>
       </c>
@@ -6256,7 +6257,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="20" t="s">
         <v>293</v>
       </c>
@@ -6267,7 +6268,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="20" t="s">
         <v>293</v>
       </c>
@@ -6278,7 +6279,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="24">
         <v>120</v>
       </c>
@@ -6292,7 +6293,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="20" t="s">
         <v>296</v>
       </c>
@@ -6303,7 +6304,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="20" t="s">
         <v>296</v>
       </c>
@@ -6314,7 +6315,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="24">
         <v>121</v>
       </c>
@@ -6328,7 +6329,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="20" t="s">
         <v>299</v>
       </c>
@@ -6339,7 +6340,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="20" t="s">
         <v>299</v>
       </c>
@@ -6350,7 +6351,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="24">
         <v>122</v>
       </c>
@@ -6364,7 +6365,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="20" t="s">
         <v>302</v>
       </c>
@@ -6375,7 +6376,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="20" t="s">
         <v>302</v>
       </c>
@@ -6386,7 +6387,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="24">
         <v>123</v>
       </c>
@@ -6400,7 +6401,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="20" t="s">
         <v>305</v>
       </c>
@@ -6411,7 +6412,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="20" t="s">
         <v>305</v>
       </c>
@@ -6422,7 +6423,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="24">
         <v>124</v>
       </c>
@@ -6436,7 +6437,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="20" t="s">
         <v>308</v>
       </c>
@@ -6447,7 +6448,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="20" t="s">
         <v>308</v>
       </c>
@@ -6458,7 +6459,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="24">
         <v>125</v>
       </c>
@@ -6472,7 +6473,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="20" t="s">
         <v>311</v>
       </c>
@@ -6483,7 +6484,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="20" t="s">
         <v>311</v>
       </c>
@@ -6494,7 +6495,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="24">
         <v>126</v>
       </c>
@@ -6508,7 +6509,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="20" t="s">
         <v>314</v>
       </c>
@@ -6519,7 +6520,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="20" t="s">
         <v>314</v>
       </c>
@@ -6530,7 +6531,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="24">
         <v>127</v>
       </c>
@@ -6544,7 +6545,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="20" t="s">
         <v>317</v>
       </c>
@@ -6555,7 +6556,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="20" t="s">
         <v>317</v>
       </c>
@@ -6566,7 +6567,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="24">
         <v>128</v>
       </c>
@@ -6580,7 +6581,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="20" t="s">
         <v>320</v>
       </c>
@@ -6591,7 +6592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="20" t="s">
         <v>320</v>
       </c>
@@ -6602,7 +6603,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="24">
         <v>129</v>
       </c>
@@ -6616,7 +6617,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="20" t="s">
         <v>323</v>
       </c>
@@ -6627,7 +6628,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="20" t="s">
         <v>323</v>
       </c>
@@ -6638,7 +6639,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="24">
         <v>130</v>
       </c>
@@ -6652,7 +6653,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="20" t="s">
         <v>326</v>
       </c>
@@ -6663,7 +6664,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="20" t="s">
         <v>326</v>
       </c>
@@ -6674,7 +6675,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="24">
         <v>131</v>
       </c>
@@ -6688,7 +6689,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="20" t="s">
         <v>329</v>
       </c>
@@ -6699,7 +6700,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="20" t="s">
         <v>329</v>
       </c>
@@ -6710,7 +6711,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="24">
         <v>132</v>
       </c>
@@ -6724,7 +6725,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="20" t="s">
         <v>332</v>
       </c>
@@ -6735,7 +6736,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="20" t="s">
         <v>332</v>
       </c>
@@ -6746,7 +6747,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="24">
         <v>133</v>
       </c>
@@ -6760,7 +6761,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="20" t="s">
         <v>335</v>
       </c>
@@ -6771,7 +6772,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="20" t="s">
         <v>335</v>
       </c>
@@ -6782,7 +6783,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="24">
         <v>134</v>
       </c>
@@ -6796,7 +6797,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="20" t="s">
         <v>338</v>
       </c>
@@ -6807,7 +6808,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="20" t="s">
         <v>338</v>
       </c>
@@ -6818,7 +6819,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="24">
         <v>135</v>
       </c>
@@ -6832,7 +6833,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="20" t="s">
         <v>341</v>
       </c>
@@ -6843,7 +6844,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="20" t="s">
         <v>341</v>
       </c>
@@ -6854,7 +6855,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="24">
         <v>136</v>
       </c>
@@ -6868,7 +6869,7 @@
         <v>389153</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="20" t="s">
         <v>344</v>
       </c>
@@ -6879,7 +6880,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B292" s="20" t="s">
         <v>344</v>
       </c>
@@ -6890,7 +6891,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="24">
         <v>137</v>
       </c>
@@ -6904,7 +6905,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="20" t="s">
         <v>347</v>
       </c>
@@ -6915,7 +6916,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="20" t="s">
         <v>347</v>
       </c>
@@ -6926,7 +6927,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="24">
         <v>138</v>
       </c>
@@ -6940,7 +6941,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="20" t="s">
         <v>349</v>
       </c>
@@ -6951,7 +6952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="20" t="s">
         <v>349</v>
       </c>
@@ -6962,7 +6963,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="24">
         <v>139</v>
       </c>
@@ -6976,7 +6977,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="20" t="s">
         <v>351</v>
       </c>
@@ -6987,7 +6988,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="20" t="s">
         <v>351</v>
       </c>
@@ -6998,7 +6999,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="24">
         <v>140</v>
       </c>
@@ -7012,7 +7013,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="20" t="s">
         <v>353</v>
       </c>
@@ -7023,7 +7024,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="20" t="s">
         <v>353</v>
       </c>
@@ -7034,7 +7035,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="24">
         <v>141</v>
       </c>
@@ -7048,7 +7049,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="20" t="s">
         <v>355</v>
       </c>
@@ -7059,7 +7060,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="20" t="s">
         <v>355</v>
       </c>
@@ -7070,7 +7071,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="24">
         <v>142</v>
       </c>
@@ -7084,7 +7085,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="20" t="s">
         <v>357</v>
       </c>
@@ -7095,7 +7096,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="20" t="s">
         <v>357</v>
       </c>
@@ -7106,7 +7107,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="24">
         <v>143</v>
       </c>
@@ -7120,7 +7121,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="20" t="s">
         <v>359</v>
       </c>
@@ -7131,7 +7132,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="20" t="s">
         <v>359</v>
       </c>
@@ -7142,7 +7143,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="24">
         <v>144</v>
       </c>
@@ -7156,7 +7157,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="20" t="s">
         <v>361</v>
       </c>
@@ -7167,7 +7168,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="20" t="s">
         <v>361</v>
       </c>
@@ -7178,7 +7179,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="24">
         <v>145</v>
       </c>
@@ -7192,7 +7193,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="20" t="s">
         <v>363</v>
       </c>
@@ -7203,7 +7204,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="20" t="s">
         <v>363</v>
       </c>
@@ -7214,7 +7215,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="24">
         <v>146</v>
       </c>
@@ -7228,7 +7229,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="20" t="s">
         <v>365</v>
       </c>
@@ -7239,7 +7240,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="20" t="s">
         <v>365</v>
       </c>
@@ -7250,7 +7251,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="24">
         <v>147</v>
       </c>
@@ -7264,7 +7265,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="20" t="s">
         <v>19</v>
       </c>
@@ -7275,7 +7276,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="20" t="s">
         <v>19</v>
       </c>
@@ -7286,7 +7287,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="24">
         <v>148</v>
       </c>
@@ -7300,7 +7301,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="20" t="s">
         <v>368</v>
       </c>
@@ -7311,7 +7312,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="20" t="s">
         <v>368</v>
       </c>
@@ -7322,7 +7323,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="24">
         <v>149</v>
       </c>
@@ -7336,7 +7337,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="20" t="s">
         <v>370</v>
       </c>
@@ -7347,7 +7348,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="20" t="s">
         <v>370</v>
       </c>
@@ -7358,7 +7359,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="24">
         <v>150</v>
       </c>
@@ -7372,7 +7373,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="20" t="s">
         <v>372</v>
       </c>
@@ -7383,7 +7384,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="20" t="s">
         <v>372</v>
       </c>
@@ -7394,7 +7395,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="24">
         <v>151</v>
       </c>
@@ -7408,7 +7409,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="20" t="s">
         <v>374</v>
       </c>
@@ -7419,7 +7420,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="20" t="s">
         <v>374</v>
       </c>
@@ -7430,7 +7431,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="24">
         <v>152</v>
       </c>
@@ -7444,7 +7445,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="20" t="s">
         <v>376</v>
       </c>
@@ -7455,7 +7456,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="20" t="s">
         <v>376</v>
       </c>
@@ -7466,7 +7467,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="24">
         <v>153</v>
       </c>
@@ -7480,7 +7481,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="20" t="s">
         <v>378</v>
       </c>
@@ -7491,7 +7492,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="20" t="s">
         <v>378</v>
       </c>
@@ -7502,7 +7503,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="24">
         <v>154</v>
       </c>
@@ -7516,7 +7517,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="20" t="s">
         <v>380</v>
       </c>
@@ -7527,7 +7528,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="20" t="s">
         <v>380</v>
       </c>
@@ -7538,7 +7539,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="24">
         <v>155</v>
       </c>
@@ -7552,7 +7553,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="20" t="s">
         <v>382</v>
       </c>
@@ -7563,7 +7564,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="20" t="s">
         <v>382</v>
       </c>
@@ -7574,7 +7575,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="24">
         <v>156</v>
       </c>
@@ -7588,7 +7589,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="20" t="s">
         <v>384</v>
       </c>
@@ -7599,7 +7600,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="20" t="s">
         <v>384</v>
       </c>
@@ -7610,7 +7611,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="24">
         <v>157</v>
       </c>
@@ -7624,7 +7625,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="20" t="s">
         <v>386</v>
       </c>
@@ -7635,7 +7636,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="20" t="s">
         <v>386</v>
       </c>
@@ -7646,7 +7647,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="24">
         <v>158</v>
       </c>
@@ -7660,7 +7661,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="20" t="s">
         <v>388</v>
       </c>
@@ -7671,7 +7672,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="20" t="s">
         <v>388</v>
       </c>
@@ -7682,7 +7683,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="24">
         <v>159</v>
       </c>
@@ -7696,7 +7697,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="20" t="s">
         <v>390</v>
       </c>
@@ -7707,7 +7708,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="20" t="s">
         <v>390</v>
       </c>
@@ -7718,7 +7719,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="24">
         <v>160</v>
       </c>
@@ -7732,7 +7733,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="20" t="s">
         <v>392</v>
       </c>
@@ -7743,7 +7744,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="20" t="s">
         <v>392</v>
       </c>
@@ -7754,7 +7755,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="24">
         <v>163</v>
       </c>
@@ -7768,7 +7769,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="20" t="s">
         <v>394</v>
       </c>
@@ -7779,7 +7780,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="20" t="s">
         <v>394</v>
       </c>
@@ -7790,7 +7791,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="24">
         <v>164</v>
       </c>
@@ -7804,7 +7805,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="20" t="s">
         <v>396</v>
       </c>
@@ -7815,7 +7816,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="20" t="s">
         <v>396</v>
       </c>
@@ -7826,7 +7827,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="24">
         <v>165</v>
       </c>
@@ -7840,7 +7841,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="20" t="s">
         <v>398</v>
       </c>
@@ -7851,7 +7852,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="20" t="s">
         <v>398</v>
       </c>
@@ -7862,7 +7863,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="24">
         <v>166</v>
       </c>
@@ -7876,7 +7877,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="20" t="s">
         <v>400</v>
       </c>
@@ -7887,7 +7888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="20" t="s">
         <v>400</v>
       </c>
@@ -7898,7 +7899,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="24">
         <v>167</v>
       </c>
@@ -7912,7 +7913,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="20" t="s">
         <v>402</v>
       </c>
@@ -7923,7 +7924,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="20" t="s">
         <v>402</v>
       </c>
@@ -7934,7 +7935,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="24">
         <v>168</v>
       </c>
@@ -7948,7 +7949,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="20" t="s">
         <v>404</v>
       </c>
@@ -7959,7 +7960,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="20" t="s">
         <v>404</v>
       </c>
@@ -7970,7 +7971,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="24">
         <v>169</v>
       </c>
@@ -7984,7 +7985,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="20" t="s">
         <v>406</v>
       </c>
@@ -7995,7 +7996,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="20" t="s">
         <v>406</v>
       </c>
@@ -8006,7 +8007,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="24">
         <v>170</v>
       </c>
@@ -8020,7 +8021,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="20" t="s">
         <v>408</v>
       </c>
@@ -8031,7 +8032,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="20" t="s">
         <v>408</v>
       </c>
@@ -8042,7 +8043,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="24">
         <v>171</v>
       </c>
@@ -8056,7 +8057,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="20" t="s">
         <v>410</v>
       </c>
@@ -8067,7 +8068,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="20" t="s">
         <v>410</v>
       </c>
@@ -8078,7 +8079,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="24">
         <v>172</v>
       </c>
@@ -8092,7 +8093,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="13" t="s">
         <v>412</v>
       </c>
@@ -8103,7 +8104,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="13" t="s">
         <v>412</v>
       </c>
@@ -8114,7 +8115,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="24">
         <v>173</v>
       </c>
@@ -8128,7 +8129,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="13" t="s">
         <v>414</v>
       </c>
@@ -8139,7 +8140,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="13" t="s">
         <v>414</v>
       </c>
@@ -8150,7 +8151,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="24">
         <v>174</v>
       </c>
@@ -8164,7 +8165,7 @@
         <v>389154</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="8" t="s">
         <v>416</v>
       </c>
@@ -8175,7 +8176,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="8" t="s">
         <v>416</v>
       </c>
@@ -8186,7 +8187,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="24">
         <v>172</v>
       </c>
@@ -8200,7 +8201,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B402" s="21" t="s">
         <v>418</v>
       </c>
@@ -8211,7 +8212,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B403" s="21" t="s">
         <v>418</v>
       </c>
@@ -8222,7 +8223,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="25">
         <v>173</v>
       </c>
@@ -8236,7 +8237,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="26"/>
       <c r="B405" s="22" t="s">
         <v>420</v>
@@ -8248,7 +8249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="27"/>
       <c r="B406" s="22" t="s">
         <v>420</v>
@@ -8260,7 +8261,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="26">
         <v>174</v>
       </c>
@@ -8274,7 +8275,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="26"/>
       <c r="B408" s="22" t="s">
         <v>422</v>
@@ -8286,7 +8287,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="27"/>
       <c r="B409" s="22" t="s">
         <v>422</v>
@@ -8298,7 +8299,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="26">
         <v>175</v>
       </c>
@@ -8312,7 +8313,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="26"/>
       <c r="B411" s="22" t="s">
         <v>424</v>
@@ -8324,7 +8325,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="27"/>
       <c r="B412" s="22" t="s">
         <v>424</v>
@@ -8336,7 +8337,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="26">
         <v>176</v>
       </c>
@@ -8350,7 +8351,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="26"/>
       <c r="B414" s="22" t="s">
         <v>426</v>
@@ -8362,7 +8363,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="27"/>
       <c r="B415" s="22" t="s">
         <v>426</v>
@@ -8374,7 +8375,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="26">
         <v>177</v>
       </c>
@@ -8388,7 +8389,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="26"/>
       <c r="B417" s="22" t="s">
         <v>428</v>
@@ -8400,7 +8401,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="27"/>
       <c r="B418" s="22" t="s">
         <v>428</v>
@@ -8412,7 +8413,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="26">
         <v>178</v>
       </c>
@@ -8426,7 +8427,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="26"/>
       <c r="B420" s="22" t="s">
         <v>430</v>
@@ -8438,7 +8439,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="27"/>
       <c r="B421" s="22" t="s">
         <v>430</v>
@@ -8450,7 +8451,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="26">
         <v>179</v>
       </c>
@@ -8464,7 +8465,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="26"/>
       <c r="B423" s="22" t="s">
         <v>432</v>
@@ -8476,7 +8477,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="27"/>
       <c r="B424" s="22" t="s">
         <v>432</v>
@@ -8488,7 +8489,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="26">
         <v>180</v>
       </c>
@@ -8502,7 +8503,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="26"/>
       <c r="B426" s="22" t="s">
         <v>434</v>
@@ -8514,7 +8515,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="27"/>
       <c r="B427" s="22" t="s">
         <v>434</v>
@@ -8526,7 +8527,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="26">
         <v>181</v>
       </c>
@@ -8540,7 +8541,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="26"/>
       <c r="B429" s="22" t="s">
         <v>436</v>
@@ -8552,7 +8553,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="27"/>
       <c r="B430" s="22" t="s">
         <v>436</v>
@@ -8564,7 +8565,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="26">
         <v>182</v>
       </c>
@@ -8578,7 +8579,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="26"/>
       <c r="B432" s="22" t="s">
         <v>438</v>
@@ -8590,7 +8591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="27"/>
       <c r="B433" s="22" t="s">
         <v>438</v>
@@ -8602,7 +8603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="26">
         <v>183</v>
       </c>
@@ -8616,7 +8617,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="26"/>
       <c r="B435" s="22" t="s">
         <v>440</v>
@@ -8628,7 +8629,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="27"/>
       <c r="B436" s="22" t="s">
         <v>440</v>
@@ -8640,7 +8641,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="26">
         <v>184</v>
       </c>
@@ -8654,7 +8655,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="26"/>
       <c r="B438" s="22" t="s">
         <v>442</v>
@@ -8666,7 +8667,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="27"/>
       <c r="B439" s="22" t="s">
         <v>442</v>
@@ -8678,7 +8679,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="26">
         <v>185</v>
       </c>
@@ -8692,7 +8693,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="26"/>
       <c r="B441" s="22" t="s">
         <v>444</v>
@@ -8704,7 +8705,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="27"/>
       <c r="B442" s="22" t="s">
         <v>444</v>
@@ -8716,7 +8717,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="26">
         <v>186</v>
       </c>
@@ -8730,7 +8731,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="26"/>
       <c r="B444" s="22" t="s">
         <v>446</v>
@@ -8742,7 +8743,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="27"/>
       <c r="B445" s="22" t="s">
         <v>446</v>
@@ -8754,7 +8755,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="26">
         <v>187</v>
       </c>
@@ -8768,7 +8769,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="26"/>
       <c r="B447" s="22" t="s">
         <v>448</v>
@@ -8780,7 +8781,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="27"/>
       <c r="B448" s="22" t="s">
         <v>448</v>
@@ -8792,7 +8793,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="26">
         <v>188</v>
       </c>
@@ -8806,7 +8807,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="26"/>
       <c r="B450" s="22" t="s">
         <v>450</v>
@@ -8818,7 +8819,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="27"/>
       <c r="B451" s="22" t="s">
         <v>450</v>
@@ -8830,7 +8831,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="26">
         <v>189</v>
       </c>
@@ -8844,7 +8845,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="26"/>
       <c r="B453" s="22" t="s">
         <v>452</v>
@@ -8856,7 +8857,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="27"/>
       <c r="B454" s="22" t="s">
         <v>452</v>
@@ -8868,7 +8869,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="26">
         <v>190</v>
       </c>
@@ -8882,7 +8883,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="26"/>
       <c r="B456" s="22" t="s">
         <v>454</v>
@@ -8894,7 +8895,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="27"/>
       <c r="B457" s="22" t="s">
         <v>454</v>
@@ -8906,7 +8907,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="26">
         <v>191</v>
       </c>
@@ -8920,7 +8921,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="26"/>
       <c r="B459" s="22" t="s">
         <v>456</v>
@@ -8932,7 +8933,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="27"/>
       <c r="B460" s="22" t="s">
         <v>456</v>
@@ -8944,7 +8945,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="26">
         <v>192</v>
       </c>
@@ -8958,7 +8959,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="26"/>
       <c r="B462" s="22" t="s">
         <v>458</v>
@@ -8970,7 +8971,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="27"/>
       <c r="B463" s="22" t="s">
         <v>458</v>
@@ -8982,7 +8983,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="26">
         <v>193</v>
       </c>
@@ -8996,7 +8997,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="26"/>
       <c r="B465" s="22" t="s">
         <v>460</v>
@@ -9008,7 +9009,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="27"/>
       <c r="B466" s="22" t="s">
         <v>460</v>
@@ -9020,7 +9021,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="26">
         <v>194</v>
       </c>
@@ -9034,7 +9035,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="26"/>
       <c r="B468" s="22" t="s">
         <v>462</v>
@@ -9046,7 +9047,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="27"/>
       <c r="B469" s="22" t="s">
         <v>462</v>
@@ -9058,7 +9059,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="26">
         <v>195</v>
       </c>
@@ -9072,7 +9073,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="26"/>
       <c r="B471" s="22" t="s">
         <v>464</v>
@@ -9084,7 +9085,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="27"/>
       <c r="B472" s="22" t="s">
         <v>464</v>
@@ -9096,7 +9097,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="26">
         <v>196</v>
       </c>
@@ -9110,7 +9111,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="26"/>
       <c r="B474" s="22" t="s">
         <v>466</v>
@@ -9122,7 +9123,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="27"/>
       <c r="B475" s="22" t="s">
         <v>466</v>
@@ -9134,7 +9135,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="26">
         <v>197</v>
       </c>
@@ -9148,7 +9149,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="26"/>
       <c r="B477" s="22" t="s">
         <v>468</v>
@@ -9160,7 +9161,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="27"/>
       <c r="B478" s="22" t="s">
         <v>468</v>
@@ -9172,7 +9173,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="26">
         <v>198</v>
       </c>
@@ -9186,7 +9187,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="26"/>
       <c r="B480" s="22" t="s">
         <v>470</v>
@@ -9198,7 +9199,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="27"/>
       <c r="B481" s="22" t="s">
         <v>470</v>
@@ -9210,7 +9211,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="26">
         <v>199</v>
       </c>
@@ -9224,7 +9225,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="26"/>
       <c r="B483" s="22" t="s">
         <v>472</v>
@@ -9236,7 +9237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="27"/>
       <c r="B484" s="22" t="s">
         <v>472</v>
@@ -9248,7 +9249,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="26">
         <v>200</v>
       </c>
@@ -9262,7 +9263,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="26"/>
       <c r="B486" s="22" t="s">
         <v>474</v>
@@ -9274,7 +9275,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="27"/>
       <c r="B487" s="22" t="s">
         <v>474</v>
@@ -9286,7 +9287,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="26">
         <v>201</v>
       </c>
@@ -9300,7 +9301,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="26"/>
       <c r="B489" s="22" t="s">
         <v>476</v>
@@ -9312,7 +9313,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="27"/>
       <c r="B490" s="22" t="s">
         <v>476</v>
@@ -9324,7 +9325,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="26">
         <v>202</v>
       </c>
@@ -9338,7 +9339,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="26"/>
       <c r="B492" s="22" t="s">
         <v>478</v>
@@ -9350,7 +9351,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="27"/>
       <c r="B493" s="22" t="s">
         <v>478</v>
@@ -9362,7 +9363,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="26">
         <v>203</v>
       </c>
@@ -9376,7 +9377,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="26"/>
       <c r="B495" s="22" t="s">
         <v>480</v>
@@ -9388,7 +9389,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="27"/>
       <c r="B496" s="22" t="s">
         <v>480</v>
@@ -9400,7 +9401,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="26">
         <v>204</v>
       </c>
@@ -9414,7 +9415,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="26"/>
       <c r="B498" s="22" t="s">
         <v>482</v>
@@ -9426,7 +9427,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="27"/>
       <c r="B499" s="22" t="s">
         <v>482</v>
@@ -9438,7 +9439,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="26">
         <v>205</v>
       </c>
@@ -9452,7 +9453,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="26"/>
       <c r="B501" s="22" t="s">
         <v>484</v>
@@ -9464,7 +9465,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="27"/>
       <c r="B502" s="22" t="s">
         <v>484</v>
@@ -9476,7 +9477,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="26">
         <v>206</v>
       </c>
@@ -9490,7 +9491,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="26"/>
       <c r="B504" s="22" t="s">
         <v>486</v>
@@ -9502,7 +9503,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="27"/>
       <c r="B505" s="22" t="s">
         <v>486</v>
@@ -9514,7 +9515,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="26">
         <v>207</v>
       </c>
@@ -9528,7 +9529,7 @@
         <v>389155</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="26"/>
       <c r="B507" s="22" t="s">
         <v>488</v>
@@ -9540,7 +9541,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="27"/>
       <c r="B508" s="22" t="s">
         <v>488</v>
@@ -9552,7 +9553,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="26">
         <v>208</v>
       </c>
@@ -9567,7 +9568,7 @@
       </c>
       <c r="E509" s="11"/>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="26"/>
       <c r="B510" s="13" t="s">
         <v>490</v>
@@ -9580,7 +9581,7 @@
       </c>
       <c r="E510" s="11"/>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="26"/>
       <c r="B511" s="13" t="s">
         <v>490</v>
@@ -9593,7 +9594,7 @@
       </c>
       <c r="E511" s="11"/>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="28">
         <v>209</v>
       </c>
@@ -9608,7 +9609,7 @@
       </c>
       <c r="E512" s="11"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="28"/>
       <c r="B513" s="13" t="s">
         <v>492</v>
@@ -9621,7 +9622,7 @@
       </c>
       <c r="E513" s="11"/>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="28"/>
       <c r="B514" s="13" t="s">
         <v>492</v>
@@ -9634,7 +9635,7 @@
       </c>
       <c r="E514" s="11"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="28">
         <v>210</v>
       </c>
@@ -9649,7 +9650,7 @@
       </c>
       <c r="E515" s="11"/>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="28"/>
       <c r="B516" s="13" t="s">
         <v>494</v>
@@ -9662,7 +9663,7 @@
       </c>
       <c r="E516" s="11"/>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="28"/>
       <c r="B517" s="13" t="s">
         <v>494</v>
@@ -9675,7 +9676,7 @@
       </c>
       <c r="E517" s="11"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="28">
         <v>211</v>
       </c>
@@ -9690,7 +9691,7 @@
       </c>
       <c r="E518" s="11"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="28"/>
       <c r="B519" s="13" t="s">
         <v>496</v>
@@ -9703,7 +9704,7 @@
       </c>
       <c r="E519" s="11"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="28"/>
       <c r="B520" s="13" t="s">
         <v>496</v>
@@ -9716,7 +9717,7 @@
       </c>
       <c r="E520" s="11"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="28">
         <v>212</v>
       </c>
@@ -9731,7 +9732,7 @@
       </c>
       <c r="E521" s="11"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="28"/>
       <c r="B522" s="13" t="s">
         <v>498</v>
@@ -9744,7 +9745,7 @@
       </c>
       <c r="E522" s="11"/>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="28"/>
       <c r="B523" s="13" t="s">
         <v>498</v>
@@ -9757,7 +9758,7 @@
       </c>
       <c r="E523" s="11"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="28">
         <v>213</v>
       </c>
@@ -9772,7 +9773,7 @@
       </c>
       <c r="E524" s="11"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="28"/>
       <c r="B525" s="13" t="s">
         <v>500</v>
@@ -9785,7 +9786,7 @@
       </c>
       <c r="E525" s="11"/>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="28"/>
       <c r="B526" s="13" t="s">
         <v>500</v>
@@ -9798,7 +9799,7 @@
       </c>
       <c r="E526" s="11"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="28">
         <v>214</v>
       </c>
@@ -9813,7 +9814,7 @@
       </c>
       <c r="E527" s="11"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="28"/>
       <c r="B528" s="13" t="s">
         <v>502</v>
@@ -9826,7 +9827,7 @@
       </c>
       <c r="E528" s="11"/>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="28"/>
       <c r="B529" s="13" t="s">
         <v>502</v>
@@ -9839,7 +9840,7 @@
       </c>
       <c r="E529" s="11"/>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="28">
         <v>215</v>
       </c>
@@ -9854,7 +9855,7 @@
       </c>
       <c r="E530" s="11"/>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="28"/>
       <c r="B531" s="13" t="s">
         <v>504</v>
@@ -9867,7 +9868,7 @@
       </c>
       <c r="E531" s="11"/>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="28"/>
       <c r="B532" s="13" t="s">
         <v>504</v>
@@ -9880,7 +9881,7 @@
       </c>
       <c r="E532" s="11"/>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="28">
         <v>216</v>
       </c>
@@ -9895,7 +9896,7 @@
       </c>
       <c r="E533" s="11"/>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="28"/>
       <c r="B534" s="13" t="s">
         <v>506</v>
@@ -9908,7 +9909,7 @@
       </c>
       <c r="E534" s="11"/>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="28"/>
       <c r="B535" s="13" t="s">
         <v>506</v>
@@ -9921,7 +9922,7 @@
       </c>
       <c r="E535" s="11"/>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="28">
         <v>217</v>
       </c>
@@ -9936,7 +9937,7 @@
       </c>
       <c r="E536" s="11"/>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="28"/>
       <c r="B537" s="13" t="s">
         <v>508</v>
@@ -9949,7 +9950,7 @@
       </c>
       <c r="E537" s="11"/>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="28"/>
       <c r="B538" s="13" t="s">
         <v>508</v>
@@ -9962,7 +9963,7 @@
       </c>
       <c r="E538" s="11"/>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="28">
         <v>218</v>
       </c>
@@ -9977,7 +9978,7 @@
       </c>
       <c r="E539" s="11"/>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="28"/>
       <c r="B540" s="13" t="s">
         <v>510</v>
@@ -9990,7 +9991,7 @@
       </c>
       <c r="E540" s="11"/>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="28"/>
       <c r="B541" s="13" t="s">
         <v>510</v>
@@ -10003,7 +10004,7 @@
       </c>
       <c r="E541" s="11"/>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="28">
         <v>219</v>
       </c>
@@ -10018,7 +10019,7 @@
       </c>
       <c r="E542" s="11"/>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="28"/>
       <c r="B543" s="13" t="s">
         <v>512</v>
@@ -10031,7 +10032,7 @@
       </c>
       <c r="E543" s="11"/>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="28"/>
       <c r="B544" s="13" t="s">
         <v>512</v>
@@ -10044,7 +10045,7 @@
       </c>
       <c r="E544" s="11"/>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="28">
         <v>220</v>
       </c>
@@ -10059,7 +10060,7 @@
       </c>
       <c r="E545" s="11"/>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="28"/>
       <c r="B546" s="13" t="s">
         <v>514</v>
@@ -10072,7 +10073,7 @@
       </c>
       <c r="E546" s="11"/>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="28"/>
       <c r="B547" s="13" t="s">
         <v>514</v>
@@ -10085,7 +10086,7 @@
       </c>
       <c r="E547" s="11"/>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="28">
         <v>221</v>
       </c>
@@ -10100,7 +10101,7 @@
       </c>
       <c r="E548" s="11"/>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="28"/>
       <c r="B549" s="13" t="s">
         <v>516</v>
@@ -10113,7 +10114,7 @@
       </c>
       <c r="E549" s="11"/>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="28"/>
       <c r="B550" s="13" t="s">
         <v>516</v>
@@ -10126,7 +10127,7 @@
       </c>
       <c r="E550" s="11"/>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="28">
         <v>222</v>
       </c>
@@ -10141,7 +10142,7 @@
       </c>
       <c r="E551" s="11"/>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="28"/>
       <c r="B552" s="13" t="s">
         <v>518</v>
@@ -10154,7 +10155,7 @@
       </c>
       <c r="E552" s="11"/>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="28"/>
       <c r="B553" s="13" t="s">
         <v>518</v>
@@ -10167,7 +10168,7 @@
       </c>
       <c r="E553" s="11"/>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="28">
         <v>223</v>
       </c>
@@ -10182,7 +10183,7 @@
       </c>
       <c r="E554" s="11"/>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="28"/>
       <c r="B555" s="13" t="s">
         <v>520</v>
@@ -10195,7 +10196,7 @@
       </c>
       <c r="E555" s="11"/>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="28"/>
       <c r="B556" s="13" t="s">
         <v>520</v>
@@ -10208,7 +10209,7 @@
       </c>
       <c r="E556" s="11"/>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="28">
         <v>224</v>
       </c>
@@ -10223,7 +10224,7 @@
       </c>
       <c r="E557" s="11"/>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="28"/>
       <c r="B558" s="13" t="s">
         <v>522</v>
@@ -10236,7 +10237,7 @@
       </c>
       <c r="E558" s="11"/>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="28"/>
       <c r="B559" s="13" t="s">
         <v>522</v>
@@ -10249,7 +10250,7 @@
       </c>
       <c r="E559" s="11"/>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="28">
         <v>225</v>
       </c>
@@ -10264,7 +10265,7 @@
       </c>
       <c r="E560" s="11"/>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="28"/>
       <c r="B561" s="13" t="s">
         <v>524</v>
@@ -10277,7 +10278,7 @@
       </c>
       <c r="E561" s="11"/>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="28"/>
       <c r="B562" s="13" t="s">
         <v>524</v>
@@ -10290,7 +10291,7 @@
       </c>
       <c r="E562" s="11"/>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="28">
         <v>226</v>
       </c>
@@ -10305,7 +10306,7 @@
       </c>
       <c r="E563" s="11"/>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="28"/>
       <c r="B564" s="13" t="s">
         <v>526</v>
@@ -10318,7 +10319,7 @@
       </c>
       <c r="E564" s="11"/>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="28"/>
       <c r="B565" s="13" t="s">
         <v>526</v>
@@ -10331,7 +10332,7 @@
       </c>
       <c r="E565" s="11"/>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="28">
         <v>227</v>
       </c>
@@ -10346,7 +10347,7 @@
       </c>
       <c r="E566" s="11"/>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="28"/>
       <c r="B567" s="13" t="s">
         <v>528</v>
@@ -10359,7 +10360,7 @@
       </c>
       <c r="E567" s="11"/>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="28"/>
       <c r="B568" s="13" t="s">
         <v>528</v>
@@ -10372,7 +10373,7 @@
       </c>
       <c r="E568" s="11"/>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="28">
         <v>228</v>
       </c>
@@ -10387,7 +10388,7 @@
       </c>
       <c r="E569" s="11"/>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="28"/>
       <c r="B570" s="13" t="s">
         <v>530</v>
@@ -10400,7 +10401,7 @@
       </c>
       <c r="E570" s="11"/>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="28"/>
       <c r="B571" s="13" t="s">
         <v>530</v>
@@ -10413,7 +10414,7 @@
       </c>
       <c r="E571" s="11"/>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="28">
         <v>229</v>
       </c>
@@ -10428,7 +10429,7 @@
       </c>
       <c r="E572" s="11"/>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="28"/>
       <c r="B573" s="13" t="s">
         <v>532</v>
@@ -10441,7 +10442,7 @@
       </c>
       <c r="E573" s="11"/>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="28"/>
       <c r="B574" s="13" t="s">
         <v>532</v>
@@ -10454,7 +10455,7 @@
       </c>
       <c r="E574" s="11"/>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="28">
         <v>230</v>
       </c>
@@ -10469,7 +10470,7 @@
       </c>
       <c r="E575" s="11"/>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="28"/>
       <c r="B576" s="13" t="s">
         <v>534</v>
@@ -10482,7 +10483,7 @@
       </c>
       <c r="E576" s="11"/>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="28"/>
       <c r="B577" s="13" t="s">
         <v>534</v>
@@ -10495,7 +10496,7 @@
       </c>
       <c r="E577" s="11"/>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="28">
         <v>231</v>
       </c>
@@ -10510,7 +10511,7 @@
       </c>
       <c r="E578" s="11"/>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="28"/>
       <c r="B579" s="13" t="s">
         <v>536</v>
@@ -10523,7 +10524,7 @@
       </c>
       <c r="E579" s="11"/>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="28"/>
       <c r="B580" s="13" t="s">
         <v>536</v>
@@ -10536,7 +10537,7 @@
       </c>
       <c r="E580" s="11"/>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="28">
         <v>232</v>
       </c>
@@ -10551,7 +10552,7 @@
       </c>
       <c r="E581" s="11"/>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="28"/>
       <c r="B582" s="13" t="s">
         <v>538</v>
@@ -10564,7 +10565,7 @@
       </c>
       <c r="E582" s="11"/>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="28"/>
       <c r="B583" s="13" t="s">
         <v>538</v>
@@ -10577,7 +10578,7 @@
       </c>
       <c r="E583" s="11"/>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="28">
         <v>233</v>
       </c>
@@ -10592,7 +10593,7 @@
       </c>
       <c r="E584" s="11"/>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="28"/>
       <c r="B585" s="13" t="s">
         <v>540</v>
@@ -10605,7 +10606,7 @@
       </c>
       <c r="E585" s="11"/>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="28"/>
       <c r="B586" s="13" t="s">
         <v>540</v>
@@ -10618,7 +10619,7 @@
       </c>
       <c r="E586" s="11"/>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="28">
         <v>234</v>
       </c>
@@ -10633,7 +10634,7 @@
       </c>
       <c r="E587" s="11"/>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="28"/>
       <c r="B588" s="13" t="s">
         <v>542</v>
@@ -10646,7 +10647,7 @@
       </c>
       <c r="E588" s="11"/>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="28"/>
       <c r="B589" s="13" t="s">
         <v>542</v>
@@ -10659,7 +10660,7 @@
       </c>
       <c r="E589" s="11"/>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="28">
         <v>235</v>
       </c>
@@ -10674,7 +10675,7 @@
       </c>
       <c r="E590" s="11"/>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="28"/>
       <c r="B591" s="13" t="s">
         <v>544</v>
@@ -10687,7 +10688,7 @@
       </c>
       <c r="E591" s="11"/>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="28"/>
       <c r="B592" s="13" t="s">
         <v>544</v>
@@ -10700,7 +10701,7 @@
       </c>
       <c r="E592" s="11"/>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="28">
         <v>236</v>
       </c>
@@ -10715,7 +10716,7 @@
       </c>
       <c r="E593" s="11"/>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="28"/>
       <c r="B594" s="13" t="s">
         <v>546</v>
@@ -10728,7 +10729,7 @@
       </c>
       <c r="E594" s="11"/>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="28"/>
       <c r="B595" s="13" t="s">
         <v>546</v>
@@ -10741,7 +10742,7 @@
       </c>
       <c r="E595" s="11"/>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="28">
         <v>237</v>
       </c>
@@ -10756,7 +10757,7 @@
       </c>
       <c r="E596" s="11"/>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="28"/>
       <c r="B597" s="13" t="s">
         <v>548</v>
@@ -10769,7 +10770,7 @@
       </c>
       <c r="E597" s="11"/>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="28"/>
       <c r="B598" s="13" t="s">
         <v>548</v>
@@ -10782,7 +10783,7 @@
       </c>
       <c r="E598" s="11"/>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="28">
         <v>238</v>
       </c>
@@ -10797,7 +10798,7 @@
       </c>
       <c r="E599" s="11"/>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="28"/>
       <c r="B600" s="13" t="s">
         <v>550</v>
@@ -10810,7 +10811,7 @@
       </c>
       <c r="E600" s="11"/>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="28"/>
       <c r="B601" s="13" t="s">
         <v>550</v>
@@ -10823,7 +10824,7 @@
       </c>
       <c r="E601" s="11"/>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="28">
         <v>239</v>
       </c>
@@ -10838,7 +10839,7 @@
       </c>
       <c r="E602" s="11"/>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="28"/>
       <c r="B603" s="13" t="s">
         <v>552</v>
@@ -10851,7 +10852,7 @@
       </c>
       <c r="E603" s="11"/>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="28"/>
       <c r="B604" s="13" t="s">
         <v>552</v>
@@ -10864,7 +10865,7 @@
       </c>
       <c r="E604" s="11"/>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="28">
         <v>240</v>
       </c>
@@ -10879,7 +10880,7 @@
       </c>
       <c r="E605" s="11"/>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="28"/>
       <c r="B606" s="13" t="s">
         <v>554</v>
@@ -10892,7 +10893,7 @@
       </c>
       <c r="E606" s="11"/>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="28"/>
       <c r="B607" s="13" t="s">
         <v>554</v>
@@ -10905,7 +10906,7 @@
       </c>
       <c r="E607" s="11"/>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="28">
         <v>241</v>
       </c>
@@ -10920,7 +10921,7 @@
       </c>
       <c r="E608" s="11"/>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="28"/>
       <c r="B609" s="13" t="s">
         <v>556</v>
@@ -10933,7 +10934,7 @@
       </c>
       <c r="E609" s="11"/>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="28"/>
       <c r="B610" s="13" t="s">
         <v>556</v>
@@ -10946,7 +10947,7 @@
       </c>
       <c r="E610" s="11"/>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="28">
         <v>242</v>
       </c>
@@ -10961,7 +10962,7 @@
       </c>
       <c r="E611" s="11"/>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="28"/>
       <c r="B612" s="13" t="s">
         <v>558</v>
@@ -10974,7 +10975,7 @@
       </c>
       <c r="E612" s="11"/>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="28"/>
       <c r="B613" s="13" t="s">
         <v>558</v>
@@ -10987,7 +10988,7 @@
       </c>
       <c r="E613" s="11"/>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="28">
         <v>243</v>
       </c>
@@ -11002,7 +11003,7 @@
       </c>
       <c r="E614" s="11"/>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="28"/>
       <c r="B615" s="13" t="s">
         <v>560</v>
@@ -11015,7 +11016,7 @@
       </c>
       <c r="E615" s="11"/>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="28"/>
       <c r="B616" s="13" t="s">
         <v>560</v>
@@ -11028,7 +11029,7 @@
       </c>
       <c r="E616" s="11"/>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="28">
         <v>244</v>
       </c>
@@ -11042,7 +11043,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="28"/>
       <c r="B618" s="21" t="s">
         <v>562</v>
@@ -11054,7 +11055,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="25">
         <v>245</v>
       </c>
@@ -11068,7 +11069,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="26"/>
       <c r="B620" s="21" t="s">
         <v>564</v>
@@ -11080,7 +11081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="25">
         <v>246</v>
       </c>
@@ -11094,7 +11095,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="26"/>
       <c r="B622" s="21" t="s">
         <v>566</v>
@@ -11106,7 +11107,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="25">
         <v>247</v>
       </c>
@@ -11120,7 +11121,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="26"/>
       <c r="B624" s="21" t="s">
         <v>568</v>
@@ -11132,7 +11133,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="25">
         <v>248</v>
       </c>
@@ -11146,7 +11147,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="26"/>
       <c r="B626" s="21" t="s">
         <v>570</v>
@@ -11158,7 +11159,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="25">
         <v>249</v>
       </c>
@@ -11172,7 +11173,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="26"/>
       <c r="B628" s="21" t="s">
         <v>572</v>
@@ -11184,7 +11185,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="25">
         <v>250</v>
       </c>
@@ -11198,7 +11199,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="26"/>
       <c r="B630" s="21" t="s">
         <v>574</v>
@@ -11210,7 +11211,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="25">
         <v>251</v>
       </c>
@@ -11224,7 +11225,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="26"/>
       <c r="B632" s="21" t="s">
         <v>576</v>
@@ -11236,7 +11237,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="25">
         <v>252</v>
       </c>
@@ -11250,7 +11251,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="26"/>
       <c r="B634" s="21" t="s">
         <v>578</v>
@@ -11262,7 +11263,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="25">
         <v>253</v>
       </c>
@@ -11276,7 +11277,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="26"/>
       <c r="B636" s="21" t="s">
         <v>580</v>
@@ -11288,7 +11289,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="25">
         <v>254</v>
       </c>
@@ -11302,7 +11303,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="26"/>
       <c r="B638" s="21" t="s">
         <v>582</v>
@@ -11314,7 +11315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="25">
         <v>255</v>
       </c>
@@ -11328,7 +11329,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="26"/>
       <c r="B640" s="21" t="s">
         <v>584</v>
@@ -11340,7 +11341,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="25">
         <v>256</v>
       </c>
@@ -11354,7 +11355,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="26"/>
       <c r="B642" s="21" t="s">
         <v>586</v>
@@ -11366,7 +11367,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="25">
         <v>257</v>
       </c>
@@ -11380,7 +11381,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="26"/>
       <c r="B644" s="21" t="s">
         <v>588</v>
@@ -11392,7 +11393,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="25">
         <v>258</v>
       </c>
@@ -11406,7 +11407,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="26"/>
       <c r="B646" s="21" t="s">
         <v>590</v>
@@ -11418,7 +11419,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="25">
         <v>259</v>
       </c>
@@ -11432,7 +11433,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="26"/>
       <c r="B648" s="21" t="s">
         <v>592</v>
@@ -11444,7 +11445,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="25">
         <v>260</v>
       </c>
@@ -11458,7 +11459,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="26"/>
       <c r="B650" s="21" t="s">
         <v>594</v>
@@ -11470,7 +11471,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="25">
         <v>261</v>
       </c>
@@ -11484,7 +11485,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="26"/>
       <c r="B652" s="21" t="s">
         <v>596</v>
@@ -11496,7 +11497,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="25">
         <v>262</v>
       </c>
@@ -11510,7 +11511,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="26"/>
       <c r="B654" s="21" t="s">
         <v>598</v>
@@ -11522,7 +11523,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="25">
         <v>263</v>
       </c>
@@ -11536,7 +11537,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="26"/>
       <c r="B656" s="21" t="s">
         <v>600</v>
@@ -11548,7 +11549,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="25">
         <v>264</v>
       </c>
@@ -11562,7 +11563,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="26"/>
       <c r="B658" s="21" t="s">
         <v>602</v>
@@ -11574,7 +11575,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="25">
         <v>265</v>
       </c>
@@ -11588,7 +11589,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="26"/>
       <c r="B660" s="21" t="s">
         <v>604</v>
@@ -11600,7 +11601,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="25">
         <v>266</v>
       </c>
@@ -11614,7 +11615,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="26"/>
       <c r="B662" s="21" t="s">
         <v>606</v>
@@ -11626,7 +11627,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="25">
         <v>267</v>
       </c>
@@ -11640,7 +11641,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="26"/>
       <c r="B664" s="21" t="s">
         <v>608</v>
@@ -11652,7 +11653,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="25">
         <v>268</v>
       </c>
@@ -11666,7 +11667,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="26"/>
       <c r="B666" s="21" t="s">
         <v>610</v>
@@ -11678,7 +11679,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="25">
         <v>269</v>
       </c>
@@ -11692,7 +11693,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="26"/>
       <c r="B668" s="21" t="s">
         <v>612</v>
@@ -11704,7 +11705,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="25">
         <v>270</v>
       </c>
@@ -11718,7 +11719,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="26"/>
       <c r="B670" s="21" t="s">
         <v>614</v>
@@ -11730,7 +11731,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="25">
         <v>271</v>
       </c>
@@ -11744,7 +11745,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="26"/>
       <c r="B672" s="21" t="s">
         <v>616</v>
@@ -11756,7 +11757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="25">
         <v>272</v>
       </c>
@@ -11770,7 +11771,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="26"/>
       <c r="B674" s="21" t="s">
         <v>618</v>
@@ -11782,7 +11783,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="25">
         <v>273</v>
       </c>
@@ -11796,7 +11797,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="26"/>
       <c r="B676" s="21" t="s">
         <v>620</v>
@@ -11808,7 +11809,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="25">
         <v>274</v>
       </c>
@@ -11822,7 +11823,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="26"/>
       <c r="B678" s="21" t="s">
         <v>622</v>
@@ -11834,7 +11835,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="25">
         <v>275</v>
       </c>
@@ -11848,7 +11849,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="26"/>
       <c r="B680" s="21" t="s">
         <v>624</v>
@@ -11860,7 +11861,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="25">
         <v>276</v>
       </c>
@@ -11874,7 +11875,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="26"/>
       <c r="B682" s="21" t="s">
         <v>626</v>
@@ -11886,7 +11887,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="25">
         <v>277</v>
       </c>
@@ -11900,7 +11901,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="26"/>
       <c r="B684" s="21" t="s">
         <v>628</v>
@@ -11912,7 +11913,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="25">
         <v>278</v>
       </c>
@@ -11926,7 +11927,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="26"/>
       <c r="B686" s="21" t="s">
         <v>630</v>
@@ -11938,7 +11939,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="25">
         <v>279</v>
       </c>
@@ -11952,7 +11953,7 @@
         <v>389157</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="26"/>
       <c r="B688" s="21" t="s">
         <v>632</v>
@@ -11964,7 +11965,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="36">
         <v>280</v>
       </c>
@@ -11978,7 +11979,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="36">
         <v>281</v>
       </c>
@@ -11992,7 +11993,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="36">
         <v>282</v>
       </c>
@@ -12006,7 +12007,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="36">
         <v>283</v>
       </c>
@@ -12020,7 +12021,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="36">
         <v>284</v>
       </c>
@@ -12034,7 +12035,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="36">
         <v>285</v>
       </c>
@@ -12048,7 +12049,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="36">
         <v>286</v>
       </c>
@@ -12062,7 +12063,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="36">
         <v>287</v>
       </c>
@@ -12076,7 +12077,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="36">
         <v>288</v>
       </c>
@@ -12090,7 +12091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="36">
         <v>289</v>
       </c>
@@ -12104,7 +12105,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="36">
         <v>290</v>
       </c>
@@ -12118,7 +12119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="36">
         <v>291</v>
       </c>
@@ -12132,7 +12133,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="36">
         <v>292</v>
       </c>
@@ -12146,7 +12147,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="37">
         <v>293</v>
       </c>
@@ -12160,7 +12161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="37">
         <v>294</v>
       </c>
@@ -12174,7 +12175,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="37">
         <v>295</v>
       </c>
@@ -12188,7 +12189,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="37">
         <v>296</v>
       </c>
@@ -12202,7 +12203,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" s="37">
         <v>297</v>
       </c>
@@ -12213,113 +12214,113 @@
         <v>669</v>
       </c>
       <c r="D706" s="35" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.35">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="37">
         <v>298</v>
       </c>
       <c r="B707" s="34" t="s">
+        <v>670</v>
+      </c>
+      <c r="C707" s="35" t="s">
         <v>671</v>
       </c>
-      <c r="C707" s="35" t="s">
+      <c r="D707" s="34" t="s">
         <v>672</v>
       </c>
-      <c r="D707" s="34" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="708" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="37">
         <v>299</v>
       </c>
       <c r="B708" s="34" t="s">
+        <v>673</v>
+      </c>
+      <c r="C708" s="33" t="s">
         <v>674</v>
       </c>
-      <c r="C708" s="33" t="s">
+      <c r="D708" s="34" t="s">
         <v>675</v>
       </c>
-      <c r="D708" s="34" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="709" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="37">
         <v>300</v>
       </c>
       <c r="B709" s="35" t="s">
+        <v>676</v>
+      </c>
+      <c r="C709" s="35" t="s">
         <v>677</v>
       </c>
-      <c r="C709" s="35" t="s">
+      <c r="D709" s="35" t="s">
         <v>678</v>
       </c>
-      <c r="D709" s="35" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="710" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="37">
         <v>301</v>
       </c>
       <c r="B710" s="35" t="s">
+        <v>679</v>
+      </c>
+      <c r="C710" s="35" t="s">
         <v>680</v>
-      </c>
-      <c r="C710" s="35" t="s">
-        <v>681</v>
       </c>
       <c r="D710" s="35" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="37">
         <v>302</v>
       </c>
       <c r="B711" s="38" t="s">
+        <v>681</v>
+      </c>
+      <c r="C711" s="38" t="s">
         <v>682</v>
       </c>
-      <c r="C711" s="38" t="s">
+      <c r="D711" s="38" t="s">
         <v>683</v>
       </c>
-      <c r="D711" s="38" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="712" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="37">
         <v>303</v>
       </c>
       <c r="B712" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="C712" s="33" t="s">
         <v>685</v>
       </c>
-      <c r="C712" s="33" t="s">
+      <c r="D712" s="33" t="s">
         <v>686</v>
       </c>
-      <c r="D712" s="33" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="713" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="37">
         <v>304</v>
       </c>
       <c r="B713" s="41" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C713" s="39" t="s">
+        <v>687</v>
+      </c>
+      <c r="D713" s="40" t="s">
         <v>688</v>
       </c>
-      <c r="D713" s="40" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="714" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="37">
         <v>305</v>
       </c>
       <c r="B714" s="35" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C714" s="33" t="s">
         <v>640</v>
@@ -12328,130 +12329,137 @@
         <v>319</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="37">
         <v>306</v>
       </c>
       <c r="B715" s="41" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C715" s="39" t="s">
+        <v>690</v>
+      </c>
+      <c r="D715" s="35" t="s">
         <v>691</v>
       </c>
-      <c r="D715" s="35" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="716" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="29">
         <v>307</v>
       </c>
       <c r="B716" s="41" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C716" s="33" t="s">
+        <v>694</v>
+      </c>
+      <c r="D716" s="39" t="s">
         <v>695</v>
       </c>
-      <c r="D716" s="39" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="717" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="29">
         <v>308</v>
       </c>
       <c r="B717" s="35" t="s">
+        <v>708</v>
+      </c>
+      <c r="C717" s="33" t="s">
         <v>709</v>
       </c>
-      <c r="C717" s="33" t="s">
+      <c r="D717" s="35" t="s">
         <v>710</v>
       </c>
-      <c r="D717" s="35" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="718" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="29">
         <v>309</v>
       </c>
       <c r="B718" s="35" t="s">
+        <v>696</v>
+      </c>
+      <c r="C718" s="33" t="s">
         <v>697</v>
       </c>
-      <c r="C718" s="33" t="s">
+      <c r="D718" s="35" t="s">
         <v>698</v>
       </c>
-      <c r="D718" s="35" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="719" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="29">
         <v>310</v>
       </c>
       <c r="B719" s="35" t="s">
+        <v>699</v>
+      </c>
+      <c r="C719" s="33" t="s">
         <v>700</v>
       </c>
-      <c r="C719" s="33" t="s">
+      <c r="D719" s="35" t="s">
         <v>701</v>
       </c>
-      <c r="D719" s="35" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="720" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="29">
         <v>311</v>
       </c>
       <c r="B720" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="C720" s="33" t="s">
         <v>682</v>
       </c>
-      <c r="C720" s="33" t="s">
+      <c r="D720" s="35" t="s">
         <v>683</v>
       </c>
-      <c r="D720" s="35" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="721" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="29">
         <v>312</v>
       </c>
       <c r="B721" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="C721" s="33" t="s">
         <v>703</v>
       </c>
-      <c r="C721" s="33" t="s">
+      <c r="D721" s="35" t="s">
         <v>704</v>
       </c>
-      <c r="D721" s="35" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="722" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="29">
         <v>313</v>
       </c>
       <c r="B722" s="35" t="s">
+        <v>705</v>
+      </c>
+      <c r="C722" s="33" t="s">
         <v>706</v>
       </c>
-      <c r="C722" s="33" t="s">
+      <c r="D722" s="35" t="s">
         <v>707</v>
       </c>
-      <c r="D722" s="35" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" s="29"/>
       <c r="B723" s="5"/>
       <c r="C723" s="6"/>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" s="29"/>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725" s="29"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D722" xr:uid="{E6D40760-BCA6-444E-A853-F433FF943820}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="810059-XY2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
